--- a/external/languages.xlsx
+++ b/external/languages.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Scripts\layout\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C212D4E9-8BBF-48F5-AB08-E5D2904B29F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AED6650-3F29-4379-BB59-94D8D75A40F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="languages" sheetId="1" r:id="rId1"/>
-    <sheet name="Alphabets" sheetId="3" r:id="rId2"/>
-    <sheet name="African alphabets" sheetId="4" r:id="rId3"/>
-    <sheet name="Niger–Congo alphabets " sheetId="2" r:id="rId4"/>
+    <sheet name="Languages" sheetId="1" r:id="rId1"/>
+    <sheet name="Modes" sheetId="5" r:id="rId2"/>
+    <sheet name="Alphabets" sheetId="3" r:id="rId3"/>
+    <sheet name="African alphabets" sheetId="4" r:id="rId4"/>
+    <sheet name="Niger–Congo alphabets (150+)" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="693">
   <si>
     <t>English</t>
   </si>
@@ -155,9 +156,6 @@
     <t>Supported</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>[1]</t>
   </si>
   <si>
@@ -212,13 +210,7 @@
     <t>Mongolian</t>
   </si>
   <si>
-    <t>Uzbek</t>
-  </si>
-  <si>
     <t>Nepali</t>
-  </si>
-  <si>
-    <t>Urdu</t>
   </si>
   <si>
     <t>Belarusian</t>
@@ -1549,9 +1541,6 @@
     <t>çğöşü</t>
   </si>
   <si>
-    <t>̧I (çğöşü)</t>
-  </si>
-  <si>
     <t>(çşğ)</t>
   </si>
   <si>
@@ -1762,9 +1751,6 @@
     <t>çğöş</t>
   </si>
   <si>
-    <t>əı (öğşü)</t>
-  </si>
-  <si>
     <t>ə (I?) (çğöşü)</t>
   </si>
   <si>
@@ -1792,12 +1778,6 @@
     <t>áäčďžéíĺľňóôŕšťúýž</t>
   </si>
   <si>
-    <t>(áäčďžéíĺľňóôŕšťúýž)</t>
-  </si>
-  <si>
-    <t>(áčďžéíĺľňóôŕšťúýž)</t>
-  </si>
-  <si>
     <t>Catalan</t>
   </si>
   <si>
@@ -1940,6 +1920,240 @@
   </si>
   <si>
     <t>ǝɍ</t>
+  </si>
+  <si>
+    <t>ä</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>ẞ</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>ł</t>
+  </si>
+  <si>
+    <t>Ø</t>
+  </si>
+  <si>
+    <t>æ</t>
+  </si>
+  <si>
+    <t>œ</t>
+  </si>
+  <si>
+    <t>ç</t>
+  </si>
+  <si>
+    <t>ş</t>
+  </si>
+  <si>
+    <t>ğ</t>
+  </si>
+  <si>
+    <t>Supportive</t>
+  </si>
+  <si>
+    <t>ż</t>
+  </si>
+  <si>
+    <t>ę</t>
+  </si>
+  <si>
+    <t>ą</t>
+  </si>
+  <si>
+    <t>ă</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> â</t>
+  </si>
+  <si>
+    <t>î</t>
+  </si>
+  <si>
+    <t>ș</t>
+  </si>
+  <si>
+    <t>ț</t>
+  </si>
+  <si>
+    <t>(áéóúíý čďěňřšžť ů)</t>
+  </si>
+  <si>
+    <t>Supported+mode</t>
+  </si>
+  <si>
+    <t>Full (main mode)</t>
+  </si>
+  <si>
+    <t>+(çş ğ öü) + iI feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+(ă âî șț) + cedilla to comma feature </t>
+  </si>
+  <si>
+    <r>
+      <t>+(ż ąę)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -(ćńóśź)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>+(öü őű)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -(áéíóú)</t>
+    </r>
+  </si>
+  <si>
+    <t>ő</t>
+  </si>
+  <si>
+    <t>ű</t>
+  </si>
+  <si>
+    <t>(áäčďžéíĺľňóôŕšťúý)</t>
+  </si>
+  <si>
+    <t>(áčďžéíĺľňóôŕšťúý)</t>
+  </si>
+  <si>
+    <t>(áéóíúýŕĺ čďľňšťž ô)</t>
+  </si>
+  <si>
+    <t>ć</t>
+  </si>
+  <si>
+    <t>ž</t>
+  </si>
+  <si>
+    <t>š</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ė</t>
+  </si>
+  <si>
+    <t>ū</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+(čšž ė ū) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-(ąęįų)</t>
+    </r>
+  </si>
+  <si>
+    <t>̧I (çş ğ öü)</t>
+  </si>
+  <si>
+    <t>əı (çş ğ öü)</t>
+  </si>
+  <si>
+    <t>ə +(çş ğ öü) + iI feature</t>
+  </si>
+  <si>
+    <t>Slovene / Croatian (Gaj's latin)</t>
+  </si>
+  <si>
+    <t>/Gaj's Latin alphabet/  +(ć čšž)</t>
+  </si>
+  <si>
+    <t>+(ć čšž)</t>
+  </si>
+  <si>
+    <t>(āēīū čšž ģ ķļņ)</t>
+  </si>
+  <si>
+    <t>(äöü õ (šž lw))</t>
+  </si>
+  <si>
+    <t>Romanization is fully supported – ISO 9984; ALA-LC; Kartvelo translit; and other "standard latin based" versions.</t>
+  </si>
+  <si>
+    <t>Gaj's alphabet + Bosnian Cyrillic + Serbian Cyrillic alphabet</t>
+  </si>
+  <si>
+    <t>(çë)</t>
+  </si>
+  <si>
+    <t>Romanization is fully supported – ISO 15919; and other "standard latin based" versions.</t>
+  </si>
+  <si>
+    <t>Romanization is fully supported – Hübschmann-Meillet; ISO 9985; ALA-LC; and other "standard latin based" versions.</t>
+  </si>
+  <si>
+    <t>Mode provided</t>
+  </si>
+  <si>
+    <t>äöü ğ ş ŋ ū (+ cyrillic?)</t>
+  </si>
+  <si>
+    <t>áéíóúý þö</t>
+  </si>
+  <si>
+    <t>Mongolian Cyrillic alphabet</t>
+  </si>
+  <si>
+    <t>Uzbek (latin)</t>
+  </si>
+  <si>
+    <t>Uzbek (cyrillic)</t>
+  </si>
+  <si>
+    <t>need confirmation</t>
+  </si>
+  <si>
+    <t>Urdu (latin)</t>
+  </si>
+  <si>
+    <t>ūz̤ẓṣṛṭ</t>
+  </si>
+  <si>
+    <t>Romanization is fully supported – ISO 15919.</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Romanization is partially supported</t>
+  </si>
+  <si>
+    <t>áčŋšŧž</t>
+  </si>
+  <si>
+    <t>Romanization is supported</t>
   </si>
 </sst>
 </file>
@@ -1947,9 +2161,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1976,6 +2190,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2023,10 +2245,28 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2036,7 +2276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2053,7 +2293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -2083,21 +2323,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
@@ -2129,42 +2412,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2185,6 +2433,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2192,7 +2461,133 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2472,24 +2867,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E186"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="5"/>
-    <col min="3" max="3" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="136.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>33</v>
@@ -2497,21 +2892,21 @@
       <c r="C1" s="7"/>
       <c r="D1" s="8"/>
       <c r="E1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>40</v>
+      <c r="D3" s="27" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2544,7 +2939,10 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>649</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2555,7 +2953,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2569,7 +2967,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2591,7 +2989,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>650</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2605,7 +3003,7 @@
         <v>38</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2630,7 +3028,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2644,7 +3042,7 @@
         <v>38</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2691,18 +3089,15 @@
         <v>38</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="3">
         <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2727,7 +3122,7 @@
         <v>38</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2741,7 +3136,7 @@
         <v>38</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2755,7 +3150,7 @@
         <v>38</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2766,7 +3161,10 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>649</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2777,7 +3175,10 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>39</v>
+        <v>649</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2790,6 +3191,9 @@
       <c r="C26" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="D26" s="12" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2799,11 +3203,11 @@
         <v>2E-3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>37</v>
+        <v>650</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="3">
@@ -2818,7 +3222,10 @@
         <v>1E-3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>649</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2829,11 +3236,11 @@
         <v>1E-3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>650</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="3">
@@ -2848,7 +3255,7 @@
         <v>1E-3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>37</v>
+        <v>650</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2861,6 +3268,9 @@
       <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="D33" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -2870,7 +3280,10 @@
         <v>1E-3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>39</v>
+        <v>649</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2884,7 +3297,7 @@
         <v>38</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2895,7 +3308,10 @@
         <v>1E-3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>39</v>
+        <v>649</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2906,31 +3322,49 @@
         <v>1E-3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>37</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>191</v>
+      <c r="A39" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>649</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="B41" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2938,684 +3372,864 @@
         <v>34</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>47</v>
+      <c r="A43" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="B45" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>191</v>
+      <c r="B47" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="34" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="B49" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="B50" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="B51" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="B53" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="B54" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="33"/>
+      <c r="D54" s="36" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="B56" s="37"/>
+      <c r="D56" s="34"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="B57" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="33"/>
+      <c r="D58" s="34" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="B59" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="34"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="B60" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="B61" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="B62" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="B63" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="B64" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="B65" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="33"/>
+      <c r="D65" s="34" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="B66" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="B67" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="B68" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="B69" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="B70" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="B71" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" s="33"/>
+      <c r="D71" s="34"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="B72" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="B73" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="B74" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C74" s="33"/>
+      <c r="D74" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="B75" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="B76" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="B77" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="B78" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="B79" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+      <c r="B80" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+      <c r="B81" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C81" s="33"/>
+      <c r="D81" s="34"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+      <c r="B82" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+      <c r="B83" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="33"/>
+      <c r="D83" s="34"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="B84" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="B85" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="B86" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="B87" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="B88" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="B89" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="B90" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+      <c r="B91" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+      <c r="B92" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+      <c r="B93" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="B94" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="B95" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="B96" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B126" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>126</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B127" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3623,7 +4237,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B128" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3631,7 +4245,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B129" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3639,7 +4253,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B130" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3647,7 +4261,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B131" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3655,7 +4269,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B132" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3663,7 +4277,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B133" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3671,7 +4285,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B134" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3679,7 +4293,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B135" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3687,7 +4301,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B136" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3695,7 +4309,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B137" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3703,7 +4317,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B138" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3711,7 +4325,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B139" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3719,7 +4333,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B140" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3727,7 +4341,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B141" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3735,7 +4349,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B142" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3743,7 +4357,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B143" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3751,7 +4365,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B144" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3759,7 +4373,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B145" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3767,7 +4381,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B146" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3775,7 +4389,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B147" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3783,7 +4397,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B148" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3791,7 +4405,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B149" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3799,7 +4413,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B150" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3807,7 +4421,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B151" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3815,7 +4429,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B152" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3823,7 +4437,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B153" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3831,7 +4445,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B154" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3839,7 +4453,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B155" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3847,7 +4461,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B156" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3855,7 +4469,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B157" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3863,7 +4477,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B158" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3871,7 +4485,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B159" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3879,7 +4493,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B160" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3887,7 +4501,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B161" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3895,7 +4509,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B162" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3903,7 +4517,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B163" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3911,7 +4525,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B164" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3919,7 +4533,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B165" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3927,7 +4541,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B166" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3935,7 +4549,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B167" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3943,7 +4557,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B168" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3951,7 +4565,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B169" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3959,7 +4573,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B170" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3967,7 +4581,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B171" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3975,7 +4589,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B172" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3983,7 +4597,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B173" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3991,7 +4605,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B174" s="6">
         <v>9.9999999999999995E-7</v>
@@ -3999,7 +4613,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B175" s="6">
         <v>9.9999999999999995E-7</v>
@@ -4007,7 +4621,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B176" s="6">
         <v>9.9999999999999995E-7</v>
@@ -4015,7 +4629,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B177" s="6">
         <v>9.9999999999999995E-7</v>
@@ -4023,7 +4637,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B178" s="6">
         <v>9.9999999999999995E-7</v>
@@ -4031,7 +4645,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B179" s="6">
         <v>9.9999999999999995E-7</v>
@@ -4039,7 +4653,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B180" s="6">
         <v>9.9999999999999995E-7</v>
@@ -4047,7 +4661,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B181" s="6">
         <v>9.9999999999999995E-7</v>
@@ -4055,7 +4669,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B182" s="6">
         <v>9.9999999999999995E-7</v>
@@ -4063,7 +4677,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B183" s="6">
         <v>9.9999999999999995E-7</v>
@@ -4071,7 +4685,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B184" s="6">
         <v>9.9999999999999995E-7</v>
@@ -4079,7 +4693,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B185" s="6">
         <v>9.9999999999999995E-7</v>
@@ -4087,40 +4701,460 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B186" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Unsupported">
+  <mergeCells count="1">
+    <mergeCell ref="B55:B56"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C1:C69 C71:C74 C76:C78 C81:C83 C85:C1048576">
+    <cfRule type="containsText" dxfId="29" priority="26" operator="containsText" text="Supported+mode">
+      <formula>NOT(ISERROR(SEARCH("Supported+mode",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Unsupported">
       <formula>NOT(ISERROR(SEARCH("Unsupported",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Supported">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Supported">
       <formula>NOT(ISERROR(SEARCH("Supported",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Full">
+    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Full">
       <formula>NOT(ISERROR(SEARCH("Full",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Main">
+    <cfRule type="containsText" dxfId="25" priority="30" operator="containsText" text="Main">
       <formula>NOT(ISERROR(SEARCH("Main",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Supported+mode">
+      <formula>NOT(ISERROR(SEARCH("Supported+mode",C70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Unsupported">
+      <formula>NOT(ISERROR(SEARCH("Unsupported",C70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Supported">
+      <formula>NOT(ISERROR(SEARCH("Supported",C70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Full">
+      <formula>NOT(ISERROR(SEARCH("Full",C70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Main">
+      <formula>NOT(ISERROR(SEARCH("Main",C70)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="Supported+mode">
+      <formula>NOT(ISERROR(SEARCH("Supported+mode",C75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Unsupported">
+      <formula>NOT(ISERROR(SEARCH("Unsupported",C75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Supported">
+      <formula>NOT(ISERROR(SEARCH("Supported",C75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Full">
+      <formula>NOT(ISERROR(SEARCH("Full",C75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="Main">
+      <formula>NOT(ISERROR(SEARCH("Main",C75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="Supported+mode">
+      <formula>NOT(ISERROR(SEARCH("Supported+mode",C79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Unsupported">
+      <formula>NOT(ISERROR(SEARCH("Unsupported",C79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Supported">
+      <formula>NOT(ISERROR(SEARCH("Supported",C79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Full">
+      <formula>NOT(ISERROR(SEARCH("Full",C79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="Main">
+      <formula>NOT(ISERROR(SEARCH("Main",C79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Supported+mode">
+      <formula>NOT(ISERROR(SEARCH("Supported+mode",C80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Unsupported">
+      <formula>NOT(ISERROR(SEARCH("Unsupported",C80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Supported">
+      <formula>NOT(ISERROR(SEARCH("Supported",C80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Full">
+      <formula>NOT(ISERROR(SEARCH("Full",C80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Main">
+      <formula>NOT(ISERROR(SEARCH("Main",C80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Supported+mode">
+      <formula>NOT(ISERROR(SEARCH("Supported+mode",C84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Unsupported">
+      <formula>NOT(ISERROR(SEARCH("Unsupported",C84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Supported">
+      <formula>NOT(ISERROR(SEARCH("Supported",C84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Full">
+      <formula>NOT(ISERROR(SEARCH("Full",C84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Main">
+      <formula>NOT(ISERROR(SEARCH("Main",C84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{0AF1AA49-1A1D-4D66-806E-5CDAFE313B40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD1639C-385C-47BC-8A27-65B4241092EB}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50" style="29" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDDD62-9AB9-4798-A481-46E84DB95683}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4137,25 +5171,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E1" t="s">
         <v>490</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>493</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="H1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4163,13 +5197,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F2" s="16">
         <v>379</v>
@@ -4183,13 +5217,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F3" s="16">
         <v>480</v>
@@ -4203,13 +5237,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F4" s="16">
         <v>221</v>
@@ -4223,16 +5257,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D5" t="s">
-        <v>504</v>
+        <v>666</v>
       </c>
       <c r="E5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F5" s="16">
         <v>79.400000000000006</v>
@@ -4246,13 +5280,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F6" s="16">
         <v>77.2</v>
@@ -4263,16 +5297,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F7" s="16">
         <v>76.099999999999994</v>
@@ -4281,7 +5315,7 @@
         <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4289,13 +5323,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C8" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F8" s="16">
         <v>76</v>
@@ -4306,19 +5340,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B9" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C9" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D9" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E9" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F9" s="16">
         <v>68.3</v>
@@ -4332,13 +5366,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F10" s="16">
         <v>64.8</v>
@@ -4349,16 +5383,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F11" s="16">
         <v>43.4</v>
@@ -4372,16 +5406,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C12" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D12" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E12" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F12" s="16">
         <v>39.700000000000003</v>
@@ -4392,19 +5426,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B13" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C13" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D13" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E13" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F13" s="16">
         <v>25.1</v>
@@ -4415,16 +5449,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F14">
         <v>25</v>
@@ -4438,16 +5472,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D15" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E15" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F15" s="16">
         <v>24.3</v>
@@ -4458,16 +5492,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C16" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D16" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F16" s="16">
         <v>24</v>
@@ -4478,52 +5512,52 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D17" t="s">
-        <v>369</v>
-      </c>
-      <c r="F17" s="21">
+        <v>366</v>
+      </c>
+      <c r="F17" s="24">
         <v>23.6</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="23">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B18" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C18" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D18" t="s">
-        <v>499</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+        <v>496</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B19" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F19" s="16">
         <v>23.1</v>
@@ -4534,18 +5568,18 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D20" t="s">
-        <v>369</v>
-      </c>
-      <c r="F20" s="23">
+        <v>366</v>
+      </c>
+      <c r="F20" s="21">
         <v>16.2</v>
       </c>
       <c r="G20">
@@ -4554,16 +5588,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C21" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D21" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F21" s="16">
         <v>16.100000000000001</v>
@@ -4574,16 +5608,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B22" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C22" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D22" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F22" s="16">
         <v>16</v>
@@ -4594,16 +5628,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C23" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D23" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F23" s="16">
         <v>15.9</v>
@@ -4614,19 +5648,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="B24" t="s">
+        <v>536</v>
+      </c>
+      <c r="C24" t="s">
+        <v>537</v>
+      </c>
+      <c r="D24" t="s">
+        <v>538</v>
+      </c>
+      <c r="E24" t="s">
         <v>539</v>
-      </c>
-      <c r="B24" t="s">
-        <v>540</v>
-      </c>
-      <c r="C24" t="s">
-        <v>541</v>
-      </c>
-      <c r="D24" t="s">
-        <v>542</v>
-      </c>
-      <c r="E24" t="s">
-        <v>543</v>
       </c>
       <c r="F24" s="16">
         <v>14.1</v>
@@ -4636,20 +5670,20 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="B25" t="s">
+        <v>541</v>
+      </c>
+      <c r="C25" t="s">
+        <v>542</v>
+      </c>
+      <c r="D25" t="s">
+        <v>543</v>
+      </c>
+      <c r="E25" t="s">
         <v>544</v>
-      </c>
-      <c r="B25" t="s">
-        <v>545</v>
-      </c>
-      <c r="C25" t="s">
-        <v>546</v>
-      </c>
-      <c r="D25" t="s">
-        <v>547</v>
-      </c>
-      <c r="E25" t="s">
-        <v>548</v>
       </c>
       <c r="F25" s="16">
         <v>12.9</v>
@@ -4663,16 +5697,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C26" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D26" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E26" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F26" s="16">
         <v>12.6</v>
@@ -4686,16 +5720,16 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C27" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D27" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E27" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F27" s="16">
         <v>10.7</v>
@@ -4709,13 +5743,13 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C28" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D28" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -4726,16 +5760,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B29" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C29" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D29" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -4746,19 +5780,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C30" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D30" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E30" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F30">
         <v>7.5</v>
@@ -4769,19 +5803,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="B31" t="s">
+        <v>561</v>
+      </c>
+      <c r="C31" t="s">
+        <v>562</v>
+      </c>
+      <c r="D31" t="s">
+        <v>563</v>
+      </c>
+      <c r="E31" t="s">
         <v>564</v>
-      </c>
-      <c r="B31" t="s">
-        <v>565</v>
-      </c>
-      <c r="C31" t="s">
-        <v>566</v>
-      </c>
-      <c r="D31" t="s">
-        <v>567</v>
-      </c>
-      <c r="E31" t="s">
-        <v>568</v>
       </c>
       <c r="F31">
         <v>6.7</v>
@@ -4792,19 +5826,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B32" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C32" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D32" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E32" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F32">
         <v>6.5</v>
@@ -4815,19 +5849,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B33" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C33" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D33" t="s">
-        <v>575</v>
+        <v>667</v>
       </c>
       <c r="E33" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F33" s="16">
         <v>6.06</v>
@@ -4841,13 +5875,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C34" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D34" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F34">
         <v>6</v>
@@ -4856,7 +5890,7 @@
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -4864,13 +5898,13 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C35" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D35" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F35">
         <v>5.8</v>
@@ -4881,16 +5915,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B36" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C36" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D36" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F36">
         <v>5.4</v>
@@ -4904,13 +5938,13 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C37" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D37" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F37">
         <v>5.32</v>
@@ -4924,16 +5958,16 @@
         <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C38" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D38" t="s">
-        <v>585</v>
+        <v>657</v>
       </c>
       <c r="E38" t="s">
-        <v>586</v>
+        <v>658</v>
       </c>
       <c r="F38">
         <v>5.2</v>
@@ -4944,16 +5978,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B39" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C39" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D39" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F39">
         <v>4.0999999999999996</v>
@@ -4964,16 +5998,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F40">
         <v>3.2</v>
@@ -4984,19 +6018,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B41" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C41" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="D41" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="E41" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -5007,19 +6041,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B42" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C42" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="D42" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="E42" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="F42">
         <v>2.5</v>
@@ -5030,19 +6064,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B43" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C43" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="D43" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="E43" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="F43">
         <v>1.75</v>
@@ -5053,19 +6087,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B44" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C44" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="D44" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="E44" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F44">
         <v>1.7</v>
@@ -5076,19 +6110,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B45" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="C45" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="D45" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="E45" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="F45">
         <v>1.1000000000000001</v>
@@ -5099,19 +6133,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B46" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="C46" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="D46" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="E46" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F46">
         <v>0.314</v>
@@ -5122,19 +6156,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B47" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C47" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="D47" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="E47" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F47">
         <v>0.17</v>
@@ -5152,33 +6186,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F29572-B360-480B-AAFE-D3D5C5A022F5}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F2">
         <v>0.45</v>
@@ -5189,38 +6223,38 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B5" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C5" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="D5" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C6" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="D6" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="E6" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F6" s="16">
         <v>43.9</v>
@@ -5231,19 +6265,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D10" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E10" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="F10">
         <v>15.5</v>
@@ -5257,45 +6291,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B12BA8A-8033-48C5-82D9-E4D112EC98EE}">
   <dimension ref="A1:H190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F2">
         <v>1.3</v>
@@ -5304,18 +6338,18 @@
         <v>1.3</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F3">
         <v>4.0999999999999996</v>
@@ -5326,13 +6360,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F4">
         <v>6.85</v>
@@ -5343,13 +6377,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -5360,18 +6394,18 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E6" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F7">
         <v>1.06</v>
@@ -5382,18 +6416,18 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F9">
         <v>0.42</v>
@@ -5404,13 +6438,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F10">
         <v>1.5</v>
@@ -5421,13 +6455,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F11">
         <v>1.3</v>
@@ -5438,24 +6472,24 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F13">
         <v>2.1</v>
@@ -5466,30 +6500,30 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D16" t="s">
         <v>234</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
         <v>235</v>
-      </c>
-      <c r="C16" t="s">
-        <v>236</v>
-      </c>
-      <c r="D16" t="s">
-        <v>237</v>
-      </c>
-      <c r="E16" t="s">
-        <v>238</v>
       </c>
       <c r="F16">
         <v>65</v>
@@ -5500,13 +6534,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F17">
         <v>1.4</v>
@@ -5517,18 +6551,18 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F19">
         <v>5.5</v>
@@ -5539,18 +6573,18 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F21">
         <v>0.53</v>
@@ -5561,13 +6595,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D22" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E22" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F22">
         <v>2.5</v>
@@ -5578,19 +6612,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F24">
         <v>0.75</v>
@@ -5601,13 +6635,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F25">
         <v>0.46</v>
@@ -5618,13 +6652,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F26">
         <v>0.21</v>
@@ -5635,30 +6669,30 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="F27" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F28">
         <v>7.8</v>
@@ -5669,13 +6703,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F29">
         <v>0.72</v>
@@ -5686,13 +6720,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D30" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E30" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F30">
         <v>1.1000000000000001</v>
@@ -5703,13 +6737,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D31" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E31" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F31">
         <v>0.24</v>
@@ -5720,13 +6754,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D32" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E32" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F32">
         <v>3.2</v>
@@ -5737,13 +6771,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D33" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E33" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F33">
         <v>0.23</v>
@@ -5754,16 +6788,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C34" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F34">
         <v>0.44</v>
@@ -5774,18 +6808,18 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F35" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F36">
         <v>0.44</v>
@@ -5796,13 +6830,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D37" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E37" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F37">
         <v>0.28000000000000003</v>
@@ -5813,13 +6847,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D38" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E38" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F38">
         <v>0.9</v>
@@ -5830,18 +6864,18 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F39" s="15" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D40" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E40" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F40">
         <v>0.3</v>
@@ -5852,13 +6886,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D41" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E41" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F41">
         <v>0.15</v>
@@ -5869,21 +6903,21 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D42" s="15" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D43" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E43" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -5894,13 +6928,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D44" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E44" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F44">
         <v>0.3</v>
@@ -5911,13 +6945,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D45" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E45" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F45">
         <v>0.26</v>
@@ -5928,13 +6962,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D46" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E46" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F46">
         <v>0.21</v>
@@ -5945,13 +6979,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D47" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F47">
         <v>0.18</v>
@@ -5962,18 +6996,18 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D49" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E49" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F49">
         <v>0.56000000000000005</v>
@@ -5984,13 +7018,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D50" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E50" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F50">
         <v>0.4</v>
@@ -6001,13 +7035,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D51" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E51" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F51">
         <v>0.1</v>
@@ -6018,24 +7052,24 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C52" s="15" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D53" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E53" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F53">
         <v>0.22</v>
@@ -6046,13 +7080,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D54" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E54" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F54">
         <v>1.02</v>
@@ -6063,30 +7097,30 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="F55" s="15" t="s">
         <v>305</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F56">
         <v>11.2</v>
@@ -6097,13 +7131,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D57" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E57" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F57">
         <v>4.7</v>
@@ -6114,13 +7148,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D58" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E58" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F58">
         <v>0.41</v>
@@ -6131,13 +7165,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D59" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E59" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F59">
         <v>0.18</v>
@@ -6148,13 +7182,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D60" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E60" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F60">
         <v>0.17</v>
@@ -6165,13 +7199,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D61" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E61" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F61">
         <v>1.5</v>
@@ -6182,18 +7216,18 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F62" s="15" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D63" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E63" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F63">
         <v>0.23</v>
@@ -6204,18 +7238,18 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C64" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D65" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E65" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F65">
         <v>9.3000000000000007</v>
@@ -6226,18 +7260,18 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D66" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D67" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E67" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F67">
         <v>7</v>
@@ -6248,13 +7282,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D68" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E68" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F68">
         <v>2.2000000000000002</v>
@@ -6265,13 +7299,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D69" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E69" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F69">
         <v>0.55000000000000004</v>
@@ -6282,13 +7316,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D70" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E70" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F70">
         <v>0.33</v>
@@ -6299,13 +7333,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D71" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E71" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F71">
         <v>0.4</v>
@@ -6316,18 +7350,18 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C72" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D73" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E73" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F73">
         <v>0.38</v>
@@ -6338,27 +7372,27 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C74" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C75" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D75" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E75" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F75" s="16">
         <v>37.799999999999997</v>
@@ -6369,10 +7403,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C76" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F76">
         <v>0.51</v>
@@ -6383,10 +7417,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C77" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -6397,21 +7431,21 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D78" s="15" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C79" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D79" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E79" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F79">
         <v>1.6</v>
@@ -6422,16 +7456,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C80" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D80" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E80" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F80">
         <v>0.27</v>
@@ -6442,16 +7476,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C81" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D81" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E81" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F81">
         <v>0.3</v>
@@ -6462,10 +7496,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C82" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F82">
         <v>0.1</v>
@@ -6476,10 +7510,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C83" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F83">
         <v>0.1</v>
@@ -6490,16 +7524,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C84" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D84" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E84" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F84">
         <v>0.42</v>
@@ -6510,16 +7544,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C85" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D85" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E85" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F85">
         <v>2</v>
@@ -6530,24 +7564,24 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D86" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B87" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C87" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D87" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E87" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F87" s="16">
         <v>27</v>
@@ -6558,19 +7592,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B88" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D88" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E88" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F88">
         <v>0.55000000000000004</v>
@@ -6581,19 +7615,19 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B89" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C89" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D89" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E89" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F89">
         <v>0.8</v>
@@ -6604,19 +7638,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B90" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C90" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D90" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E90" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F90">
         <v>0.54</v>
@@ -6627,19 +7661,19 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B91" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C91" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D91" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E91" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F91">
         <v>1.2</v>
@@ -6650,21 +7684,21 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D92" s="15" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C93" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D93" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E93" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F93">
         <v>3</v>
@@ -6675,10 +7709,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D94" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F94">
         <v>0.8</v>
@@ -6689,15 +7723,15 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D95" s="15" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D96" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F96">
         <v>0.6</v>
@@ -6708,10 +7742,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D97" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F97">
         <v>0.25</v>
@@ -6722,21 +7756,21 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B98" s="15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C99" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F99">
         <v>0.25</v>
@@ -6747,13 +7781,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D100" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E100" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F100">
         <v>1.5</v>
@@ -6764,10 +7798,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D101" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F101">
         <v>0.4</v>
@@ -6778,18 +7812,18 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D102" s="15" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D103" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E103" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F103">
         <v>0.2</v>
@@ -6800,13 +7834,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D104" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E104" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F104">
         <v>0.1</v>
@@ -6817,10 +7851,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D105" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F105">
         <v>0.2</v>
@@ -6831,21 +7865,21 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C106" s="15" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D107" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E107" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F107">
         <v>0.11</v>
@@ -6856,15 +7890,15 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D108" s="15" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D109" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F109">
         <v>15</v>
@@ -6875,13 +7909,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F110">
         <v>0.25</v>
@@ -6892,13 +7926,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F111">
         <v>0.3</v>
@@ -6909,13 +7943,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F112">
         <v>0.14000000000000001</v>
@@ -6926,13 +7960,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F113">
         <v>0.35</v>
@@ -6943,13 +7977,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F114">
         <v>0.21</v>
@@ -6960,13 +7994,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F115">
         <v>0.21</v>
@@ -6977,13 +8011,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F116">
         <v>0.24</v>
@@ -6994,10 +8028,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D117" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F117">
         <v>15</v>
@@ -7008,10 +8042,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F118">
         <v>12</v>
@@ -7022,10 +8056,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F119">
         <v>6.5</v>
@@ -7036,10 +8070,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F120">
         <v>3.1</v>
@@ -7050,10 +8084,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F121">
         <v>2.1</v>
@@ -7064,10 +8098,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F122">
         <v>9.5</v>
@@ -7079,21 +8113,21 @@
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D123" s="17"/>
       <c r="E123" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F123" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F124">
         <v>0.3</v>
@@ -7104,13 +8138,13 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F125">
         <v>0.57999999999999996</v>
@@ -7121,13 +8155,13 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F126">
         <v>0.86</v>
@@ -7138,13 +8172,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -7155,13 +8189,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F128">
         <v>0.11</v>
@@ -7174,18 +8208,18 @@
       <c r="D129" s="17"/>
       <c r="E129" s="17"/>
       <c r="F129" s="15" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D130" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E130" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F130">
         <v>20</v>
@@ -7196,10 +8230,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E131" s="17"/>
       <c r="F131">
@@ -7211,13 +8245,13 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F132">
         <v>0.11</v>
@@ -7228,13 +8262,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F133">
         <v>0.22</v>
@@ -7245,13 +8279,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B134" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E134" s="17"/>
       <c r="F134">
@@ -7263,10 +8297,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E135" s="17"/>
       <c r="F135">
@@ -7280,15 +8314,15 @@
       <c r="D136" s="17"/>
       <c r="E136" s="17"/>
       <c r="G136" s="15" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E137" s="17"/>
       <c r="F137">
@@ -7300,10 +8334,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E138" s="17"/>
       <c r="F138">
@@ -7315,10 +8349,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E139" s="17"/>
       <c r="F139" s="16">
@@ -7330,10 +8364,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D140" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F140">
         <v>11.25</v>
@@ -7344,13 +8378,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F141">
         <v>8.5</v>
@@ -7361,10 +8395,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E142" s="17"/>
       <c r="F142">
@@ -7376,10 +8410,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E143" s="17"/>
       <c r="F143">
@@ -7391,13 +8425,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F144">
         <v>3.1</v>
@@ -7408,13 +8442,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F145">
         <v>0.41</v>
@@ -7425,10 +8459,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E146" s="17"/>
       <c r="F146">
@@ -7440,10 +8474,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E147" s="17"/>
       <c r="F147">
@@ -7455,13 +8489,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F148">
         <v>0.34</v>
@@ -7472,13 +8506,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B149" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E149" s="17"/>
       <c r="F149">
@@ -7490,13 +8524,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B150" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E150" s="17"/>
       <c r="F150">
@@ -7510,18 +8544,18 @@
       <c r="D151" s="17"/>
       <c r="E151" s="17"/>
       <c r="F151" s="15" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B152" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E152" s="17"/>
       <c r="F152" s="17">
@@ -7533,13 +8567,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B153" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E153" s="17"/>
       <c r="F153" s="17">
@@ -7551,10 +8585,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E154" s="17"/>
       <c r="F154" s="17">
@@ -7566,10 +8600,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E155" s="17"/>
       <c r="F155" s="17">
@@ -7581,10 +8615,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E156" s="17"/>
       <c r="F156" s="17">
@@ -7596,10 +8630,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E157" s="17"/>
       <c r="F157" s="17">
@@ -7611,13 +8645,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E158" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F158" s="17">
         <v>0.15</v>
@@ -7628,10 +8662,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E159" s="17"/>
       <c r="F159" s="17">
@@ -7645,18 +8679,18 @@
       <c r="D160" s="17"/>
       <c r="E160" s="17"/>
       <c r="F160" s="15" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B161" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E161" s="17"/>
       <c r="F161" s="17">
@@ -7668,13 +8702,13 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B162" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E162" s="17"/>
       <c r="F162" s="17">
@@ -7686,10 +8720,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E163" s="17"/>
       <c r="F163" s="17">
@@ -7701,10 +8735,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E164" s="17"/>
       <c r="F164" s="17">
@@ -7716,10 +8750,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E165" s="17"/>
       <c r="F165" s="17">
@@ -7731,10 +8765,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E166" s="17"/>
       <c r="F166" s="17">
@@ -7746,10 +8780,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E167" s="17"/>
       <c r="F167" s="17">
@@ -7761,10 +8795,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E168" s="17"/>
       <c r="F168" s="17">
@@ -7776,10 +8810,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E169" s="17"/>
       <c r="F169" s="17">
@@ -7791,10 +8825,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E170" s="17"/>
       <c r="F170">
@@ -7806,10 +8840,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E171" s="17"/>
       <c r="F171" s="17">
@@ -7821,10 +8855,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E172" s="17"/>
       <c r="F172" s="17">
@@ -7836,10 +8870,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E173" s="17"/>
       <c r="F173" s="17">
@@ -7851,10 +8885,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E174" s="17"/>
       <c r="F174" s="17">
@@ -7866,10 +8900,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E175" s="17"/>
       <c r="F175" s="17">
@@ -7881,10 +8915,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E176" s="17"/>
       <c r="F176" s="17">
@@ -7896,16 +8930,16 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C177" s="15" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F177" s="17"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F178" s="17">
         <v>0.1</v>
@@ -7916,13 +8950,13 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E179" s="17" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F179" s="17">
         <v>0.13</v>
@@ -7933,19 +8967,19 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C180" s="15" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F180" s="17"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E181" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F181" s="17">
         <v>1</v>
@@ -7956,13 +8990,13 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E182" s="17" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F182">
         <v>0.3</v>
@@ -7973,13 +9007,13 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F183">
         <v>0.5</v>
@@ -7990,10 +9024,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F184">
         <v>0.5</v>
@@ -8004,10 +9038,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F185">
         <v>0.3</v>
@@ -8018,18 +9052,18 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B186" s="15" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D187" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E187" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F187">
         <v>0.2</v>
@@ -8040,13 +9074,13 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E188" s="17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F188">
         <v>0.2</v>
@@ -8057,13 +9091,13 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D189" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E189" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F189">
         <v>0.41</v>
@@ -8074,13 +9108,13 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E190" s="17" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F190">
         <v>0.32</v>

--- a/external/languages.xlsx
+++ b/external/languages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Scripts\layout\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096167EB-4D06-42E4-8AFC-7904927D030F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16FC933-11E2-4242-B451-DBA45525852F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Languages" sheetId="1" r:id="rId1"/>
@@ -2944,9 +2944,6 @@
     <t>ҟ</t>
   </si>
   <si>
-    <t>ԥ (пц)</t>
-  </si>
-  <si>
     <t>3 (partially)</t>
   </si>
   <si>
@@ -3210,6 +3207,9 @@
   </si>
   <si>
     <t>ҭ</t>
+  </si>
+  <si>
+    <t>ҩ</t>
   </si>
 </sst>
 </file>
@@ -3524,6 +3524,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3538,9 +3541,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3924,8 +3924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3944,11 +3944,11 @@
       <c r="A1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" t="s">
         <v>180</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F13">
         <v>7</v>
@@ -4177,7 +4177,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F14">
         <v>8</v>
@@ -4332,7 +4332,7 @@
         <v>181</v>
       </c>
       <c r="G23" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4488,7 +4488,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4663,7 +4663,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4698,7 +4698,7 @@
       <c r="A52" s="35" t="s">
         <v>889</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="57" t="s">
         <v>178</v>
       </c>
       <c r="C52" s="23" t="s">
@@ -4712,7 +4712,7 @@
       <c r="A53" s="35" t="s">
         <v>890</v>
       </c>
-      <c r="B53" s="56"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="23">
         <v>3</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="A56" s="35" t="s">
         <v>638</v>
       </c>
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="57" t="s">
         <v>178</v>
       </c>
       <c r="C56" s="23">
@@ -4763,7 +4763,7 @@
       <c r="A57" s="35" t="s">
         <v>639</v>
       </c>
-      <c r="B57" s="56"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="23">
         <v>3</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>8</v>
       </c>
       <c r="D58" s="50" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E58" s="25" t="s">
         <v>640</v>
@@ -4827,7 +4827,7 @@
         <v>6</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4966,10 +4966,10 @@
         <v>178</v>
       </c>
       <c r="C72" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="D72" s="27" t="s">
         <v>908</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -5160,7 +5160,7 @@
       <c r="A87" s="35" t="s">
         <v>646</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="57" t="s">
         <v>178</v>
       </c>
       <c r="C87" s="23" t="s">
@@ -5174,7 +5174,7 @@
       <c r="A88" s="35" t="s">
         <v>647</v>
       </c>
-      <c r="B88" s="56"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="23">
         <v>3</v>
       </c>
@@ -5456,7 +5456,7 @@
       <c r="A110" s="35" t="s">
         <v>662</v>
       </c>
-      <c r="B110" s="56" t="s">
+      <c r="B110" s="57" t="s">
         <v>178</v>
       </c>
       <c r="C110" s="23">
@@ -5470,7 +5470,7 @@
       <c r="A111" s="35" t="s">
         <v>663</v>
       </c>
-      <c r="B111" s="56"/>
+      <c r="B111" s="57"/>
       <c r="C111" s="35">
         <v>9</v>
       </c>
@@ -5573,10 +5573,10 @@
         <v>179</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D119" s="27" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -5590,7 +5590,7 @@
         <v>3</v>
       </c>
       <c r="D120" s="27" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -5701,7 +5701,7 @@
         <v>3</v>
       </c>
       <c r="D129" s="27" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -5824,7 +5824,7 @@
       <c r="A140" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B140" s="57">
+      <c r="B140" s="58">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C140" s="35">
@@ -5838,7 +5838,7 @@
       <c r="A141" s="35" t="s">
         <v>683</v>
       </c>
-      <c r="B141" s="57"/>
+      <c r="B141" s="58"/>
       <c r="C141" s="23">
         <v>1</v>
       </c>
@@ -5930,7 +5930,7 @@
       <c r="A149" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="B149" s="57">
+      <c r="B149" s="58">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C149" s="23">
@@ -5941,7 +5941,7 @@
       <c r="A150" s="35" t="s">
         <v>690</v>
       </c>
-      <c r="B150" s="57"/>
+      <c r="B150" s="58"/>
       <c r="C150" s="23">
         <v>3</v>
       </c>
@@ -5953,7 +5953,7 @@
       <c r="A151" s="35" t="s">
         <v>691</v>
       </c>
-      <c r="B151" s="57">
+      <c r="B151" s="58">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C151" s="23">
@@ -5967,7 +5967,7 @@
       <c r="A152" s="35" t="s">
         <v>692</v>
       </c>
-      <c r="B152" s="57"/>
+      <c r="B152" s="58"/>
       <c r="C152" s="23">
         <v>6</v>
       </c>
@@ -6026,7 +6026,7 @@
       <c r="A157" s="35" t="s">
         <v>694</v>
       </c>
-      <c r="B157" s="57">
+      <c r="B157" s="58">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C157" s="23">
@@ -6040,7 +6040,7 @@
       <c r="A158" s="35" t="s">
         <v>695</v>
       </c>
-      <c r="B158" s="57"/>
+      <c r="B158" s="58"/>
       <c r="C158" s="35">
         <v>9</v>
       </c>
@@ -6052,7 +6052,7 @@
       <c r="A159" s="35" t="s">
         <v>696</v>
       </c>
-      <c r="B159" s="57"/>
+      <c r="B159" s="58"/>
       <c r="C159" s="23">
         <v>1</v>
       </c>
@@ -6061,7 +6061,7 @@
       <c r="A160" s="35" t="s">
         <v>700</v>
       </c>
-      <c r="B160" s="57"/>
+      <c r="B160" s="58"/>
       <c r="C160" s="23">
         <v>3</v>
       </c>
@@ -6073,7 +6073,7 @@
       <c r="A161" s="35" t="s">
         <v>701</v>
       </c>
-      <c r="B161" s="57"/>
+      <c r="B161" s="58"/>
       <c r="C161" s="23">
         <v>3</v>
       </c>
@@ -6085,7 +6085,7 @@
       <c r="A162" s="35" t="s">
         <v>697</v>
       </c>
-      <c r="B162" s="57"/>
+      <c r="B162" s="58"/>
       <c r="C162" s="23" t="s">
         <v>748</v>
       </c>
@@ -6097,24 +6097,24 @@
       <c r="A163" s="35" t="s">
         <v>698</v>
       </c>
-      <c r="B163" s="57"/>
+      <c r="B163" s="58"/>
       <c r="C163" s="23">
         <v>3</v>
       </c>
       <c r="D163" s="27" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="35" t="s">
         <v>699</v>
       </c>
-      <c r="B164" s="57"/>
+      <c r="B164" s="58"/>
       <c r="C164" s="23">
         <v>3</v>
       </c>
       <c r="D164" s="27" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -6275,7 +6275,7 @@
       <c r="A176" s="35" t="s">
         <v>708</v>
       </c>
-      <c r="B176" s="57">
+      <c r="B176" s="58">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C176" s="23" t="s">
@@ -6289,12 +6289,12 @@
       <c r="A177" s="35" t="s">
         <v>709</v>
       </c>
-      <c r="B177" s="57"/>
+      <c r="B177" s="58"/>
       <c r="C177" s="23" t="s">
         <v>773</v>
       </c>
       <c r="D177" s="27" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -6308,7 +6308,7 @@
         <v>3</v>
       </c>
       <c r="D178" s="27" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -6372,7 +6372,7 @@
         <v>5</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -6461,7 +6461,7 @@
         <v>3</v>
       </c>
       <c r="D190" s="22" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -6573,7 +6573,7 @@
         <v>3</v>
       </c>
       <c r="D198" s="22" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -6614,16 +6614,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="B203" s="4" t="s">
         <v>943</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>944</v>
       </c>
       <c r="C203" s="2">
         <v>5</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -6631,7 +6631,7 @@
         <v>543</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C204" s="2">
         <v>5</v>
@@ -6645,7 +6645,7 @@
         <v>560</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C205" s="2">
         <v>1</v>
@@ -6656,7 +6656,7 @@
         <v>565</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C206" s="2">
         <v>1</v>
@@ -6664,30 +6664,30 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>748</v>
       </c>
       <c r="D207" s="22" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C208" s="2">
         <v>3</v>
       </c>
       <c r="D208" s="14" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6695,41 +6695,41 @@
         <v>850</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C209" s="2">
         <v>3</v>
       </c>
       <c r="D209" s="14" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C210" s="2">
         <v>3</v>
       </c>
       <c r="D210" s="14" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C211" s="2">
         <v>3</v>
       </c>
       <c r="D211" s="14" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6737,69 +6737,69 @@
         <v>863</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C212" s="2">
         <v>3</v>
       </c>
       <c r="D212" s="14" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C213" s="2">
         <v>3</v>
       </c>
       <c r="D213" s="22" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C214" s="2">
         <v>3</v>
       </c>
       <c r="D214" s="53" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C215" s="2">
         <v>3</v>
       </c>
       <c r="D215" s="22" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="54" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C216" s="33">
         <v>6</v>
       </c>
       <c r="D216" s="55" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -6940,8 +6940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD1639C-385C-47BC-8A27-65B4241092EB}">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7046,7 +7046,7 @@
       <c r="B3" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="34" t="s">
         <v>481</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -7619,25 +7619,25 @@
         <v>667</v>
       </c>
       <c r="C16" s="35" t="s">
+        <v>716</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>717</v>
+      </c>
+      <c r="E16" s="35" t="s">
         <v>714</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="F16" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>715</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>716</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>717</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>427</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>602</v>
       </c>
       <c r="I16" s="51" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J16" s="30" t="s">
         <v>601</v>
@@ -7662,8 +7662,8 @@
       <c r="B17" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>463</v>
+      <c r="C17" s="36" t="s">
+        <v>668</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>871</v>
@@ -7672,10 +7672,10 @@
         <v>872</v>
       </c>
       <c r="F17" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="G17" s="24" t="s">
         <v>665</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>668</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>602</v>
@@ -7789,7 +7789,7 @@
     </row>
     <row r="20" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>609</v>
@@ -7807,7 +7807,7 @@
         <v>776</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>602</v>
@@ -7877,25 +7877,25 @@
     </row>
     <row r="22" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>667</v>
       </c>
       <c r="C22" s="33" t="s">
+        <v>919</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" s="33" t="s">
         <v>920</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="F22" s="33" t="s">
         <v>921</v>
       </c>
-      <c r="E22" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="F22" s="33" t="s">
+      <c r="G22" s="33" t="s">
         <v>922</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>923</v>
       </c>
       <c r="H22" s="30" t="s">
         <v>602</v>
@@ -7921,7 +7921,7 @@
     </row>
     <row r="23" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>609</v>
@@ -7930,16 +7930,16 @@
         <v>656</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>443</v>
       </c>
       <c r="F23" s="33" t="s">
+        <v>932</v>
+      </c>
+      <c r="G23" s="33" t="s">
         <v>933</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>934</v>
       </c>
       <c r="H23" s="30" t="s">
         <v>602</v>
@@ -7965,7 +7965,7 @@
     </row>
     <row r="24" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>609</v>
@@ -7977,10 +7977,10 @@
         <v>607</v>
       </c>
       <c r="E24" s="33" t="s">
+        <v>940</v>
+      </c>
+      <c r="F24" s="33" t="s">
         <v>941</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>942</v>
       </c>
       <c r="G24" s="51" t="s">
         <v>481</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="27" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>667</v>
@@ -8078,12 +8078,12 @@
         <v>605</v>
       </c>
       <c r="O27" s="33"/>
-      <c r="P27" s="58" t="s">
+      <c r="P27" s="59" t="s">
         <v>867</v>
       </c>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
       <c r="T27" s="33"/>
     </row>
     <row r="28" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -8326,13 +8326,13 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>609</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>740</v>
@@ -8347,7 +8347,7 @@
         <v>869</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="I33" s="30" t="s">
         <v>496</v>
@@ -8521,7 +8521,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>667</v>
@@ -8586,7 +8586,7 @@
         <v>830</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>907</v>
+        <v>966</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>824</v>
@@ -8598,7 +8598,7 @@
         <v>904</v>
       </c>
       <c r="L40" s="36" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>902</v>
@@ -8899,16 +8899,16 @@
         <v>507</v>
       </c>
       <c r="B13" t="s">
+        <v>936</v>
+      </c>
+      <c r="C13" t="s">
         <v>937</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>938</v>
       </c>
-      <c r="D13" t="s">
-        <v>939</v>
-      </c>
       <c r="E13" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F13" s="11">
         <v>25.1</v>
@@ -8993,10 +8993,10 @@
       <c r="D17" t="s">
         <v>353</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="61">
         <v>23.6</v>
       </c>
-      <c r="G17" s="59">
+      <c r="G17" s="60">
         <v>45</v>
       </c>
     </row>
@@ -9013,8 +9013,8 @@
       <c r="D18" t="s">
         <v>482</v>
       </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="59"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
@@ -10006,10 +10006,10 @@
       <c r="E18" t="s">
         <v>812</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="59">
         <v>3.5</v>
       </c>
-      <c r="G18" s="58">
+      <c r="G18" s="59">
         <v>3.5</v>
       </c>
     </row>
@@ -10023,8 +10023,8 @@
       <c r="E19" t="s">
         <v>813</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">

--- a/external/languages.xlsx
+++ b/external/languages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Scripts\layout\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16FC933-11E2-4242-B451-DBA45525852F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BFCA31-C49D-43E7-B78A-7ED5FECF8AC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="330" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Languages" sheetId="1" r:id="rId1"/>
@@ -3924,8 +3924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6940,9 +6940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD1639C-385C-47BC-8A27-65B4241092EB}">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10180,9 +10178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B12BA8A-8033-48C5-82D9-E4D112EC98EE}">
   <dimension ref="A1:U190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/external/languages.xlsx
+++ b/external/languages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Scripts\layout\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BFCA31-C49D-43E7-B78A-7ED5FECF8AC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4375C41B-197E-4DCC-BBD0-5120A92C9C10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="330" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Languages" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="955">
   <si>
     <t>English</t>
   </si>
@@ -1840,9 +1840,6 @@
     <t>ẞ</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>ł</t>
   </si>
   <si>
@@ -1879,18 +1876,9 @@
     <t>ă</t>
   </si>
   <si>
-    <t xml:space="preserve"> â</t>
-  </si>
-  <si>
     <t>î</t>
   </si>
   <si>
-    <t>ș</t>
-  </si>
-  <si>
-    <t>ț</t>
-  </si>
-  <si>
     <t>(áéóúíý čďěňřšžť ů)</t>
   </si>
   <si>
@@ -1900,12 +1888,6 @@
     <t xml:space="preserve">+(ă âî șț) + cedilla to comma feature </t>
   </si>
   <si>
-    <t>ő</t>
-  </si>
-  <si>
-    <t>ű</t>
-  </si>
-  <si>
     <t>(áäčďžéíĺľňóôŕšťúý)</t>
   </si>
   <si>
@@ -1913,21 +1895,6 @@
   </si>
   <si>
     <t>(áéóíúýŕĺ čďľňšťž ô)</t>
-  </si>
-  <si>
-    <t>ć</t>
-  </si>
-  <si>
-    <t>ž</t>
-  </si>
-  <si>
-    <t>š</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ė</t>
-  </si>
-  <si>
-    <t>ū</t>
   </si>
   <si>
     <r>
@@ -1994,12 +1961,6 @@
     <t>Tatar (cyrillic)</t>
   </si>
   <si>
-    <t>é</t>
-  </si>
-  <si>
-    <t>ë</t>
-  </si>
-  <si>
     <t>+(äëé)</t>
   </si>
   <si>
@@ -2102,15 +2063,6 @@
     <t xml:space="preserve"> Nagamese Creole</t>
   </si>
   <si>
-    <t>ṅ</t>
-  </si>
-  <si>
-    <t>ị</t>
-  </si>
-  <si>
-    <t>ụ</t>
-  </si>
-  <si>
     <t>+ɛɔ</t>
   </si>
   <si>
@@ -2178,18 +2130,6 @@
   </si>
   <si>
     <t>Southern-Berber</t>
-  </si>
-  <si>
-    <t>ḓ</t>
-  </si>
-  <si>
-    <t>ḽ</t>
-  </si>
-  <si>
-    <t>ṋ</t>
-  </si>
-  <si>
-    <t>ṱ</t>
   </si>
   <si>
     <t>ᵹ</t>
@@ -2257,15 +2197,6 @@
     <t>Latvian / Maori / Samoan / Niuean |macron vowels|</t>
   </si>
   <si>
-    <t>ä</t>
-  </si>
-  <si>
-    <t>ü</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> õ</t>
-  </si>
-  <si>
     <t>Supported + partially "easy type" mode</t>
   </si>
   <si>
@@ -2309,19 +2240,7 @@
     <t>Urdu</t>
   </si>
   <si>
-    <t>ṣ</t>
-  </si>
-  <si>
-    <t>ẓ</t>
-  </si>
-  <si>
     <t>z̤</t>
-  </si>
-  <si>
-    <t>ṛ</t>
-  </si>
-  <si>
-    <t>ṭ</t>
   </si>
   <si>
     <t>Only romanization variants (all possible)</t>
@@ -2407,24 +2326,6 @@
     <t>+(ĉĝĥĵŝŭ)</t>
   </si>
   <si>
-    <t>ĉ</t>
-  </si>
-  <si>
-    <t>ĝ</t>
-  </si>
-  <si>
-    <t>ĥ</t>
-  </si>
-  <si>
-    <t>ĵ</t>
-  </si>
-  <si>
-    <t>ŝ</t>
-  </si>
-  <si>
-    <t>ŭ</t>
-  </si>
-  <si>
     <r>
       <t>+(ż ąę)</t>
     </r>
@@ -2457,31 +2358,10 @@
     <t>ħ</t>
   </si>
   <si>
-    <t>ċ</t>
-  </si>
-  <si>
-    <t>ġ</t>
-  </si>
-  <si>
-    <t>ż</t>
-  </si>
-  <si>
     <t>+ħ (ċġż)</t>
   </si>
   <si>
     <t>+(öüë)</t>
-  </si>
-  <si>
-    <t>â</t>
-  </si>
-  <si>
-    <t>ê</t>
-  </si>
-  <si>
-    <t>ô</t>
-  </si>
-  <si>
-    <t>ú</t>
   </si>
   <si>
     <t>1 / 9</t>
@@ -2515,9 +2395,6 @@
     <t>ô</t>
   </si>
   <si>
-    <t>ẹ</t>
-  </si>
-  <si>
     <t>+(š ôê)</t>
   </si>
   <si>
@@ -2531,9 +2408,6 @@
   </si>
   <si>
     <t>Slovene / Croatian (Gaj's latin) / Romany (Pan-Vlax) /  Romani (official Macedonian)</t>
-  </si>
-  <si>
-    <t>ǵ</t>
   </si>
   <si>
     <t>+(ć čžš)</t>
@@ -2570,9 +2444,6 @@
     <t>ŧ</t>
   </si>
   <si>
-    <t>á</t>
-  </si>
-  <si>
     <t>+ŋŧ (áčšž)</t>
   </si>
   <si>
@@ -2774,9 +2645,6 @@
   </si>
   <si>
     <t>iӧ</t>
-  </si>
-  <si>
-    <t>ӧ</t>
   </si>
   <si>
     <t>ӏ</t>
@@ -3081,12 +2949,6 @@
     <t>+(éè)</t>
   </si>
   <si>
-    <t>ĩ</t>
-  </si>
-  <si>
-    <t>ũ</t>
-  </si>
-  <si>
     <t>+(ĩũ)</t>
   </si>
   <si>
@@ -3103,12 +2965,6 @@
   </si>
   <si>
     <t>Uzbek</t>
-  </si>
-  <si>
-    <t>ḡ</t>
-  </si>
-  <si>
-    <t>ō</t>
   </si>
   <si>
     <t>Bavarian</t>
@@ -3210,6 +3066,114 @@
   </si>
   <si>
     <t>ҩ</t>
+  </si>
+  <si>
+    <t>å</t>
+  </si>
+  <si>
+    <t>ș</t>
+  </si>
+  <si>
+    <t>ț</t>
+  </si>
+  <si>
+    <t>ő</t>
+  </si>
+  <si>
+    <t>ű</t>
+  </si>
+  <si>
+    <t>č</t>
+  </si>
+  <si>
+    <t>š</t>
+  </si>
+  <si>
+    <t>ǵ</t>
+  </si>
+  <si>
+    <t>ž</t>
+  </si>
+  <si>
+    <t>ć</t>
+  </si>
+  <si>
+    <t>ı</t>
+  </si>
+  <si>
+    <t>â</t>
+  </si>
+  <si>
+    <t>ė</t>
+  </si>
+  <si>
+    <t>ọ</t>
+  </si>
+  <si>
+    <t>ḓ</t>
+  </si>
+  <si>
+    <t>ḽ</t>
+  </si>
+  <si>
+    <t>ṋ</t>
+  </si>
+  <si>
+    <t>ṱ</t>
+  </si>
+  <si>
+    <t>ċ</t>
+  </si>
+  <si>
+    <t>ġ</t>
+  </si>
+  <si>
+    <t>ĩ</t>
+  </si>
+  <si>
+    <t>ũ</t>
+  </si>
+  <si>
+    <t>ḡ</t>
+  </si>
+  <si>
+    <t>ṛ</t>
+  </si>
+  <si>
+    <t>ṣ</t>
+  </si>
+  <si>
+    <t>ṭ</t>
+  </si>
+  <si>
+    <t>ẓ</t>
+  </si>
+  <si>
+    <t>ĉ</t>
+  </si>
+  <si>
+    <t>ŝ</t>
+  </si>
+  <si>
+    <t>ĝ</t>
+  </si>
+  <si>
+    <t>ĥ</t>
+  </si>
+  <si>
+    <t>ĵ</t>
+  </si>
+  <si>
+    <t>ǔ</t>
+  </si>
+  <si>
+    <t>ẹ</t>
+  </si>
+  <si>
+    <t>ӧ</t>
+  </si>
+  <si>
+    <t>ӯ</t>
   </si>
 </sst>
 </file>
@@ -3381,7 +3345,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3423,9 +3387,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -3523,6 +3484,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3924,7 +3891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7:H9"/>
     </sheetView>
   </sheetViews>
@@ -3941,104 +3908,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="46">
         <v>0.623</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="46">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>1</v>
       </c>
-      <c r="H5" s="35"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="46">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>3</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>619</v>
-      </c>
-      <c r="H6" s="40"/>
+      <c r="D6" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="46">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>878</v>
-      </c>
-      <c r="H7" s="39">
+        <v>834</v>
+      </c>
+      <c r="H7" s="38">
         <f>SUMIF($C$4:$C$37, 1, $B$4:$B$37) + COUNTIF($C$39:$C$117, 1)*0.00002 + COUNTIF($C$118:$C$129, 1)*0.000015 + COUNTIF($C$130:$C$216, 1)*0.00001</f>
         <v>0.77062999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="46">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -4048,63 +4015,63 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>732</v>
-      </c>
-      <c r="H8" s="39">
+        <v>709</v>
+      </c>
+      <c r="H8" s="38">
         <f>SUMIF($C$4:$C$37, 2, $B$4:$B$37) + COUNTIF($C$39:$C$117, 2)*0.00002 + COUNTIF($C$118:$C$129, 2)*0.000015 + COUNTIF($C$130:$C$216, 2)*0.00001</f>
         <v>6.4195000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="46">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>1</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>731</v>
-      </c>
-      <c r="H9" s="39">
+        <v>708</v>
+      </c>
+      <c r="H9" s="38">
         <f>SUMIF($C$4:$C$37, 3, $B$4:$B$37) + COUNTIF($C$39:$C$117, 3)*0.00002 + COUNTIF($C$118:$C$129, 3)*0.000015 + COUNTIF($C$130:$C$216, 3)*0.00001</f>
         <v>5.0725000000000006E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="46">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>2</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>730</v>
-      </c>
-      <c r="H10" s="39">
+        <v>707</v>
+      </c>
+      <c r="H10" s="38">
         <f>SUMIF($C$4:$C$37, 4, $B$4:$B$37) + COUNTIF($C$39:$C$117, 4)*0.00002 + COUNTIF($C$118:$C$129, 4)*0.000015 + COUNTIF($C$130:$C$216, 4)*0.00001</f>
         <v>7.0200000000000002E-3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="46">
         <v>1.9E-2</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>7</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -4114,90 +4081,90 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>733</v>
-      </c>
-      <c r="H11" s="39">
+        <v>710</v>
+      </c>
+      <c r="H11" s="38">
         <f>SUMIF($C$4:$C$37, 5, $B$4:$B$37) + COUNTIF($C$39:$C$117, 5)*0.00002 + COUNTIF($C$118:$C$129, 5)*0.000015 + COUNTIF($C$130:$C$216, 5)*0.00001</f>
         <v>3.0500000000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="46">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>1</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>734</v>
-      </c>
-      <c r="H12" s="39">
+        <v>711</v>
+      </c>
+      <c r="H12" s="38">
         <f>SUMIF($C$4:$C$37, 6, $B$4:$B$37) + COUNTIF($C$39:$C$117, 6)*0.00002 + COUNTIF($C$118:$C$129, 6)*0.000015 + COUNTIF($C$130:$C$216, 6)*0.00001</f>
         <v>2.1000000000000001E-4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="46">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>7</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>917</v>
+        <v>873</v>
       </c>
       <c r="F13">
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>745</v>
-      </c>
-      <c r="H13" s="39">
+        <v>718</v>
+      </c>
+      <c r="H13" s="38">
         <f>SUMIF($C$4:$C$37, 7, $B$4:$B$37) + COUNTIF($C$39:$C$117, 7)*0.00002 + COUNTIF($C$118:$C$129, 7)*0.000015 + COUNTIF($C$130:$C$216, 7)*0.00001</f>
         <v>0.10122000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="46">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>7</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>918</v>
+        <v>874</v>
       </c>
       <c r="F14">
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>746</v>
-      </c>
-      <c r="H14" s="39">
+        <v>719</v>
+      </c>
+      <c r="H14" s="38">
         <f>SUMIF($C$4:$C$37, 8, $B$4:$B$37) + COUNTIF($C$39:$C$117, 8)*0.00002 + COUNTIF($C$118:$C$129, 8)*0.000015 + COUNTIF($C$130:$C$216, 8)*0.00001</f>
         <v>3.2500000000000004E-4</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="46">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>1</v>
       </c>
       <c r="F15">
@@ -4206,2424 +4173,2424 @@
       <c r="G15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="38">
         <f>SUMIF($C$4:$C$37, 9, $B$4:$B$37) + COUNTIF($C$39:$C$117, 9)*0.00002 + COUNTIF($C$118:$C$129, 9)*0.000015 + COUNTIF($C$130:$C$216, 9)*0.00001</f>
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="46">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="46">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>881</v>
+        <v>837</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="46">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="34">
         <v>7</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>184</v>
       </c>
       <c r="G18" t="s">
-        <v>885</v>
+        <v>841</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="46">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <v>3</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>876</v>
+      <c r="D19" s="21" t="s">
+        <v>832</v>
       </c>
       <c r="G19" t="s">
-        <v>882</v>
+        <v>838</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="46">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="22">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>883</v>
+        <v>839</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="47">
+      <c r="B21" s="46">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="34">
         <v>7</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>183</v>
       </c>
       <c r="G21" t="s">
-        <v>884</v>
+        <v>840</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="46">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="34">
         <v>7</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>182</v>
       </c>
       <c r="G22" t="s">
-        <v>886</v>
+        <v>842</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="46">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="34">
         <v>7</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>181</v>
       </c>
       <c r="G23" t="s">
-        <v>963</v>
+        <v>915</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="47">
+      <c r="B24" s="46">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="22">
         <v>4</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>759</v>
+      <c r="D24" s="21" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="47">
+      <c r="B25" s="46">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <v>3</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="21" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="46">
+        <v>2E-3</v>
+      </c>
+      <c r="C26" s="22">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="46">
+        <v>2E-3</v>
+      </c>
+      <c r="C27" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="46">
+        <v>2E-3</v>
+      </c>
+      <c r="C28" s="22">
+        <v>3</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="46">
+        <v>1E-3</v>
+      </c>
+      <c r="C29" s="22">
+        <v>4</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="46">
+        <v>1E-3</v>
+      </c>
+      <c r="C30" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="46">
+        <v>1E-3</v>
+      </c>
+      <c r="C31" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="46">
+        <v>1E-3</v>
+      </c>
+      <c r="C32" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="46">
+        <v>1E-3</v>
+      </c>
+      <c r="C33" s="22">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
+        <v>713</v>
+      </c>
+      <c r="B34" s="46">
+        <v>1E-3</v>
+      </c>
+      <c r="C34" s="22">
+        <v>3</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="46">
+        <v>1E-3</v>
+      </c>
+      <c r="C35" s="34">
+        <v>7</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="46">
+        <v>1E-3</v>
+      </c>
+      <c r="C36" s="22">
+        <v>4</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="47">
-        <v>2E-3</v>
-      </c>
-      <c r="C26" s="23">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="46">
+        <v>1E-3</v>
+      </c>
+      <c r="C37" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="22"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="22">
+        <v>6</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="22">
+        <v>3</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="22">
+        <v>4</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="22">
+        <v>3</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="22">
+        <v>3</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="34">
+        <v>7</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="22">
+        <v>3</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="22">
+        <v>3</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="34">
+        <v>7</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="34">
+        <v>7</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
+        <v>845</v>
+      </c>
+      <c r="B52" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
+        <v>846</v>
+      </c>
+      <c r="B53" s="58"/>
+      <c r="C53" s="22">
+        <v>3</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="22">
+        <v>3</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="34" t="s">
+        <v>627</v>
+      </c>
+      <c r="B56" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="34" t="s">
+        <v>628</v>
+      </c>
+      <c r="B57" s="58"/>
+      <c r="C57" s="22">
+        <v>3</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="34">
+        <v>8</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>872</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="34" t="s">
+        <v>630</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="22">
+        <v>3</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="22">
+        <v>3</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="22">
+        <v>6</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="34">
+        <v>7</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" s="34">
+        <v>7</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" s="34">
+        <v>8</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" s="22">
+        <v>6</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="34">
+        <v>8</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="34">
+        <v>8</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C73" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C75" s="22">
+        <v>6</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="34">
+        <v>8</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" s="34">
+        <v>7</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" s="34">
+        <v>8</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" s="34">
+        <v>8</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C81" s="34">
+        <v>7</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="22">
+        <v>3</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C84" s="22">
+        <v>3</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="34">
+        <v>7</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="34">
+        <v>8</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="34" t="s">
+        <v>635</v>
+      </c>
+      <c r="B87" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="34" t="s">
+        <v>636</v>
+      </c>
+      <c r="B88" s="58"/>
+      <c r="C88" s="22">
+        <v>3</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="34" t="s">
+        <v>638</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="22">
+        <v>3</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="22">
+        <v>3</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C93" s="22">
+        <v>3</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="34">
+        <v>8</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" s="34">
+        <v>7</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" s="34">
+        <v>7</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B98" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C98" s="22">
+        <v>3</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C99" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C102" s="22">
+        <v>3</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B103" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C103" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B104" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C104" s="34">
+        <v>8</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="34" t="s">
+        <v>648</v>
+      </c>
+      <c r="B105" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C105" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C106" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C107" s="22">
+        <v>3</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B108" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C108" s="34">
+        <v>8</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B109" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C109" s="22">
+        <v>6</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="34" t="s">
+        <v>649</v>
+      </c>
+      <c r="B110" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="C110" s="22">
+        <v>3</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="34" t="s">
+        <v>650</v>
+      </c>
+      <c r="B111" s="58"/>
+      <c r="C111" s="34">
+        <v>9</v>
+      </c>
+      <c r="D111" s="25"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C112" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="B113" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C113" s="22">
+        <v>6</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B114" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C114" s="22">
+        <v>6</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B115" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C115" s="34">
+        <v>8</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B116" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C116" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C117" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B118" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C118" s="22">
+        <v>3</v>
+      </c>
+      <c r="D118" s="21" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B120" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C120" s="22">
+        <v>3</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B121" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C121" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B122" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C122" s="34">
+        <v>8</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B123" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C123" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B124" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C124" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B125" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C125" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B126" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C126" s="34">
+        <v>8</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B127" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C127" s="34">
+        <v>8</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B128" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C128" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B129" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C129" s="22">
+        <v>3</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B130" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C130" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B131" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C131" s="22">
+        <v>3</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B132" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C132" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B133" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C133" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C134" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B135" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C135" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B136" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C136" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B137" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C137" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B138" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C138" s="34">
+        <v>7</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B139" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C139" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B140" s="59">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C140" s="34">
+        <v>7</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="34" t="s">
+        <v>670</v>
+      </c>
+      <c r="B141" s="59"/>
+      <c r="C141" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B142" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C142" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B143" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C143" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B144" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C144" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B145" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C145" s="22">
+        <v>3</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B146" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C146" s="22">
+        <v>6</v>
+      </c>
+      <c r="D146" s="21" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B147" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C147" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="34" t="s">
+        <v>673</v>
+      </c>
+      <c r="B148" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C148" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B149" s="59">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C149" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="34" t="s">
+        <v>674</v>
+      </c>
+      <c r="B150" s="59"/>
+      <c r="C150" s="22">
+        <v>3</v>
+      </c>
+      <c r="D150" s="26" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="34" t="s">
+        <v>675</v>
+      </c>
+      <c r="B151" s="59">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C151" s="22">
+        <v>3</v>
+      </c>
+      <c r="D151" s="26" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="34" t="s">
+        <v>676</v>
+      </c>
+      <c r="B152" s="59"/>
+      <c r="C152" s="22">
+        <v>6</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B153" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C153" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B154" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C154" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B155" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C155" s="22">
+        <v>3</v>
+      </c>
+      <c r="D155" s="21" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B156" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C156" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="34" t="s">
+        <v>678</v>
+      </c>
+      <c r="B157" s="59">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C157" s="22">
+        <v>3</v>
+      </c>
+      <c r="D157" s="26" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="34" t="s">
+        <v>679</v>
+      </c>
+      <c r="B158" s="59"/>
+      <c r="C158" s="34">
+        <v>9</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="34" t="s">
+        <v>680</v>
+      </c>
+      <c r="B159" s="59"/>
+      <c r="C159" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="34" t="s">
+        <v>684</v>
+      </c>
+      <c r="B160" s="59"/>
+      <c r="C160" s="22">
+        <v>3</v>
+      </c>
+      <c r="D160" s="26" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="34" t="s">
+        <v>685</v>
+      </c>
+      <c r="B161" s="59"/>
+      <c r="C161" s="22">
+        <v>3</v>
+      </c>
+      <c r="D161" s="26" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="34" t="s">
+        <v>681</v>
+      </c>
+      <c r="B162" s="59"/>
+      <c r="C162" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="D162" s="26" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="34" t="s">
+        <v>682</v>
+      </c>
+      <c r="B163" s="59"/>
+      <c r="C163" s="22">
+        <v>3</v>
+      </c>
+      <c r="D163" s="26" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="34" t="s">
+        <v>683</v>
+      </c>
+      <c r="B164" s="59"/>
+      <c r="C164" s="22">
+        <v>3</v>
+      </c>
+      <c r="D164" s="26" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B165" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C165" s="47" t="s">
+        <v>731</v>
+      </c>
+      <c r="D165" s="25" t="s">
+        <v>687</v>
+      </c>
+      <c r="E165" s="24" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B166" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C166" s="22">
+        <v>3</v>
+      </c>
+      <c r="D166" s="26" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B167" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C167" s="22">
+        <v>3</v>
+      </c>
+      <c r="D167" s="21" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B168" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C168" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B169" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C169" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="D169" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="E169" s="24" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B170" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C170" s="34">
+        <v>8</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B171" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C171" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B172" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C172" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="E172" s="24" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B173" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C173" s="22">
+        <v>6</v>
+      </c>
+      <c r="D173" s="21" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B174" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C174" s="22">
         <v>5</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="47">
-        <v>2E-3</v>
-      </c>
-      <c r="C27" s="23">
+      <c r="D174" s="21" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B175" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C175" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="34" t="s">
+        <v>692</v>
+      </c>
+      <c r="B176" s="59">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C176" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="D176" s="21" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="34" t="s">
+        <v>693</v>
+      </c>
+      <c r="B177" s="59"/>
+      <c r="C177" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="D177" s="26" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B178" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C178" s="22">
+        <v>3</v>
+      </c>
+      <c r="D178" s="26" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B179" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C179" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="47">
-        <v>2E-3</v>
-      </c>
-      <c r="C28" s="23">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B180" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C180" s="22">
+        <v>6</v>
+      </c>
+      <c r="D180" s="21" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B181" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C181" s="22">
         <v>3</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="47">
-        <v>1E-3</v>
-      </c>
-      <c r="C29" s="23">
-        <v>4</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="47">
-        <v>1E-3</v>
-      </c>
-      <c r="C30" s="23">
+      <c r="D181" s="21" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B182" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C182" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="47">
-        <v>1E-3</v>
-      </c>
-      <c r="C31" s="23">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B183" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C183" s="22">
+        <v>5</v>
+      </c>
+      <c r="D183" s="21" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B184" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C184" s="22">
+        <v>5</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B185" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C185" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B186" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C186" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="47">
-        <v>1E-3</v>
-      </c>
-      <c r="C32" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="47">
-        <v>1E-3</v>
-      </c>
-      <c r="C33" s="23">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
-        <v>736</v>
-      </c>
-      <c r="B34" s="47">
-        <v>1E-3</v>
-      </c>
-      <c r="C34" s="23">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B187" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C187" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B188" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C188" s="22">
+        <v>6</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B189" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C189" s="34">
+        <v>8</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B190" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C190" s="22">
         <v>3</v>
       </c>
-      <c r="D34" s="22" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="47">
-        <v>1E-3</v>
-      </c>
-      <c r="C35" s="35">
-        <v>7</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="47">
-        <v>1E-3</v>
-      </c>
-      <c r="C36" s="23">
-        <v>4</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="47">
-        <v>1E-3</v>
-      </c>
-      <c r="C37" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="23"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" s="23">
+      <c r="D190" s="21" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B191" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C191" s="34">
+        <v>8</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="E191" s="24" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B192" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C192" s="22">
         <v>6</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C40" s="23">
+      <c r="D192" s="21" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B193" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C193" s="22">
         <v>3</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D193" s="26" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B194" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C194" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B195" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C195" s="34">
+        <v>8</v>
+      </c>
+      <c r="D195" s="7" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" s="23">
-        <v>4</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C42" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C43" s="23">
+      <c r="E195" s="24" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B196" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C196" s="22">
         <v>3</v>
       </c>
-      <c r="D43" s="27" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C44" s="23">
+      <c r="D196" s="21" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="B197" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C197" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C45" s="23">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="B198" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C198" s="22">
         <v>3</v>
       </c>
-      <c r="D45" s="22" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C46" s="35">
-        <v>7</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" s="23">
-        <v>3</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C48" s="23">
+      <c r="D198" s="21" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B199" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C199" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C49" s="23">
-        <v>3</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C50" s="35">
-        <v>7</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C51" s="35">
-        <v>7</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
-        <v>889</v>
-      </c>
-      <c r="B52" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>773</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="35" t="s">
-        <v>890</v>
-      </c>
-      <c r="B53" s="57"/>
-      <c r="C53" s="23">
-        <v>3</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>773</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C55" s="23">
-        <v>3</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
-        <v>638</v>
-      </c>
-      <c r="B56" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="C56" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="35" t="s">
-        <v>639</v>
-      </c>
-      <c r="B57" s="57"/>
-      <c r="C57" s="23">
-        <v>3</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C58" s="35">
-        <v>8</v>
-      </c>
-      <c r="D58" s="50" t="s">
-        <v>916</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="35" t="s">
-        <v>641</v>
-      </c>
-      <c r="B59" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C59" s="23">
-        <v>3</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C60" s="23">
-        <v>3</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C61" s="23">
-        <v>6</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C62" s="35">
-        <v>7</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C63" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C64" s="35">
-        <v>7</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C65" s="35">
-        <v>8</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C66" s="23">
-        <v>6</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C67" s="23">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B200" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C200" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C68" s="35">
-        <v>8</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B69" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C69" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C70" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C71" s="35">
-        <v>8</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>907</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C73" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C74" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B75" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C75" s="23">
-        <v>6</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B76" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C76" s="35">
-        <v>8</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B77" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C77" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C78" s="35">
-        <v>7</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B79" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C79" s="35">
-        <v>8</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C80" s="35">
-        <v>8</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B81" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C81" s="35">
-        <v>7</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C82" s="23">
-        <v>3</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B83" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C83" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B84" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C84" s="23">
-        <v>3</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B85" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C85" s="35">
-        <v>7</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B86" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C86" s="35">
-        <v>8</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="35" t="s">
-        <v>646</v>
-      </c>
-      <c r="B87" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>748</v>
-      </c>
-      <c r="D87" s="27" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="35" t="s">
-        <v>647</v>
-      </c>
-      <c r="B88" s="57"/>
-      <c r="C88" s="23">
-        <v>3</v>
-      </c>
-      <c r="D88" s="27" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="35" t="s">
-        <v>651</v>
-      </c>
-      <c r="B89" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C89" s="23">
-        <v>3</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C90" s="23">
-        <v>3</v>
-      </c>
-      <c r="D90" s="27" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B91" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C91" s="23" t="s">
-        <v>748</v>
-      </c>
-      <c r="D91" s="22" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B92" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C92" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B93" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C93" s="23">
-        <v>3</v>
-      </c>
-      <c r="D93" s="26" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B94" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C94" s="35">
-        <v>8</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B95" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C95" s="35">
-        <v>7</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B96" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C96" s="35">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B97" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C97" s="35">
-        <v>7</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B98" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C98" s="23">
-        <v>3</v>
-      </c>
-      <c r="D98" s="27" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B99" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C99" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B100" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C100" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B101" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C101" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B102" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C102" s="23">
-        <v>3</v>
-      </c>
-      <c r="D102" s="27" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B103" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C103" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="B104" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C104" s="35">
-        <v>8</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="35" t="s">
-        <v>661</v>
-      </c>
-      <c r="B105" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C105" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B106" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C106" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="B107" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C107" s="23">
-        <v>3</v>
-      </c>
-      <c r="D107" s="27" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B108" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C108" s="35">
-        <v>8</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B109" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C109" s="23">
-        <v>6</v>
-      </c>
-      <c r="D109" s="27" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="35" t="s">
-        <v>662</v>
-      </c>
-      <c r="B110" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="C110" s="23">
-        <v>3</v>
-      </c>
-      <c r="D110" s="27" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="35" t="s">
-        <v>663</v>
-      </c>
-      <c r="B111" s="57"/>
-      <c r="C111" s="35">
-        <v>9</v>
-      </c>
-      <c r="D111" s="26"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B112" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C112" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="35" t="s">
-        <v>664</v>
-      </c>
-      <c r="B113" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C113" s="23">
-        <v>6</v>
-      </c>
-      <c r="D113" s="22" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B114" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C114" s="23">
-        <v>6</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B115" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C115" s="35">
-        <v>8</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B116" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C116" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B117" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C117" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B118" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C118" s="23">
-        <v>3</v>
-      </c>
-      <c r="D118" s="22" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B119" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C119" s="23" t="s">
-        <v>907</v>
-      </c>
-      <c r="D119" s="27" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B120" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C120" s="23">
-        <v>3</v>
-      </c>
-      <c r="D120" s="27" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="B121" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C121" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B122" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C122" s="35">
-        <v>8</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B123" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C123" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="B124" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C124" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B125" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C125" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B126" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C126" s="35">
-        <v>8</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="B127" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C127" s="35">
-        <v>8</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="B128" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C128" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B129" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C129" s="23">
-        <v>3</v>
-      </c>
-      <c r="D129" s="27" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B130" s="31">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="B201" s="30">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C130" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="B131" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C131" s="23">
-        <v>3</v>
-      </c>
-      <c r="D131" s="27" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B132" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C132" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="B133" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C133" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="B134" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C134" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="B135" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C135" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="B136" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C136" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="B137" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C137" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B138" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C138" s="35">
-        <v>7</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B139" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C139" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B140" s="58">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C140" s="35">
-        <v>7</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="35" t="s">
-        <v>683</v>
-      </c>
-      <c r="B141" s="58"/>
-      <c r="C141" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="B142" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C142" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B143" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C143" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="B144" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C144" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="B145" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C145" s="23">
-        <v>3</v>
-      </c>
-      <c r="D145" s="14" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B146" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C146" s="23">
-        <v>6</v>
-      </c>
-      <c r="D146" s="22" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="B147" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C147" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="35" t="s">
-        <v>689</v>
-      </c>
-      <c r="B148" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C148" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B149" s="58">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C149" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="35" t="s">
-        <v>690</v>
-      </c>
-      <c r="B150" s="58"/>
-      <c r="C150" s="23">
-        <v>3</v>
-      </c>
-      <c r="D150" s="27" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="35" t="s">
-        <v>691</v>
-      </c>
-      <c r="B151" s="58">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C151" s="23">
-        <v>3</v>
-      </c>
-      <c r="D151" s="27" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="35" t="s">
-        <v>692</v>
-      </c>
-      <c r="B152" s="58"/>
-      <c r="C152" s="23">
-        <v>6</v>
-      </c>
-      <c r="D152" s="22" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="B153" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C153" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="B154" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C154" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="B155" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C155" s="23">
-        <v>3</v>
-      </c>
-      <c r="D155" s="22" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="B156" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C156" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="35" t="s">
-        <v>694</v>
-      </c>
-      <c r="B157" s="58">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C157" s="23">
-        <v>3</v>
-      </c>
-      <c r="D157" s="27" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="35" t="s">
-        <v>695</v>
-      </c>
-      <c r="B158" s="58"/>
-      <c r="C158" s="35">
-        <v>9</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="35" t="s">
-        <v>696</v>
-      </c>
-      <c r="B159" s="58"/>
-      <c r="C159" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="35" t="s">
-        <v>700</v>
-      </c>
-      <c r="B160" s="58"/>
-      <c r="C160" s="23">
-        <v>3</v>
-      </c>
-      <c r="D160" s="27" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="35" t="s">
-        <v>701</v>
-      </c>
-      <c r="B161" s="58"/>
-      <c r="C161" s="23">
-        <v>3</v>
-      </c>
-      <c r="D161" s="27" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="35" t="s">
-        <v>697</v>
-      </c>
-      <c r="B162" s="58"/>
-      <c r="C162" s="23" t="s">
-        <v>748</v>
-      </c>
-      <c r="D162" s="27" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="35" t="s">
-        <v>698</v>
-      </c>
-      <c r="B163" s="58"/>
-      <c r="C163" s="23">
-        <v>3</v>
-      </c>
-      <c r="D163" s="27" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="35" t="s">
-        <v>699</v>
-      </c>
-      <c r="B164" s="58"/>
-      <c r="C164" s="23">
-        <v>3</v>
-      </c>
-      <c r="D164" s="27" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="B165" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C165" s="48" t="s">
-        <v>771</v>
-      </c>
-      <c r="D165" s="26" t="s">
-        <v>703</v>
-      </c>
-      <c r="E165" s="25" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B166" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C166" s="23">
-        <v>3</v>
-      </c>
-      <c r="D166" s="27" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="B167" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C167" s="23">
-        <v>3</v>
-      </c>
-      <c r="D167" s="22" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="B168" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C168" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B169" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C169" s="49" t="s">
-        <v>772</v>
-      </c>
-      <c r="D169" s="26" t="s">
-        <v>705</v>
-      </c>
-      <c r="E169" s="25" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B170" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C170" s="35">
-        <v>8</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B171" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C171" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B172" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C172" s="49" t="s">
-        <v>772</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="E172" s="25" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B173" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C173" s="23">
-        <v>6</v>
-      </c>
-      <c r="D173" s="22" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="B174" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C174" s="23">
-        <v>5</v>
-      </c>
-      <c r="D174" s="22" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B175" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C175" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="35" t="s">
-        <v>708</v>
-      </c>
-      <c r="B176" s="58">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C176" s="23" t="s">
-        <v>773</v>
-      </c>
-      <c r="D176" s="22" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="35" t="s">
-        <v>709</v>
-      </c>
-      <c r="B177" s="58"/>
-      <c r="C177" s="23" t="s">
-        <v>773</v>
-      </c>
-      <c r="D177" s="27" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="B178" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C178" s="23">
-        <v>3</v>
-      </c>
-      <c r="D178" s="27" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B179" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C179" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="B180" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C180" s="23">
-        <v>6</v>
-      </c>
-      <c r="D180" s="22" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="B181" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C181" s="23">
-        <v>3</v>
-      </c>
-      <c r="D181" s="22" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="B182" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C182" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="B183" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C183" s="23">
-        <v>5</v>
-      </c>
-      <c r="D183" s="22" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="B184" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C184" s="23">
-        <v>5</v>
-      </c>
-      <c r="D184" s="7" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="B185" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C185" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="B186" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C186" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="B187" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C187" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="B188" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C188" s="23">
-        <v>6</v>
-      </c>
-      <c r="D188" s="22" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="B189" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C189" s="35">
-        <v>8</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="B190" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C190" s="23">
-        <v>3</v>
-      </c>
-      <c r="D190" s="22" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="B191" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C191" s="35">
-        <v>8</v>
-      </c>
-      <c r="D191" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="E191" s="25" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="B192" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C192" s="23">
-        <v>6</v>
-      </c>
-      <c r="D192" s="22" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="B193" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C193" s="23">
-        <v>3</v>
-      </c>
-      <c r="D193" s="27" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="B194" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C194" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="B195" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C195" s="35">
-        <v>8</v>
-      </c>
-      <c r="D195" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="E195" s="25" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="B196" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C196" s="23">
-        <v>3</v>
-      </c>
-      <c r="D196" s="22" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="B197" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C197" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="B198" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C198" s="23">
-        <v>3</v>
-      </c>
-      <c r="D198" s="22" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="B199" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C199" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="B200" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C200" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="B201" s="31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C201" s="23" t="s">
-        <v>773</v>
-      </c>
-      <c r="D201" s="22" t="s">
-        <v>774</v>
+      <c r="C201" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="D201" s="21" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>942</v>
+        <v>894</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>943</v>
+        <v>895</v>
       </c>
       <c r="C203" s="2">
         <v>5</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>944</v>
+        <v>896</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -6631,7 +6598,7 @@
         <v>543</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>943</v>
+        <v>895</v>
       </c>
       <c r="C204" s="2">
         <v>5</v>
@@ -6645,7 +6612,7 @@
         <v>560</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>943</v>
+        <v>895</v>
       </c>
       <c r="C205" s="2">
         <v>1</v>
@@ -6656,7 +6623,7 @@
         <v>565</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>943</v>
+        <v>895</v>
       </c>
       <c r="C206" s="2">
         <v>1</v>
@@ -6664,148 +6631,148 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>945</v>
+        <v>897</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>943</v>
+        <v>895</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="D207" s="22" t="s">
-        <v>946</v>
+        <v>721</v>
+      </c>
+      <c r="D207" s="21" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>947</v>
+        <v>899</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>943</v>
+        <v>895</v>
       </c>
       <c r="C208" s="2">
         <v>3</v>
       </c>
       <c r="D208" s="14" t="s">
-        <v>956</v>
+        <v>908</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>850</v>
+        <v>807</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>943</v>
+        <v>895</v>
       </c>
       <c r="C209" s="2">
         <v>3</v>
       </c>
       <c r="D209" s="14" t="s">
-        <v>957</v>
+        <v>909</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>948</v>
+        <v>900</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>943</v>
+        <v>895</v>
       </c>
       <c r="C210" s="2">
         <v>3</v>
       </c>
       <c r="D210" s="14" t="s">
-        <v>958</v>
+        <v>910</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>949</v>
+        <v>901</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>943</v>
+        <v>895</v>
       </c>
       <c r="C211" s="2">
         <v>3</v>
       </c>
       <c r="D211" s="14" t="s">
-        <v>915</v>
+        <v>871</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>863</v>
+        <v>819</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>943</v>
+        <v>895</v>
       </c>
       <c r="C212" s="2">
         <v>3</v>
       </c>
       <c r="D212" s="14" t="s">
-        <v>959</v>
+        <v>911</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>950</v>
+        <v>902</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>943</v>
+        <v>895</v>
       </c>
       <c r="C213" s="2">
         <v>3</v>
       </c>
-      <c r="D213" s="22" t="s">
-        <v>955</v>
+      <c r="D213" s="21" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>951</v>
+        <v>903</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>943</v>
+        <v>895</v>
       </c>
       <c r="C214" s="2">
         <v>3</v>
       </c>
-      <c r="D214" s="53" t="s">
-        <v>914</v>
+      <c r="D214" s="52" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>953</v>
+        <v>905</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>943</v>
+        <v>895</v>
       </c>
       <c r="C215" s="2">
         <v>3</v>
       </c>
-      <c r="D215" s="22" t="s">
-        <v>954</v>
+      <c r="D215" s="21" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="54" t="s">
-        <v>961</v>
+      <c r="A216" s="53" t="s">
+        <v>913</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="C216" s="33">
+        <v>895</v>
+      </c>
+      <c r="C216" s="32">
         <v>6</v>
       </c>
-      <c r="D216" s="55" t="s">
-        <v>960</v>
+      <c r="D216" s="54" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D217" s="33"/>
-      <c r="E217" s="33"/>
-      <c r="F217" s="33"/>
+      <c r="D217" s="32"/>
+      <c r="E217" s="32"/>
+      <c r="F217" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6954,43 +6921,43 @@
         <v>34</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C1" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>556</v>
-      </c>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="29" t="s">
+        <v>919</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L1" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="I1" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="N1" s="29" t="s">
         <v>604</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -6998,43 +6965,43 @@
         <v>2</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C2" s="35" t="s">
+        <v>608</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>606</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="E2" s="55" t="s">
         <v>607</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>608</v>
-      </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L2" s="30" t="s">
+      <c r="M2" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="N2" s="29" t="s">
         <v>604</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -7042,43 +7009,43 @@
         <v>20</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>611</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>610</v>
+      </c>
+      <c r="F3" s="56" t="s">
         <v>609</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>481</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="33" t="s">
         <v>595</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L3" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="I3" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L3" s="30" t="s">
+      <c r="M3" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="N3" s="29" t="s">
         <v>604</v>
-      </c>
-      <c r="N3" s="30" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7086,43 +7053,43 @@
         <v>21</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>615</v>
-      </c>
-      <c r="D4" s="35" t="s">
+        <v>608</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>613</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>614</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>616</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>617</v>
-      </c>
-      <c r="H4" s="30" t="s">
+      <c r="D4" s="55" t="s">
+        <v>612</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>930</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>920</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>921</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L4" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L4" s="30" t="s">
+      <c r="M4" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="N4" s="29" t="s">
         <v>604</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -7130,87 +7097,87 @@
         <v>25</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C5" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>621</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>622</v>
-      </c>
-      <c r="F5" s="30" t="s">
+      <c r="D5" s="55" t="s">
+        <v>922</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>923</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L5" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="M5" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>924</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>925</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>926</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>927</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>928</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I6" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="J5" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K5" s="30" t="s">
+      <c r="J6" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K6" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L6" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="M6" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="N6" s="29" t="s">
         <v>604</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>782</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>571</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>628</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>783</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>603</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>604</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -7218,263 +7185,263 @@
         <v>31</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>571</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>628</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>627</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>629</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>630</v>
-      </c>
-      <c r="H7" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>924</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>925</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>927</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>931</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>666</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L7" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="I7" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L7" s="30" t="s">
+      <c r="M7" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M7" s="30" t="s">
+      <c r="N7" s="29" t="s">
         <v>604</v>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>760</v>
+        <v>727</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>648</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>649</v>
-      </c>
-      <c r="E8" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>643</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>882</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L8" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="I8" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L8" s="30" t="s">
+      <c r="M8" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="N8" s="29" t="s">
         <v>604</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C9" s="35" t="s">
+        <v>608</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>605</v>
+      </c>
+      <c r="D9" s="55" t="s">
         <v>606</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>607</v>
-      </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="55" t="s">
+        <v>640</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>613</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>639</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>735</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="55" t="s">
         <v>653</v>
       </c>
-      <c r="F9" s="35" t="s">
-        <v>615</v>
-      </c>
-      <c r="G9" s="35" t="s">
+      <c r="F10" s="55" t="s">
+        <v>463</v>
+      </c>
+      <c r="G10" s="55" t="s">
         <v>652</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H10" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L10" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="I9" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L9" s="30" t="s">
+      <c r="M10" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M9" s="30" t="s">
+      <c r="N10" s="29" t="s">
         <v>604</v>
-      </c>
-      <c r="N9" s="30" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>775</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>666</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>463</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>665</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>603</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>604</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>668</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>669</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>670</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>671</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>672</v>
-      </c>
-      <c r="H11" s="30" t="s">
+      <c r="B11" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>655</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>656</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>657</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>658</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L11" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="I11" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L11" s="30" t="s">
+      <c r="M11" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M11" s="30" t="s">
+      <c r="N11" s="29" t="s">
         <v>604</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>675</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>676</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>677</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>678</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>679</v>
-      </c>
-      <c r="H12" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>662</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>663</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>664</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>665</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>666</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L12" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="I12" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L12" s="30" t="s">
+      <c r="M12" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M12" s="30" t="s">
+      <c r="N12" s="29" t="s">
         <v>604</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -7482,87 +7449,87 @@
         <v>134</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C13" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="D13" s="35" t="s">
-        <v>684</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>685</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>686</v>
-      </c>
-      <c r="H13" s="30" t="s">
+      <c r="D13" s="55" t="s">
+        <v>831</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>824</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>932</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>825</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L13" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="I13" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L13" s="30" t="s">
+      <c r="M13" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M13" s="30" t="s">
+      <c r="N13" s="29" t="s">
         <v>604</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>787</v>
+        <v>745</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>655</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>656</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>657</v>
-      </c>
-      <c r="F14" s="35" t="s">
+        <v>608</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>642</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>643</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>644</v>
+      </c>
+      <c r="F14" s="55" t="s">
         <v>595</v>
       </c>
-      <c r="G14" s="35" t="s">
-        <v>658</v>
-      </c>
-      <c r="H14" s="30" t="s">
+      <c r="G14" s="55" t="s">
+        <v>645</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L14" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="I14" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L14" s="30" t="s">
+      <c r="M14" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M14" s="30" t="s">
+      <c r="N14" s="29" t="s">
         <v>604</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -7570,1039 +7537,1051 @@
         <v>145</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>684</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>710</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>711</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>712</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>713</v>
-      </c>
-      <c r="H15" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>831</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>933</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>934</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>935</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>936</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L15" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="I15" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L15" s="30" t="s">
+      <c r="M15" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M15" s="30" t="s">
+      <c r="N15" s="29" t="s">
         <v>604</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>737</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>716</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>717</v>
-      </c>
-      <c r="E16" s="35" t="s">
         <v>714</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="B16" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>696</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>697</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>694</v>
+      </c>
+      <c r="F16" s="55" t="s">
         <v>427</v>
       </c>
-      <c r="G16" s="35" t="s">
-        <v>715</v>
-      </c>
-      <c r="H16" s="30" t="s">
+      <c r="G16" s="55" t="s">
+        <v>695</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>916</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L16" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="I16" s="51" t="s">
-        <v>964</v>
-      </c>
-      <c r="J16" s="30" t="s">
+      <c r="M16" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>826</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>655</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>827</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>828</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>652</v>
+      </c>
+      <c r="H17" s="29" t="s">
         <v>601</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="I17" s="50" t="s">
+        <v>829</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K17" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="L16" s="30" t="s">
+      <c r="L17" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="M17" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M16" s="30" t="s">
+      <c r="N17" s="29" t="s">
         <v>604</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>870</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>668</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>871</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>872</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>665</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="I17" s="51" t="s">
-        <v>873</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K17" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L17" s="30" t="s">
-        <v>603</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>604</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>668</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>669</v>
-      </c>
-      <c r="E18" s="35" t="s">
+      <c r="B18" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>655</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>656</v>
+      </c>
+      <c r="E18" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="F18" s="35" t="s">
-        <v>666</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>672</v>
-      </c>
-      <c r="H18" s="30" t="s">
+      <c r="F18" s="55" t="s">
+        <v>653</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L18" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="I18" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K18" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L18" s="30" t="s">
+      <c r="M18" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M18" s="30" t="s">
+      <c r="N18" s="29" t="s">
         <v>604</v>
-      </c>
-      <c r="N18" s="30" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="D19" s="35" t="s">
-        <v>762</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>763</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>764</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>761</v>
-      </c>
-      <c r="H19" s="30" t="s">
+      <c r="D19" s="55" t="s">
+        <v>937</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>938</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>609</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>728</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L19" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="M19" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>883</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>605</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>925</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>640</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>736</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>882</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I20" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="J19" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K19" s="30" t="s">
+      <c r="J20" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K20" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="L20" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="M20" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M19" s="30" t="s">
+      <c r="N20" s="29" t="s">
         <v>604</v>
       </c>
-      <c r="N19" s="30" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>927</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>606</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>628</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>653</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>776</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>926</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>603</v>
-      </c>
-      <c r="M20" s="30" t="s">
-        <v>604</v>
-      </c>
-      <c r="N20" s="30" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="55" t="s">
+        <v>606</v>
+      </c>
+      <c r="F21" s="55" t="s">
         <v>607</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="G21" s="55" t="s">
+        <v>666</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>879</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>875</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>876</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>877</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>878</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>889</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="G21" s="35" t="s">
-        <v>630</v>
-      </c>
-      <c r="H21" s="30" t="s">
+      <c r="C23" s="56" t="s">
+        <v>643</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>885</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>939</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>940</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L23" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="M23" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>893</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>605</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>606</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>941</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>665</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>481</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="I24" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="J21" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K21" s="30" t="s">
+      <c r="J24" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K24" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="L24" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="M24" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M21" s="30" t="s">
+      <c r="N24" s="29" t="s">
         <v>604</v>
       </c>
-      <c r="N21" s="30" t="s">
+    </row>
+    <row r="25" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+    </row>
+    <row r="26" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>703</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+    </row>
+    <row r="27" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>914</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="C27" s="56" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>923</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>919</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>920</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>921</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>922</v>
-      </c>
-      <c r="H22" s="30" t="s">
+      <c r="D27" s="56" t="s">
+        <v>606</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>607</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="H27" s="56" t="s">
+        <v>704</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="L27" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="I22" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K22" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L22" s="30" t="s">
+      <c r="M27" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M22" s="30" t="s">
+      <c r="N27" s="29" t="s">
         <v>604</v>
       </c>
-      <c r="N22" s="30" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>935</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>656</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>929</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>932</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>933</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K23" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L23" s="30" t="s">
-        <v>603</v>
-      </c>
-      <c r="M23" s="30" t="s">
-        <v>604</v>
-      </c>
-      <c r="N23" s="30" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>939</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>606</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>607</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>940</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>941</v>
-      </c>
-      <c r="G24" s="51" t="s">
-        <v>481</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K24" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L24" s="30" t="s">
-        <v>603</v>
-      </c>
-      <c r="M24" s="30" t="s">
-        <v>604</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-    </row>
-    <row r="26" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>723</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-    </row>
-    <row r="27" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>962</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>607</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>608</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>427</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>599</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>724</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K27" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="L27" s="30" t="s">
-        <v>603</v>
-      </c>
-      <c r="M27" s="30" t="s">
-        <v>604</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>605</v>
-      </c>
-      <c r="O27" s="33"/>
-      <c r="P27" s="59" t="s">
-        <v>867</v>
-      </c>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="33"/>
-    </row>
-    <row r="28" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="32"/>
+      <c r="P27" s="60" t="s">
+        <v>823</v>
+      </c>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="32"/>
+    </row>
+    <row r="28" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>628</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>627</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>727</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>413</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>728</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>729</v>
-      </c>
-      <c r="I28" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>925</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>927</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="H28" s="56" t="s">
+        <v>431</v>
+      </c>
+      <c r="I28" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="J28" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K28" s="30" t="s">
+      <c r="J28" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K28" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="L28" s="30" t="s">
+      <c r="L28" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="M28" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M28" s="30" t="s">
+      <c r="N28" s="29" t="s">
         <v>604</v>
       </c>
-      <c r="N28" s="30" t="s">
-        <v>605</v>
-      </c>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>739</v>
+        <v>716</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>743</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>740</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>744</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>741</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>742</v>
-      </c>
-      <c r="I29" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>666</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>942</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>943</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>944</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>945</v>
+      </c>
+      <c r="H29" s="56" t="s">
+        <v>717</v>
+      </c>
+      <c r="I29" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="J29" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K29" s="30" t="s">
+      <c r="J29" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K29" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="L29" s="30" t="s">
+      <c r="L29" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="M29" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M29" s="30" t="s">
+      <c r="N29" s="29" t="s">
         <v>604</v>
       </c>
-      <c r="N29" s="30" t="s">
-        <v>605</v>
-      </c>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>95</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>753</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>757</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>754</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>755</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>756</v>
-      </c>
-      <c r="H30" s="33" t="s">
-        <v>758</v>
-      </c>
-      <c r="I30" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>946</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>947</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>948</v>
+      </c>
+      <c r="F30" s="56" t="s">
+        <v>949</v>
+      </c>
+      <c r="G30" s="56" t="s">
+        <v>950</v>
+      </c>
+      <c r="H30" s="56" t="s">
+        <v>951</v>
+      </c>
+      <c r="I30" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="J30" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K30" s="30" t="s">
+      <c r="J30" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K30" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="L30" s="30" t="s">
+      <c r="L30" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="M30" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M30" s="30" t="s">
+      <c r="N30" s="29" t="s">
         <v>604</v>
       </c>
-      <c r="N30" s="30" t="s">
-        <v>605</v>
-      </c>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>121</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="I31" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>930</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>640</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>643</v>
+      </c>
+      <c r="F31" s="56" t="s">
+        <v>736</v>
+      </c>
+      <c r="G31" s="56" t="s">
+        <v>639</v>
+      </c>
+      <c r="H31" s="56" t="s">
+        <v>645</v>
+      </c>
+      <c r="I31" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="J31" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K31" s="30" t="s">
+      <c r="J31" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K31" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="L31" s="30" t="s">
+      <c r="L31" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="M31" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M31" s="30" t="s">
+      <c r="N31" s="29" t="s">
         <v>604</v>
-      </c>
-      <c r="N31" s="30" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="B32" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>924</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>925</v>
+      </c>
+      <c r="E32" s="56" t="s">
+        <v>927</v>
+      </c>
+      <c r="F32" s="56" t="s">
+        <v>642</v>
+      </c>
+      <c r="G32" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="I32" s="30" t="s">
+      <c r="H32" s="56" t="s">
+        <v>748</v>
+      </c>
+      <c r="I32" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="J32" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K32" s="30" t="s">
+      <c r="J32" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K32" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="L32" s="30" t="s">
+      <c r="L32" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="M32" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M32" s="30" t="s">
+      <c r="N32" s="29" t="s">
         <v>604</v>
-      </c>
-      <c r="N32" s="30" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
+        <v>904</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>831</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>943</v>
+      </c>
+      <c r="E33" s="56" t="s">
         <v>952</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>875</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>740</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>777</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="G33" s="35" t="s">
-        <v>869</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>868</v>
-      </c>
-      <c r="I33" s="30" t="s">
+      <c r="F33" s="55" t="s">
+        <v>932</v>
+      </c>
+      <c r="G33" s="55" t="s">
+        <v>825</v>
+      </c>
+      <c r="H33" s="55" t="s">
+        <v>824</v>
+      </c>
+      <c r="I33" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="J33" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="K33" s="30" t="s">
+      <c r="J33" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="K33" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="L33" s="30" t="s">
+      <c r="L33" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="M33" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="M33" s="30" t="s">
+      <c r="N33" s="29" t="s">
         <v>604</v>
       </c>
-      <c r="N33" s="30" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
+      <c r="C34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>874</v>
+        <v>830</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
-        <v>866</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="C36" s="24" t="s">
+      <c r="A36" s="28" t="s">
+        <v>822</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>770</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="L36" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>816</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>817</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="M36" s="51" t="s">
-        <v>855</v>
+      <c r="M36" s="50" t="s">
+        <v>812</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>859</v>
+        <v>953</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
-        <v>849</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>667</v>
+      <c r="A37" s="28" t="s">
+        <v>806</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>654</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>797</v>
+        <v>754</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>843</v>
+        <v>800</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>794</v>
+        <v>751</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>821</v>
+        <v>778</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>819</v>
+        <v>776</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>820</v>
+        <v>777</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>848</v>
+        <v>805</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>822</v>
+        <v>779</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>795</v>
+        <v>752</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>798</v>
+        <v>755</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>846</v>
+        <v>803</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>847</v>
+        <v>804</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>812</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>825</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>831</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>830</v>
-      </c>
-      <c r="H38" s="24" t="s">
-        <v>828</v>
-      </c>
-      <c r="I38" s="24" t="s">
-        <v>824</v>
-      </c>
-      <c r="J38" s="24" t="s">
-        <v>829</v>
-      </c>
-      <c r="K38" s="24" t="s">
-        <v>801</v>
-      </c>
-      <c r="L38" s="24" t="s">
-        <v>817</v>
-      </c>
-      <c r="M38" s="24" t="s">
-        <v>827</v>
-      </c>
-      <c r="N38" s="24" t="s">
-        <v>833</v>
+      <c r="A38" s="28" t="s">
+        <v>799</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>769</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>782</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>788</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>787</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>785</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>781</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>786</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>758</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>784</v>
+      </c>
+      <c r="N38" s="23" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>910</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>812</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>838</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>840</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>841</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>828</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>824</v>
-      </c>
-      <c r="J39" s="24" t="s">
-        <v>829</v>
-      </c>
-      <c r="K39" s="24" t="s">
-        <v>801</v>
-      </c>
-      <c r="L39" s="24" t="s">
-        <v>832</v>
-      </c>
-      <c r="M39" s="24" t="s">
-        <v>837</v>
-      </c>
-      <c r="N39" s="24" t="s">
-        <v>839</v>
+        <v>866</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>769</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>795</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>798</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>785</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>781</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>786</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>758</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>789</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>794</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="28" t="s">
-        <v>667</v>
+      <c r="B40" s="27" t="s">
+        <v>654</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>901</v>
+        <v>857</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>825</v>
+        <v>782</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>906</v>
+        <v>862</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>831</v>
+        <v>788</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>830</v>
+        <v>787</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>966</v>
+        <v>918</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>824</v>
+        <v>781</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>905</v>
+        <v>861</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="L40" s="36" t="s">
-        <v>965</v>
+        <v>860</v>
+      </c>
+      <c r="L40" s="35" t="s">
+        <v>917</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>902</v>
+        <v>858</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>903</v>
+        <v>859</v>
       </c>
     </row>
   </sheetData>
@@ -8654,7 +8633,7 @@
         <v>478</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>880</v>
+        <v>836</v>
       </c>
       <c r="H1" t="s">
         <v>479</v>
@@ -8721,7 +8700,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="51" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -8731,7 +8710,7 @@
         <v>486</v>
       </c>
       <c r="D5" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E5" t="s">
         <v>487</v>
@@ -8893,20 +8872,20 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="51" t="s">
         <v>507</v>
       </c>
       <c r="B13" t="s">
-        <v>936</v>
+        <v>890</v>
       </c>
       <c r="C13" t="s">
-        <v>937</v>
+        <v>891</v>
       </c>
       <c r="D13" t="s">
-        <v>938</v>
+        <v>892</v>
       </c>
       <c r="E13" t="s">
-        <v>938</v>
+        <v>892</v>
       </c>
       <c r="F13" s="11">
         <v>25.1</v>
@@ -8936,7 +8915,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="51" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
@@ -8991,10 +8970,10 @@
       <c r="D17" t="s">
         <v>353</v>
       </c>
-      <c r="F17" s="61">
+      <c r="F17" s="62">
         <v>23.6</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="61">
         <v>45</v>
       </c>
     </row>
@@ -9011,8 +8990,8 @@
       <c r="D18" t="s">
         <v>482</v>
       </c>
-      <c r="F18" s="61"/>
-      <c r="G18" s="60"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
@@ -9138,7 +9117,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="37" t="s">
         <v>523</v>
       </c>
       <c r="B25" t="s">
@@ -9247,7 +9226,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="51" t="s">
         <v>49</v>
       </c>
       <c r="B30" t="s">
@@ -9316,7 +9295,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="37" t="s">
         <v>551</v>
       </c>
       <c r="B33" t="s">
@@ -9326,7 +9305,7 @@
         <v>553</v>
       </c>
       <c r="D33" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="E33" t="s">
         <v>554</v>
@@ -9432,10 +9411,10 @@
         <v>562</v>
       </c>
       <c r="D38" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E38" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F38">
         <v>5.2</v>
@@ -9600,7 +9579,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="37" t="s">
         <v>589</v>
       </c>
       <c r="B46" t="s">
@@ -9686,17 +9665,17 @@
         <v>477</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>879</v>
+        <v>835</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>880</v>
+        <v>836</v>
       </c>
       <c r="H1" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -9708,49 +9687,49 @@
       <c r="D2" t="s">
         <v>353</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="23">
         <v>150</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="23">
         <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>793</v>
+        <v>750</v>
       </c>
       <c r="E3" t="s">
-        <v>793</v>
-      </c>
-      <c r="F3" s="24">
+        <v>750</v>
+      </c>
+      <c r="F3" s="23">
         <v>35</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>796</v>
+        <v>753</v>
       </c>
       <c r="E4" t="s">
-        <v>796</v>
-      </c>
-      <c r="F4" s="24">
+        <v>753</v>
+      </c>
+      <c r="F4" s="23">
         <v>12</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="s">
@@ -9762,408 +9741,408 @@
       <c r="D5" t="s">
         <v>353</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>8</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>595</v>
       </c>
       <c r="C6" t="s">
-        <v>799</v>
+        <v>756</v>
       </c>
       <c r="D6" t="s">
-        <v>800</v>
+        <v>757</v>
       </c>
       <c r="E6" t="s">
-        <v>800</v>
-      </c>
-      <c r="F6" s="24">
+        <v>757</v>
+      </c>
+      <c r="F6" s="23">
         <v>1.4</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="40" t="s">
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>796</v>
+        <v>753</v>
       </c>
       <c r="E7" t="s">
-        <v>796</v>
-      </c>
-      <c r="F7" s="24">
+        <v>753</v>
+      </c>
+      <c r="F7" s="23">
         <v>2.5</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="40" t="s">
         <v>52</v>
       </c>
       <c r="D8" t="s">
+        <v>771</v>
+      </c>
+      <c r="E8" t="s">
+        <v>771</v>
+      </c>
+      <c r="F8" s="23">
+        <v>13.2</v>
+      </c>
+      <c r="G8" s="23">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>759</v>
+      </c>
+      <c r="E9" t="s">
+        <v>759</v>
+      </c>
+      <c r="F9" s="23">
+        <v>5.2</v>
+      </c>
+      <c r="G9" s="23">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>772</v>
+      </c>
+      <c r="D10" t="s">
+        <v>793</v>
+      </c>
+      <c r="E10" t="s">
+        <v>793</v>
+      </c>
+      <c r="F10" s="23">
+        <v>34</v>
+      </c>
+      <c r="G10" s="23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>760</v>
+      </c>
+      <c r="E11" t="s">
+        <v>760</v>
+      </c>
+      <c r="F11" s="23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G11" s="23">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>761</v>
+      </c>
+      <c r="E12" t="s">
+        <v>761</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0.19</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>762</v>
+      </c>
+      <c r="E13" t="s">
+        <v>762</v>
+      </c>
+      <c r="F13" s="23">
+        <v>4.3</v>
+      </c>
+      <c r="G13" s="23">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>791</v>
+      </c>
+      <c r="C14" t="s">
+        <v>790</v>
+      </c>
+      <c r="D14" t="s">
+        <v>792</v>
+      </c>
+      <c r="E14" t="s">
+        <v>792</v>
+      </c>
+      <c r="F14" s="23">
+        <v>8.1</v>
+      </c>
+      <c r="G14" s="23">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
+        <v>636</v>
+      </c>
+      <c r="D15" t="s">
+        <v>763</v>
+      </c>
+      <c r="E15" t="s">
+        <v>763</v>
+      </c>
+      <c r="F15" s="23">
+        <v>5.2</v>
+      </c>
+      <c r="G15" s="23">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>768</v>
+      </c>
+      <c r="D16" t="s">
+        <v>764</v>
+      </c>
+      <c r="E16" t="s">
+        <v>764</v>
+      </c>
+      <c r="F16" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="G16" s="23">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>766</v>
+      </c>
+      <c r="C17" t="s">
+        <v>765</v>
+      </c>
+      <c r="D17" t="s">
+        <v>767</v>
+      </c>
+      <c r="E17" t="s">
+        <v>767</v>
+      </c>
+      <c r="F17" s="23">
+        <v>1</v>
+      </c>
+      <c r="G17" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>682</v>
+      </c>
+      <c r="D18" t="s">
+        <v>769</v>
+      </c>
+      <c r="E18" t="s">
+        <v>769</v>
+      </c>
+      <c r="F18" s="60">
+        <v>3.5</v>
+      </c>
+      <c r="G18" s="60">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
+        <v>683</v>
+      </c>
+      <c r="D19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E19" t="s">
+        <v>770</v>
+      </c>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
+        <v>801</v>
+      </c>
+      <c r="D20" t="s">
+        <v>802</v>
+      </c>
+      <c r="E20" t="s">
+        <v>802</v>
+      </c>
+      <c r="F20" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="G20" s="23">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
+        <v>807</v>
+      </c>
+      <c r="D21" t="s">
+        <v>808</v>
+      </c>
+      <c r="E21" t="s">
+        <v>808</v>
+      </c>
+      <c r="F21" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="G21" s="23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
+        <v>810</v>
+      </c>
+      <c r="D22" t="s">
+        <v>809</v>
+      </c>
+      <c r="E22" t="s">
+        <v>809</v>
+      </c>
+      <c r="F22" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="40" t="s">
+        <v>811</v>
+      </c>
+      <c r="D23" t="s">
+        <v>812</v>
+      </c>
+      <c r="E23" t="s">
+        <v>812</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="G23" s="23">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
+        <v>819</v>
+      </c>
+      <c r="D24" t="s">
+        <v>813</v>
+      </c>
+      <c r="E24" t="s">
+        <v>813</v>
+      </c>
+      <c r="F24" s="23">
+        <v>0.47</v>
+      </c>
+      <c r="G24" s="23">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
         <v>814</v>
       </c>
-      <c r="E8" t="s">
-        <v>814</v>
-      </c>
-      <c r="F8" s="24">
-        <v>13.2</v>
-      </c>
-      <c r="G8" s="24">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>802</v>
-      </c>
-      <c r="E9" t="s">
-        <v>802</v>
-      </c>
-      <c r="F9" s="24">
+      <c r="D25" t="s">
+        <v>815</v>
+      </c>
+      <c r="E25" t="s">
+        <v>815</v>
+      </c>
+      <c r="F25" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
+        <v>817</v>
+      </c>
+      <c r="D26" t="s">
+        <v>816</v>
+      </c>
+      <c r="E26" t="s">
+        <v>816</v>
+      </c>
+      <c r="F26" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="G26" s="23">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
+        <v>818</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="F27" s="23">
         <v>5.2</v>
       </c>
-      <c r="G9" s="24">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>815</v>
-      </c>
-      <c r="D10" t="s">
-        <v>836</v>
-      </c>
-      <c r="E10" t="s">
-        <v>836</v>
-      </c>
-      <c r="F10" s="24">
-        <v>34</v>
-      </c>
-      <c r="G10" s="24">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>803</v>
-      </c>
-      <c r="E11" t="s">
-        <v>803</v>
-      </c>
-      <c r="F11" s="24">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G11" s="24">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" t="s">
-        <v>804</v>
-      </c>
-      <c r="E12" t="s">
-        <v>804</v>
-      </c>
-      <c r="F12" s="24">
-        <v>0.19</v>
-      </c>
-      <c r="G12" s="24">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" t="s">
-        <v>805</v>
-      </c>
-      <c r="E13" t="s">
-        <v>805</v>
-      </c>
-      <c r="F13" s="24">
-        <v>4.3</v>
-      </c>
-      <c r="G13" s="24">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" t="s">
-        <v>834</v>
-      </c>
-      <c r="C14" t="s">
-        <v>833</v>
-      </c>
-      <c r="D14" t="s">
-        <v>835</v>
-      </c>
-      <c r="E14" t="s">
-        <v>835</v>
-      </c>
-      <c r="F14" s="24">
-        <v>8.1</v>
-      </c>
-      <c r="G14" s="24">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>647</v>
-      </c>
-      <c r="D15" t="s">
-        <v>806</v>
-      </c>
-      <c r="E15" t="s">
-        <v>806</v>
-      </c>
-      <c r="F15" s="24">
-        <v>5.2</v>
-      </c>
-      <c r="G15" s="24">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>811</v>
-      </c>
-      <c r="D16" t="s">
-        <v>807</v>
-      </c>
-      <c r="E16" t="s">
-        <v>807</v>
-      </c>
-      <c r="F16" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="G16" s="24">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" t="s">
-        <v>809</v>
-      </c>
-      <c r="C17" t="s">
-        <v>808</v>
-      </c>
-      <c r="D17" t="s">
-        <v>810</v>
-      </c>
-      <c r="E17" t="s">
-        <v>810</v>
-      </c>
-      <c r="F17" s="24">
-        <v>1</v>
-      </c>
-      <c r="G17" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
-        <v>698</v>
-      </c>
-      <c r="D18" t="s">
-        <v>812</v>
-      </c>
-      <c r="E18" t="s">
-        <v>812</v>
-      </c>
-      <c r="F18" s="59">
-        <v>3.5</v>
-      </c>
-      <c r="G18" s="59">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>699</v>
-      </c>
-      <c r="D19" t="s">
-        <v>813</v>
-      </c>
-      <c r="E19" t="s">
-        <v>813</v>
-      </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
-        <v>844</v>
-      </c>
-      <c r="D20" t="s">
-        <v>845</v>
-      </c>
-      <c r="E20" t="s">
-        <v>845</v>
-      </c>
-      <c r="F20" s="24">
-        <v>0.23</v>
-      </c>
-      <c r="G20" s="24">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
-        <v>850</v>
-      </c>
-      <c r="D21" t="s">
-        <v>851</v>
-      </c>
-      <c r="E21" t="s">
-        <v>851</v>
-      </c>
-      <c r="F21" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="G21" s="24">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
-        <v>853</v>
-      </c>
-      <c r="D22" t="s">
-        <v>852</v>
-      </c>
-      <c r="E22" t="s">
-        <v>852</v>
-      </c>
-      <c r="F22" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="24">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
-        <v>854</v>
-      </c>
-      <c r="D23" t="s">
-        <v>855</v>
-      </c>
-      <c r="E23" t="s">
-        <v>855</v>
-      </c>
-      <c r="F23" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="G23" s="24">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
-        <v>863</v>
-      </c>
-      <c r="D24" t="s">
-        <v>856</v>
-      </c>
-      <c r="E24" t="s">
-        <v>856</v>
-      </c>
-      <c r="F24" s="24">
-        <v>0.47</v>
-      </c>
-      <c r="G24" s="24">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
-        <v>857</v>
-      </c>
-      <c r="D25" t="s">
-        <v>858</v>
-      </c>
-      <c r="E25" t="s">
-        <v>858</v>
-      </c>
-      <c r="F25" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="G25" s="24">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
-        <v>861</v>
-      </c>
-      <c r="D26" t="s">
-        <v>860</v>
-      </c>
-      <c r="E26" t="s">
-        <v>860</v>
-      </c>
-      <c r="F26" s="24">
-        <v>1.3</v>
-      </c>
-      <c r="G26" s="24">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
-        <v>862</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>860</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>860</v>
-      </c>
-      <c r="F27" s="24">
-        <v>5.2</v>
-      </c>
-      <c r="G27" s="24">
+      <c r="G27" s="23">
         <v>5.2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/external/languages.xlsx
+++ b/external/languages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Scripts\layout\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F171510C-F4CC-46A4-9F37-F06C96CEF7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E09623-1661-4BE6-9DD7-D22EFAE4E320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,17 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="954">
   <si>
     <t>English</t>
   </si>
@@ -3164,10 +3159,13 @@
     </r>
   </si>
   <si>
-    <t>* 10 September 2021</t>
-  </si>
-  <si>
     <t>[1] (values &lt; 0.0001% rounded to 0.0001%):</t>
+  </si>
+  <si>
+    <t>* 10 October 2021</t>
+  </si>
+  <si>
+    <t>Norwegian Bokmål</t>
   </si>
 </sst>
 </file>
@@ -3488,8 +3486,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3502,12 +3506,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4035,15 +4033,15 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
+        <v>951</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" t="s">
         <v>952</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4070,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="45">
-        <v>0.625</v>
+        <v>0.629</v>
       </c>
       <c r="C4" s="22">
         <v>1</v>
@@ -4081,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="45">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="C5" s="22">
         <v>1</v>
@@ -4121,7 +4119,7 @@
       </c>
       <c r="H7" s="37">
         <f>SUMIF($C$4:$C$201, 1, $B$4:$B$201)</f>
-        <v>0.77274800000000032</v>
+        <v>0.77272800000000041</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4145,7 +4143,7 @@
       </c>
       <c r="H8" s="37">
         <f>SUMIF($C$4:$C$201, 2, $B$4:$B$201)</f>
-        <v>6.3557000000000016E-2</v>
+        <v>6.2567000000000025E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4153,7 +4151,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="45">
-        <v>2.5999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C9" s="22">
         <v>1</v>
@@ -4166,7 +4164,7 @@
       </c>
       <c r="H9" s="37">
         <f>SUMIF($C$4:$C$201, 3, $B$4:$B$201)</f>
-        <v>5.231400000000002E-2</v>
+        <v>5.222400000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4174,7 +4172,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="45">
-        <v>2.1000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C10" s="22">
         <v>2</v>
@@ -4232,7 +4230,7 @@
       </c>
       <c r="H12" s="37">
         <f>SUMIF($C$4:$C$201, 6, $B$4:$B$201)</f>
-        <v>6.1600000000000012E-4</v>
+        <v>5.9600000000000007E-4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4256,7 +4254,7 @@
       </c>
       <c r="H13" s="37">
         <f>SUMIF($C$4:$C$201, 7, $B$4:$B$201)</f>
-        <v>0.10184800000000001</v>
+        <v>0.10091800000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4280,7 +4278,7 @@
       </c>
       <c r="H14" s="37">
         <f>SUMIF($C$4:$C$201, 8, $B$4:$B$201)</f>
-        <v>2.8800000000000022E-4</v>
+        <v>2.980000000000002E-4</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4288,7 +4286,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="45">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C15" s="22">
         <v>1</v>
@@ -4331,16 +4329,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="45">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C18" s="33">
-        <v>7</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>180</v>
+      <c r="C18" s="22">
+        <v>3</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>828</v>
       </c>
       <c r="G18" t="s">
         <v>837</v>
@@ -4348,16 +4346,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="45">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C19" s="22">
-        <v>3</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>828</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C19" s="56">
+        <v>7</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="G19" t="s">
         <v>834</v>
@@ -4600,7 +4598,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>33</v>
+        <v>953</v>
       </c>
       <c r="B37" s="45">
         <v>1E-3</v>
@@ -4618,8 +4616,8 @@
       <c r="A39" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="63">
-        <v>5.0000000000000001E-4</v>
+      <c r="B39" s="58">
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="C39" s="22">
         <v>6</v>
@@ -4632,8 +4630,8 @@
       <c r="A40" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="63">
-        <v>5.0000000000000001E-4</v>
+      <c r="B40" s="58">
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="C40" s="22">
         <v>3</v>
@@ -4644,35 +4642,35 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="63">
-        <v>4.0000000000000002E-4</v>
+        <v>33</v>
+      </c>
+      <c r="B41" s="58">
+        <v>4.0999999999999999E-4</v>
       </c>
       <c r="C41" s="22">
-        <v>4</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>701</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="63">
+        <v>41</v>
+      </c>
+      <c r="B42" s="58">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="C42" s="22">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="63">
-        <v>4.0000000000000002E-4</v>
+      <c r="B43" s="58">
+        <v>3.6999999999999999E-4</v>
       </c>
       <c r="C43" s="22">
         <v>3</v>
@@ -4685,8 +4683,8 @@
       <c r="A44" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="63">
-        <v>4.0000000000000002E-4</v>
+      <c r="B44" s="58">
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="C44" s="22">
         <v>1</v>
@@ -4696,8 +4694,8 @@
       <c r="A45" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="63">
-        <v>4.0000000000000002E-4</v>
+      <c r="B45" s="58">
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="C45" s="22">
         <v>3</v>
@@ -4710,8 +4708,8 @@
       <c r="A46" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="63">
-        <v>2.9999999999999997E-4</v>
+      <c r="B46" s="58">
+        <v>3.5E-4</v>
       </c>
       <c r="C46" s="33">
         <v>7</v>
@@ -4724,8 +4722,8 @@
       <c r="A47" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="63">
-        <v>2.9999999999999997E-4</v>
+      <c r="B47" s="58">
+        <v>3.1E-4</v>
       </c>
       <c r="C47" s="22">
         <v>3</v>
@@ -4738,8 +4736,8 @@
       <c r="A48" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="63">
-        <v>2.0000000000000001E-4</v>
+      <c r="B48" s="58">
+        <v>2.2000000000000001E-4</v>
       </c>
       <c r="C48" s="22">
         <v>3</v>
@@ -4752,8 +4750,8 @@
       <c r="A49" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="63">
-        <v>2.0000000000000001E-4</v>
+      <c r="B49" s="58">
+        <v>2.2000000000000001E-4</v>
       </c>
       <c r="C49" s="22">
         <v>1</v>
@@ -4763,8 +4761,8 @@
       <c r="A50" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="63">
-        <v>2.0000000000000001E-4</v>
+      <c r="B50" s="58">
+        <v>2.2000000000000001E-4</v>
       </c>
       <c r="C50" s="33">
         <v>7</v>
@@ -4777,7 +4775,7 @@
       <c r="A51" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="63">
+      <c r="B51" s="58">
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="C51" s="33">
@@ -4791,7 +4789,7 @@
       <c r="A52" s="33" t="s">
         <v>841</v>
       </c>
-      <c r="B52" s="64">
+      <c r="B52" s="60">
         <v>1.7000000000000001E-4</v>
       </c>
       <c r="C52" s="22" t="s">
@@ -4805,7 +4803,7 @@
       <c r="A53" s="33" t="s">
         <v>842</v>
       </c>
-      <c r="B53" s="64"/>
+      <c r="B53" s="60"/>
       <c r="C53" s="22">
         <v>3</v>
       </c>
@@ -4817,7 +4815,7 @@
       <c r="A54" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="63">
+      <c r="B54" s="58">
         <v>1.2E-4</v>
       </c>
       <c r="C54" s="22" t="s">
@@ -4831,7 +4829,7 @@
       <c r="A55" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="63">
+      <c r="B55" s="58">
         <v>1.2E-4</v>
       </c>
       <c r="C55" s="22">
@@ -4845,7 +4843,7 @@
       <c r="A56" s="33" t="s">
         <v>623</v>
       </c>
-      <c r="B56" s="64">
+      <c r="B56" s="60">
         <v>1.2E-4</v>
       </c>
       <c r="C56" s="22">
@@ -4856,7 +4854,7 @@
       <c r="A57" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="B57" s="64"/>
+      <c r="B57" s="60"/>
       <c r="C57" s="22">
         <v>3</v>
       </c>
@@ -4868,8 +4866,8 @@
       <c r="A58" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="63">
-        <v>1E-4</v>
+      <c r="B58" s="58">
+        <v>1.1E-4</v>
       </c>
       <c r="C58" s="33">
         <v>8</v>
@@ -4885,7 +4883,7 @@
       <c r="A59" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="B59" s="63">
+      <c r="B59" s="58">
         <v>1E-4</v>
       </c>
       <c r="C59" s="22">
@@ -4899,7 +4897,7 @@
       <c r="A60" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="63">
+      <c r="B60" s="58">
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="C60" s="22">
@@ -4913,7 +4911,7 @@
       <c r="A61" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="63">
+      <c r="B61" s="58">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="C61" s="22">
@@ -4927,7 +4925,7 @@
       <c r="A62" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="63">
+      <c r="B62" s="58">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="C62" s="22">
@@ -4939,7 +4937,7 @@
       <c r="A63" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B63" s="63">
+      <c r="B63" s="58">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="C63" s="33">
@@ -4953,7 +4951,7 @@
       <c r="A64" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="63">
+      <c r="B64" s="58">
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="C64" s="33">
@@ -4967,7 +4965,7 @@
       <c r="A65" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="63">
+      <c r="B65" s="58">
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="C65" s="22">
@@ -4981,7 +4979,7 @@
       <c r="A66" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B66" s="63">
+      <c r="B66" s="58">
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="C66" s="33">
@@ -4995,7 +4993,7 @@
       <c r="A67" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="63">
+      <c r="B67" s="58">
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="C67" s="33">
@@ -5009,7 +5007,7 @@
       <c r="A68" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B68" s="63">
+      <c r="B68" s="58">
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="C68" s="22">
@@ -5021,7 +5019,7 @@
       <c r="A69" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="63">
+      <c r="B69" s="58">
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="C69" s="22">
@@ -5032,7 +5030,7 @@
       <c r="A70" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="63">
+      <c r="B70" s="58">
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="C70" s="22">
@@ -5043,7 +5041,7 @@
       <c r="A71" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="63">
+      <c r="B71" s="58">
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="C71" s="33">
@@ -5057,7 +5055,7 @@
       <c r="A72" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="63">
+      <c r="B72" s="58">
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="C72" s="22" t="s">
@@ -5071,7 +5069,7 @@
       <c r="A73" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="63">
+      <c r="B73" s="58">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="C73" s="22">
@@ -5083,7 +5081,7 @@
       <c r="A74" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="63">
+      <c r="B74" s="58">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="C74" s="22">
@@ -5094,7 +5092,7 @@
       <c r="A75" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="63">
+      <c r="B75" s="58">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="C75" s="22">
@@ -5108,7 +5106,7 @@
       <c r="A76" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="63">
+      <c r="B76" s="58">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="C76" s="33">
@@ -5270,7 +5268,7 @@
       <c r="A88" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="B88" s="59">
+      <c r="B88" s="61">
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="C88" s="22" t="s">
@@ -5284,7 +5282,7 @@
       <c r="A89" s="33" t="s">
         <v>632</v>
       </c>
-      <c r="B89" s="59"/>
+      <c r="B89" s="61"/>
       <c r="C89" s="22">
         <v>3</v>
       </c>
@@ -5552,7 +5550,7 @@
       <c r="A110" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="B110" s="59">
+      <c r="B110" s="61">
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="C110" s="22">
@@ -5566,7 +5564,7 @@
       <c r="A111" s="33" t="s">
         <v>646</v>
       </c>
-      <c r="B111" s="59"/>
+      <c r="B111" s="61"/>
       <c r="C111" s="33">
         <v>9</v>
       </c>
@@ -5920,7 +5918,7 @@
       <c r="A140" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B140" s="59">
+      <c r="B140" s="61">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C140" s="33">
@@ -5934,7 +5932,7 @@
       <c r="A141" s="33" t="s">
         <v>666</v>
       </c>
-      <c r="B141" s="59"/>
+      <c r="B141" s="61"/>
       <c r="C141" s="22">
         <v>1</v>
       </c>
@@ -6026,7 +6024,7 @@
       <c r="A149" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B149" s="59">
+      <c r="B149" s="61">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C149" s="22">
@@ -6037,7 +6035,7 @@
       <c r="A150" s="33" t="s">
         <v>670</v>
       </c>
-      <c r="B150" s="59"/>
+      <c r="B150" s="61"/>
       <c r="C150" s="22">
         <v>3</v>
       </c>
@@ -6049,7 +6047,7 @@
       <c r="A151" s="33" t="s">
         <v>671</v>
       </c>
-      <c r="B151" s="59">
+      <c r="B151" s="61">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C151" s="22">
@@ -6063,7 +6061,7 @@
       <c r="A152" s="33" t="s">
         <v>672</v>
       </c>
-      <c r="B152" s="59"/>
+      <c r="B152" s="61"/>
       <c r="C152" s="22">
         <v>6</v>
       </c>
@@ -6122,7 +6120,7 @@
       <c r="A157" s="33" t="s">
         <v>674</v>
       </c>
-      <c r="B157" s="59">
+      <c r="B157" s="61">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C157" s="22">
@@ -6136,7 +6134,7 @@
       <c r="A158" s="33" t="s">
         <v>675</v>
       </c>
-      <c r="B158" s="59"/>
+      <c r="B158" s="61"/>
       <c r="C158" s="33">
         <v>9</v>
       </c>
@@ -6148,7 +6146,7 @@
       <c r="A159" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="B159" s="59"/>
+      <c r="B159" s="61"/>
       <c r="C159" s="22">
         <v>1</v>
       </c>
@@ -6157,7 +6155,7 @@
       <c r="A160" s="33" t="s">
         <v>680</v>
       </c>
-      <c r="B160" s="59"/>
+      <c r="B160" s="61"/>
       <c r="C160" s="22">
         <v>3</v>
       </c>
@@ -6169,7 +6167,7 @@
       <c r="A161" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="B161" s="59"/>
+      <c r="B161" s="61"/>
       <c r="C161" s="22">
         <v>3</v>
       </c>
@@ -6181,7 +6179,7 @@
       <c r="A162" s="33" t="s">
         <v>677</v>
       </c>
-      <c r="B162" s="59"/>
+      <c r="B162" s="61"/>
       <c r="C162" s="22" t="s">
         <v>717</v>
       </c>
@@ -6193,7 +6191,7 @@
       <c r="A163" s="33" t="s">
         <v>678</v>
       </c>
-      <c r="B163" s="59"/>
+      <c r="B163" s="61"/>
       <c r="C163" s="22">
         <v>3</v>
       </c>
@@ -6205,7 +6203,7 @@
       <c r="A164" s="33" t="s">
         <v>679</v>
       </c>
-      <c r="B164" s="59"/>
+      <c r="B164" s="61"/>
       <c r="C164" s="22">
         <v>3</v>
       </c>
@@ -6371,7 +6369,7 @@
       <c r="A176" s="33" t="s">
         <v>688</v>
       </c>
-      <c r="B176" s="59">
+      <c r="B176" s="61">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C176" s="22" t="s">
@@ -6385,7 +6383,7 @@
       <c r="A177" s="33" t="s">
         <v>689</v>
       </c>
-      <c r="B177" s="59"/>
+      <c r="B177" s="61"/>
       <c r="C177" s="22" t="s">
         <v>729</v>
       </c>
@@ -6904,6 +6902,9 @@
       <c r="F217" s="31"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A40:D51">
+    <sortCondition descending="1" ref="B40:B51"/>
+  </sortState>
   <mergeCells count="10">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B52:B53"/>
@@ -8388,12 +8389,12 @@
         <v>600</v>
       </c>
       <c r="O27" s="31"/>
-      <c r="P27" s="60" t="s">
+      <c r="P27" s="62" t="s">
         <v>819</v>
       </c>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
       <c r="T27" s="31"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -9303,10 +9304,10 @@
       <c r="D17" t="s">
         <v>349</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="64">
         <v>23.6</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17" s="63">
         <v>45</v>
       </c>
     </row>
@@ -9323,8 +9324,8 @@
       <c r="D18" t="s">
         <v>478</v>
       </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="61"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="63"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
@@ -10316,10 +10317,10 @@
       <c r="E18" t="s">
         <v>765</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="62">
         <v>3.5</v>
       </c>
-      <c r="G18" s="60">
+      <c r="G18" s="62">
         <v>3.5</v>
       </c>
     </row>
@@ -10333,8 +10334,8 @@
       <c r="E19" t="s">
         <v>766</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">

--- a/external/languages.xlsx
+++ b/external/languages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Scripts\layout\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E09623-1661-4BE6-9DD7-D22EFAE4E320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20401A6F-E1D7-40B5-85EE-44B790060E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3162,10 +3167,10 @@
     <t>[1] (values &lt; 0.0001% rounded to 0.0001%):</t>
   </si>
   <si>
-    <t>* 10 October 2021</t>
-  </si>
-  <si>
     <t>Norwegian Bokmål</t>
+  </si>
+  <si>
+    <t>* 15 October 2021</t>
   </si>
 </sst>
 </file>
@@ -4041,7 +4046,7 @@
       <c r="C1" s="59"/>
       <c r="D1" s="59"/>
       <c r="E1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4068,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="45">
-        <v>0.629</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="C4" s="22">
         <v>1</v>
@@ -4079,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="45">
-        <v>7.2999999999999995E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C5" s="22">
         <v>1</v>
@@ -4119,7 +4124,7 @@
       </c>
       <c r="H7" s="37">
         <f>SUMIF($C$4:$C$201, 1, $B$4:$B$201)</f>
-        <v>0.77272800000000041</v>
+        <v>0.77472800000000042</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4164,7 +4169,7 @@
       </c>
       <c r="H9" s="37">
         <f>SUMIF($C$4:$C$201, 3, $B$4:$B$201)</f>
-        <v>5.222400000000002E-2</v>
+        <v>5.2204000000000021E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4307,7 +4312,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="45">
-        <v>7.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C16" s="22">
         <v>1</v>
@@ -4598,7 +4603,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B37" s="45">
         <v>1E-3</v>
@@ -4631,7 +4636,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="58">
-        <v>4.4999999999999999E-4</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="C40" s="22">
         <v>3</v>
@@ -6902,7 +6907,7 @@
       <c r="F217" s="31"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A40:D51">
+  <sortState ref="A40:D51">
     <sortCondition descending="1" ref="B40:B51"/>
   </sortState>
   <mergeCells count="10">

--- a/external/languages.xlsx
+++ b/external/languages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Scripts\layout\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20401A6F-E1D7-40B5-85EE-44B790060E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32399EE-CFE0-4ED4-9B75-25DF585CB9E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3170,16 +3170,17 @@
     <t>Norwegian Bokmål</t>
   </si>
   <si>
-    <t>* 15 October 2021</t>
+    <t>* 19 October 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -3342,7 +3343,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3454,9 +3455,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3494,6 +3492,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4018,10 +4023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H9"/>
+      <selection activeCell="I7" sqref="I7:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4033,28 +4038,29 @@
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>951</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>38</v>
       </c>
@@ -4068,22 +4074,22 @@
         <v>628</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="59">
         <v>0.63100000000000001</v>
       </c>
       <c r="C4" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="59">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="C5" s="22">
@@ -4091,11 +4097,11 @@
       </c>
       <c r="H5" s="33"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="59">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="C6" s="22">
@@ -4106,11 +4112,11 @@
       </c>
       <c r="H6" s="38"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="59">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="C7" s="22">
@@ -4124,14 +4130,18 @@
       </c>
       <c r="H7" s="37">
         <f>SUMIF($C$4:$C$201, 1, $B$4:$B$201)</f>
-        <v>0.77472800000000042</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.77472600000000058</v>
+      </c>
+      <c r="I7" s="60">
+        <f>H7/SUM($H$7:$H$15)</f>
+        <v>0.77419722329648877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="59">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="C8" s="22">
@@ -4148,14 +4158,18 @@
       </c>
       <c r="H8" s="37">
         <f>SUMIF($C$4:$C$201, 2, $B$4:$B$201)</f>
-        <v>6.2567000000000025E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.2573999999999991E-2</v>
+      </c>
+      <c r="I8" s="60">
+        <f t="shared" ref="I8:I15" si="0">H8/SUM($H$7:$H$15)</f>
+        <v>6.253129112815943E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="59">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C9" s="22">
@@ -4169,14 +4183,18 @@
       </c>
       <c r="H9" s="37">
         <f>SUMIF($C$4:$C$201, 3, $B$4:$B$201)</f>
-        <v>5.2204000000000021E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.2165000000000024E-2</v>
+      </c>
+      <c r="I9" s="60">
+        <f t="shared" si="0"/>
+        <v>5.2129395622789634E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="59">
         <v>0.02</v>
       </c>
       <c r="C10" s="22">
@@ -4192,12 +4210,16 @@
         <f>SUMIF($C$4:$C$201, 4, $B$4:$B$201)</f>
         <v>7.4000000000000003E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="60">
+        <f t="shared" si="0"/>
+        <v>7.3949492496624778E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="59">
         <v>1.9E-2</v>
       </c>
       <c r="C11" s="22">
@@ -4216,12 +4238,16 @@
         <f>SUMIF($C$4:$C$201, 5, $B$4:$B$201)</f>
         <v>3.0030000000000005E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="60">
+        <f t="shared" si="0"/>
+        <v>3.0009503509103273E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="59">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="C12" s="22">
@@ -4235,14 +4261,18 @@
       </c>
       <c r="H12" s="37">
         <f>SUMIF($C$4:$C$201, 6, $B$4:$B$201)</f>
-        <v>5.9600000000000007E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.8600000000000026E-4</v>
+      </c>
+      <c r="I12" s="60">
+        <f t="shared" si="0"/>
+        <v>5.8560003517597479E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="59">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="C13" s="22">
@@ -4259,14 +4289,18 @@
       </c>
       <c r="H13" s="37">
         <f>SUMIF($C$4:$C$201, 7, $B$4:$B$201)</f>
-        <v>0.10091800000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9.9926000000000015E-2</v>
+      </c>
+      <c r="I13" s="60">
+        <f t="shared" si="0"/>
+        <v>9.9857797124563899E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="59">
         <v>1.2E-2</v>
       </c>
       <c r="C14" s="22">
@@ -4283,15 +4317,19 @@
       </c>
       <c r="H14" s="37">
         <f>SUMIF($C$4:$C$201, 8, $B$4:$B$201)</f>
-        <v>2.980000000000002E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.9500000000000018E-4</v>
+      </c>
+      <c r="I14" s="60">
+        <f t="shared" si="0"/>
+        <v>2.9479865252032866E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="45">
-        <v>7.0000000000000001E-3</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="59">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C15" s="22">
         <v>1</v>
@@ -4306,13 +4344,17 @@
         <f>SUMIF($C$4:$C$201, 9, $B$4:$B$201)</f>
         <v>7.9999999999999996E-6</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="60">
+        <f t="shared" si="0"/>
+        <v>7.9945397293648407E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="45">
-        <v>8.0000000000000002E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B16" s="59">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C16" s="22">
         <v>1</v>
@@ -4322,7 +4364,7 @@
       <c r="A17" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="59">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="C17" s="22">
@@ -4336,7 +4378,7 @@
       <c r="A18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="59">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="C18" s="22">
@@ -4351,16 +4393,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="45">
+        <v>16</v>
+      </c>
+      <c r="B19" s="59">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C19" s="56">
-        <v>7</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>180</v>
+      <c r="C19" s="22">
+        <v>1</v>
       </c>
       <c r="G19" t="s">
         <v>834</v>
@@ -4368,13 +4407,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="45">
+        <v>17</v>
+      </c>
+      <c r="B20" s="59">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C20" s="22">
-        <v>1</v>
+      <c r="C20" s="55">
+        <v>7</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="G20" t="s">
         <v>835</v>
@@ -4382,16 +4424,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="45">
+        <v>19</v>
+      </c>
+      <c r="B21" s="59">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C21" s="33">
         <v>7</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G21" t="s">
         <v>836</v>
@@ -4399,16 +4441,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="45">
+        <v>18</v>
+      </c>
+      <c r="B22" s="59">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C22" s="33">
         <v>7</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G22" t="s">
         <v>838</v>
@@ -4416,16 +4458,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="45">
+        <v>20</v>
+      </c>
+      <c r="B23" s="59">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C23" s="33">
-        <v>7</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>178</v>
+      <c r="C23" s="22">
+        <v>4</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>722</v>
       </c>
       <c r="G23" t="s">
         <v>910</v>
@@ -4433,23 +4475,23 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="45">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C24" s="22">
-        <v>4</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>722</v>
+        <v>14</v>
+      </c>
+      <c r="B24" s="59">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C24" s="55">
+        <v>7</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="45">
+      <c r="B25" s="59">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C25" s="22">
@@ -4463,7 +4505,7 @@
       <c r="A26" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="59">
         <v>2E-3</v>
       </c>
       <c r="C26" s="22">
@@ -4477,7 +4519,7 @@
       <c r="A27" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="45">
+      <c r="B27" s="59">
         <v>2E-3</v>
       </c>
       <c r="C27" s="22">
@@ -4488,7 +4530,7 @@
       <c r="A28" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="59">
         <v>2E-3</v>
       </c>
       <c r="C28" s="22">
@@ -4502,7 +4544,7 @@
       <c r="A29" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="45">
+      <c r="B29" s="59">
         <v>1E-3</v>
       </c>
       <c r="C29" s="22">
@@ -4516,7 +4558,7 @@
       <c r="A30" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="45">
+      <c r="B30" s="59">
         <v>1E-3</v>
       </c>
       <c r="C30" s="22">
@@ -4527,7 +4569,7 @@
       <c r="A31" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="45">
+      <c r="B31" s="59">
         <v>1E-3</v>
       </c>
       <c r="C31" s="22">
@@ -4538,7 +4580,7 @@
       <c r="A32" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="59">
         <v>1E-3</v>
       </c>
       <c r="C32" s="22">
@@ -4549,7 +4591,7 @@
       <c r="A33" s="33" t="s">
         <v>709</v>
       </c>
-      <c r="B33" s="45">
+      <c r="B33" s="59">
         <v>1E-3</v>
       </c>
       <c r="C33" s="22">
@@ -4563,7 +4605,7 @@
       <c r="A34" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="45">
+      <c r="B34" s="59">
         <v>1E-3</v>
       </c>
       <c r="C34" s="22">
@@ -4577,7 +4619,7 @@
       <c r="A35" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="45">
+      <c r="B35" s="59">
         <v>1E-3</v>
       </c>
       <c r="C35" s="33">
@@ -4591,7 +4633,7 @@
       <c r="A36" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="45">
+      <c r="B36" s="59">
         <v>1E-3</v>
       </c>
       <c r="C36" s="22">
@@ -4605,7 +4647,7 @@
       <c r="A37" s="33" t="s">
         <v>952</v>
       </c>
-      <c r="B37" s="45">
+      <c r="B37" s="59">
         <v>1E-3</v>
       </c>
       <c r="C37" s="22">
@@ -4621,8 +4663,8 @@
       <c r="A39" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="58">
-        <v>4.8000000000000001E-4</v>
+      <c r="B39" s="57">
+        <v>4.6999999999999999E-4</v>
       </c>
       <c r="C39" s="22">
         <v>6</v>
@@ -4635,7 +4677,7 @@
       <c r="A40" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="58">
+      <c r="B40" s="57">
         <v>4.2999999999999999E-4</v>
       </c>
       <c r="C40" s="22">
@@ -4649,8 +4691,8 @@
       <c r="A41" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="58">
-        <v>4.0999999999999999E-4</v>
+      <c r="B41" s="57">
+        <v>4.2000000000000002E-4</v>
       </c>
       <c r="C41" s="22">
         <v>2</v>
@@ -4660,7 +4702,7 @@
       <c r="A42" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="58">
+      <c r="B42" s="57">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="C42" s="22">
@@ -4674,8 +4716,8 @@
       <c r="A43" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="58">
-        <v>3.6999999999999999E-4</v>
+      <c r="B43" s="57">
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="C43" s="22">
         <v>3</v>
@@ -4688,7 +4730,7 @@
       <c r="A44" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="58">
+      <c r="B44" s="57">
         <v>3.6000000000000002E-4</v>
       </c>
       <c r="C44" s="22">
@@ -4699,8 +4741,8 @@
       <c r="A45" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="58">
-        <v>3.6000000000000002E-4</v>
+      <c r="B45" s="57">
+        <v>3.5E-4</v>
       </c>
       <c r="C45" s="22">
         <v>3</v>
@@ -4713,7 +4755,7 @@
       <c r="A46" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="58">
+      <c r="B46" s="57">
         <v>3.5E-4</v>
       </c>
       <c r="C46" s="33">
@@ -4727,8 +4769,8 @@
       <c r="A47" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="58">
-        <v>3.1E-4</v>
+      <c r="B47" s="57">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="C47" s="22">
         <v>3</v>
@@ -4738,10 +4780,10 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="58">
+      <c r="B48" s="57">
         <v>2.2000000000000001E-4</v>
       </c>
       <c r="C48" s="22">
@@ -4752,10 +4794,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="56" t="s">
+      <c r="A49" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="58">
+      <c r="B49" s="57">
         <v>2.2000000000000001E-4</v>
       </c>
       <c r="C49" s="22">
@@ -4766,8 +4808,8 @@
       <c r="A50" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="58">
-        <v>2.2000000000000001E-4</v>
+      <c r="B50" s="57">
+        <v>2.3000000000000001E-4</v>
       </c>
       <c r="C50" s="33">
         <v>7</v>
@@ -4780,7 +4822,7 @@
       <c r="A51" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="58">
+      <c r="B51" s="57">
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="C51" s="33">
@@ -4794,8 +4836,8 @@
       <c r="A52" s="33" t="s">
         <v>841</v>
       </c>
-      <c r="B52" s="60">
-        <v>1.7000000000000001E-4</v>
+      <c r="B52" s="62">
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>729</v>
@@ -4808,7 +4850,7 @@
       <c r="A53" s="33" t="s">
         <v>842</v>
       </c>
-      <c r="B53" s="60"/>
+      <c r="B53" s="62"/>
       <c r="C53" s="22">
         <v>3</v>
       </c>
@@ -4820,7 +4862,7 @@
       <c r="A54" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="58">
+      <c r="B54" s="57">
         <v>1.2E-4</v>
       </c>
       <c r="C54" s="22" t="s">
@@ -4834,7 +4876,7 @@
       <c r="A55" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="58">
+      <c r="B55" s="57">
         <v>1.2E-4</v>
       </c>
       <c r="C55" s="22">
@@ -4848,7 +4890,7 @@
       <c r="A56" s="33" t="s">
         <v>623</v>
       </c>
-      <c r="B56" s="60">
+      <c r="B56" s="62">
         <v>1.2E-4</v>
       </c>
       <c r="C56" s="22">
@@ -4859,7 +4901,7 @@
       <c r="A57" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="B57" s="60"/>
+      <c r="B57" s="62"/>
       <c r="C57" s="22">
         <v>3</v>
       </c>
@@ -4871,13 +4913,13 @@
       <c r="A58" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="58">
+      <c r="B58" s="57">
         <v>1.1E-4</v>
       </c>
       <c r="C58" s="33">
         <v>8</v>
       </c>
-      <c r="D58" s="48" t="s">
+      <c r="D58" s="47" t="s">
         <v>867</v>
       </c>
       <c r="E58" s="24" t="s">
@@ -4888,7 +4930,7 @@
       <c r="A59" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="B59" s="58">
+      <c r="B59" s="57">
         <v>1E-4</v>
       </c>
       <c r="C59" s="22">
@@ -4903,7 +4945,7 @@
         <v>55</v>
       </c>
       <c r="B60" s="58">
-        <v>6.9999999999999994E-5</v>
+        <v>6.4999999999999994E-5</v>
       </c>
       <c r="C60" s="22">
         <v>3</v>
@@ -4917,7 +4959,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="58">
-        <v>5.0000000000000002E-5</v>
+        <v>5.1999999999999997E-5</v>
       </c>
       <c r="C61" s="22">
         <v>6</v>
@@ -4931,7 +4973,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="58">
-        <v>5.0000000000000002E-5</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="C62" s="22">
         <v>2</v>
@@ -4943,7 +4985,7 @@
         <v>57</v>
       </c>
       <c r="B63" s="58">
-        <v>5.0000000000000002E-5</v>
+        <v>4.6999999999999997E-5</v>
       </c>
       <c r="C63" s="33">
         <v>7</v>
@@ -4957,7 +4999,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="58">
-        <v>4.0000000000000003E-5</v>
+        <v>4.1E-5</v>
       </c>
       <c r="C64" s="33">
         <v>7</v>
@@ -5025,7 +5067,7 @@
         <v>64</v>
       </c>
       <c r="B69" s="58">
-        <v>3.0000000000000001E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="C69" s="22">
         <v>2</v>
@@ -5036,7 +5078,7 @@
         <v>65</v>
       </c>
       <c r="B70" s="58">
-        <v>3.0000000000000001E-5</v>
+        <v>2.8E-5</v>
       </c>
       <c r="C70" s="22">
         <v>2</v>
@@ -5047,7 +5089,7 @@
         <v>66</v>
       </c>
       <c r="B71" s="58">
-        <v>3.0000000000000001E-5</v>
+        <v>2.6999999999999999E-5</v>
       </c>
       <c r="C71" s="33">
         <v>8</v>
@@ -5061,7 +5103,7 @@
         <v>67</v>
       </c>
       <c r="B72" s="58">
-        <v>3.0000000000000001E-5</v>
+        <v>2.6999999999999999E-5</v>
       </c>
       <c r="C72" s="22" t="s">
         <v>859</v>
@@ -5075,7 +5117,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="58">
-        <v>2.0000000000000002E-5</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="C73" s="22">
         <v>2</v>
@@ -5087,7 +5129,7 @@
         <v>68</v>
       </c>
       <c r="B74" s="58">
-        <v>2.0000000000000002E-5</v>
+        <v>2.0999999999999999E-5</v>
       </c>
       <c r="C74" s="22">
         <v>2</v>
@@ -5112,7 +5154,7 @@
         <v>71</v>
       </c>
       <c r="B76" s="58">
-        <v>2.0000000000000002E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="C76" s="33">
         <v>8</v>
@@ -5125,7 +5167,7 @@
       <c r="A77" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="57">
+      <c r="B77" s="56">
         <v>1.8E-5</v>
       </c>
       <c r="C77" s="33">
@@ -5139,8 +5181,8 @@
       <c r="A78" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="57">
-        <v>1.7E-5</v>
+      <c r="B78" s="56">
+        <v>1.5E-5</v>
       </c>
       <c r="C78" s="33">
         <v>8</v>
@@ -5153,8 +5195,8 @@
       <c r="A79" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B79" s="57">
-        <v>1.7E-5</v>
+      <c r="B79" s="56">
+        <v>1.5999999999999999E-5</v>
       </c>
       <c r="C79" s="33">
         <v>8</v>
@@ -5167,8 +5209,8 @@
       <c r="A80" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B80" s="57">
-        <v>1.7E-5</v>
+      <c r="B80" s="56">
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="C80" s="22">
         <v>1</v>
@@ -5178,7 +5220,7 @@
       <c r="A81" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="57">
+      <c r="B81" s="56">
         <v>1.5999999999999999E-5</v>
       </c>
       <c r="C81" s="33">
@@ -5192,8 +5234,8 @@
       <c r="A82" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="57">
-        <v>1.5E-5</v>
+      <c r="B82" s="56">
+        <v>1.4E-5</v>
       </c>
       <c r="C82" s="22">
         <v>3</v>
@@ -5206,8 +5248,8 @@
       <c r="A83" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="57">
-        <v>1.4E-5</v>
+      <c r="B83" s="56">
+        <v>1.2999999999999999E-5</v>
       </c>
       <c r="C83" s="33">
         <v>7</v>
@@ -5220,8 +5262,8 @@
       <c r="A84" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B84" s="57">
-        <v>1.4E-5</v>
+      <c r="B84" s="56">
+        <v>1.2E-5</v>
       </c>
       <c r="C84" s="22">
         <v>1</v>
@@ -5231,8 +5273,8 @@
       <c r="A85" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B85" s="57">
-        <v>1.4E-5</v>
+      <c r="B85" s="56">
+        <v>1.2999999999999999E-5</v>
       </c>
       <c r="C85" s="22">
         <v>3</v>
@@ -5245,7 +5287,7 @@
       <c r="A86" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="57">
+      <c r="B86" s="56">
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="C86" s="33">
@@ -5259,7 +5301,7 @@
       <c r="A87" s="33" t="s">
         <v>634</v>
       </c>
-      <c r="B87" s="57">
+      <c r="B87" s="56">
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="C87" s="22">
@@ -5273,8 +5315,8 @@
       <c r="A88" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="B88" s="61">
-        <v>1.2999999999999999E-5</v>
+      <c r="B88" s="63">
+        <v>1.2E-5</v>
       </c>
       <c r="C88" s="22" t="s">
         <v>717</v>
@@ -5287,7 +5329,7 @@
       <c r="A89" s="33" t="s">
         <v>632</v>
       </c>
-      <c r="B89" s="61"/>
+      <c r="B89" s="63"/>
       <c r="C89" s="22">
         <v>3</v>
       </c>
@@ -5299,8 +5341,8 @@
       <c r="A90" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B90" s="57">
-        <v>1.1E-5</v>
+      <c r="B90" s="56">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C90" s="22">
         <v>3</v>
@@ -5313,7 +5355,7 @@
       <c r="A91" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B91" s="57">
+      <c r="B91" s="56">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C91" s="22" t="s">
@@ -5327,8 +5369,8 @@
       <c r="A92" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B92" s="57">
-        <v>1.0000000000000001E-5</v>
+      <c r="B92" s="56">
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="C92" s="22">
         <v>1</v>
@@ -5338,8 +5380,8 @@
       <c r="A93" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B93" s="57">
-        <v>1.0000000000000001E-5</v>
+      <c r="B93" s="56">
+        <v>1.1E-5</v>
       </c>
       <c r="C93" s="22">
         <v>3</v>
@@ -5352,7 +5394,7 @@
       <c r="A94" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B94" s="57">
+      <c r="B94" s="56">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C94" s="33">
@@ -5366,7 +5408,7 @@
       <c r="A95" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B95" s="57">
+      <c r="B95" s="56">
         <v>9.0000000000000002E-6</v>
       </c>
       <c r="C95" s="33">
@@ -5380,8 +5422,8 @@
       <c r="A96" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B96" s="57">
-        <v>7.9999999999999996E-6</v>
+      <c r="B96" s="56">
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="C96" s="33">
         <v>7</v>
@@ -5394,8 +5436,8 @@
       <c r="A97" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="57">
-        <v>7.9999999999999996E-6</v>
+      <c r="B97" s="56">
+        <v>6.9999999999999999E-6</v>
       </c>
       <c r="C97" s="22">
         <v>3</v>
@@ -5408,7 +5450,7 @@
       <c r="A98" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B98" s="57">
+      <c r="B98" s="56">
         <v>7.9999999999999996E-6</v>
       </c>
       <c r="C98" s="33">
@@ -5419,7 +5461,7 @@
       <c r="A99" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B99" s="57">
+      <c r="B99" s="56">
         <v>7.9999999999999996E-6</v>
       </c>
       <c r="C99" s="22">
@@ -5430,7 +5472,7 @@
       <c r="A100" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B100" s="57">
+      <c r="B100" s="56">
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="C100" s="22">
@@ -5441,7 +5483,7 @@
       <c r="A101" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B101" s="57">
+      <c r="B101" s="56">
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="C101" s="22">
@@ -5455,7 +5497,7 @@
       <c r="A102" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B102" s="57">
+      <c r="B102" s="56">
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="C102" s="22">
@@ -5466,7 +5508,7 @@
       <c r="A103" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B103" s="57">
+      <c r="B103" s="56">
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="C103" s="33">
@@ -5480,8 +5522,8 @@
       <c r="A104" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B104" s="57">
-        <v>6.9999999999999999E-6</v>
+      <c r="B104" s="56">
+        <v>6.0000000000000002E-6</v>
       </c>
       <c r="C104" s="22">
         <v>1</v>
@@ -5491,8 +5533,8 @@
       <c r="A105" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="B105" s="57">
-        <v>6.9999999999999999E-6</v>
+      <c r="B105" s="56">
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="C105" s="22">
         <v>1</v>
@@ -5502,7 +5544,7 @@
       <c r="A106" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B106" s="57">
+      <c r="B106" s="56">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="C106" s="22">
@@ -5513,7 +5555,7 @@
       <c r="A107" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B107" s="57">
+      <c r="B107" s="56">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="C107" s="33">
@@ -5527,7 +5569,7 @@
       <c r="A108" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="57">
+      <c r="B108" s="56">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="C108" s="22">
@@ -5541,7 +5583,7 @@
       <c r="A109" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B109" s="57">
+      <c r="B109" s="56">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="C109" s="22">
@@ -5555,7 +5597,7 @@
       <c r="A110" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="B110" s="61">
+      <c r="B110" s="63">
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="C110" s="22">
@@ -5569,7 +5611,7 @@
       <c r="A111" s="33" t="s">
         <v>646</v>
       </c>
-      <c r="B111" s="61"/>
+      <c r="B111" s="63"/>
       <c r="C111" s="33">
         <v>9</v>
       </c>
@@ -5579,8 +5621,8 @@
       <c r="A112" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="B112" s="57">
-        <v>3.0000000000000001E-6</v>
+      <c r="B112" s="56">
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="C112" s="22">
         <v>6</v>
@@ -5593,7 +5635,7 @@
       <c r="A113" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B113" s="57">
+      <c r="B113" s="56">
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="C113" s="22">
@@ -5604,7 +5646,7 @@
       <c r="A114" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B114" s="57">
+      <c r="B114" s="56">
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="C114" s="33">
@@ -5618,8 +5660,8 @@
       <c r="A115" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B115" s="57">
-        <v>3.0000000000000001E-6</v>
+      <c r="B115" s="56">
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="C115" s="22">
         <v>6</v>
@@ -5632,8 +5674,8 @@
       <c r="A116" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B116" s="57">
-        <v>1.9999999999999999E-6</v>
+      <c r="B116" s="56">
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="C116" s="22">
         <v>1</v>
@@ -5643,7 +5685,7 @@
       <c r="A117" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B117" s="57">
+      <c r="B117" s="56">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C117" s="22">
@@ -5654,7 +5696,7 @@
       <c r="A118" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B118" s="57">
+      <c r="B118" s="56">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C118" s="22" t="s">
@@ -5668,8 +5710,8 @@
       <c r="A119" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B119" s="57">
-        <v>1.9999999999999999E-6</v>
+      <c r="B119" s="56">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C119" s="22">
         <v>3</v>
@@ -5682,7 +5724,7 @@
       <c r="A120" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B120" s="57">
+      <c r="B120" s="56">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C120" s="22">
@@ -5693,7 +5735,7 @@
       <c r="A121" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B121" s="57">
+      <c r="B121" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C121" s="22">
@@ -5707,7 +5749,7 @@
       <c r="A122" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B122" s="57">
+      <c r="B122" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C122" s="22">
@@ -5718,7 +5760,7 @@
       <c r="A123" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B123" s="57">
+      <c r="B123" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C123" s="33">
@@ -5732,7 +5774,7 @@
       <c r="A124" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B124" s="57">
+      <c r="B124" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C124" s="22">
@@ -5743,7 +5785,7 @@
       <c r="A125" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B125" s="57">
+      <c r="B125" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C125" s="22">
@@ -5754,7 +5796,7 @@
       <c r="A126" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B126" s="57">
+      <c r="B126" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C126" s="33">
@@ -5768,8 +5810,8 @@
       <c r="A127" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B127" s="57">
-        <v>9.9999999999999995E-7</v>
+      <c r="B127" s="56">
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="C127" s="33">
         <v>8</v>
@@ -5782,7 +5824,7 @@
       <c r="A128" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B128" s="57">
+      <c r="B128" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C128" s="22">
@@ -5793,7 +5835,7 @@
       <c r="A129" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B129" s="57">
+      <c r="B129" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C129" s="22">
@@ -5807,7 +5849,7 @@
       <c r="A130" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B130" s="57">
+      <c r="B130" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C130" s="22">
@@ -5818,7 +5860,7 @@
       <c r="A131" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B131" s="57">
+      <c r="B131" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C131" s="22">
@@ -5832,7 +5874,7 @@
       <c r="A132" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B132" s="57">
+      <c r="B132" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C132" s="22">
@@ -5843,7 +5885,7 @@
       <c r="A133" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B133" s="57">
+      <c r="B133" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C133" s="22">
@@ -5854,7 +5896,7 @@
       <c r="A134" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B134" s="57">
+      <c r="B134" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C134" s="22">
@@ -5865,7 +5907,7 @@
       <c r="A135" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B135" s="57">
+      <c r="B135" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C135" s="22">
@@ -5876,7 +5918,7 @@
       <c r="A136" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B136" s="57">
+      <c r="B136" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C136" s="22">
@@ -5887,7 +5929,7 @@
       <c r="A137" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B137" s="57">
+      <c r="B137" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C137" s="22">
@@ -5898,7 +5940,7 @@
       <c r="A138" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B138" s="57">
+      <c r="B138" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C138" s="33">
@@ -5912,7 +5954,7 @@
       <c r="A139" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B139" s="57">
+      <c r="B139" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C139" s="22">
@@ -5923,7 +5965,7 @@
       <c r="A140" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B140" s="61">
+      <c r="B140" s="63">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C140" s="33">
@@ -5937,7 +5979,7 @@
       <c r="A141" s="33" t="s">
         <v>666</v>
       </c>
-      <c r="B141" s="61"/>
+      <c r="B141" s="63"/>
       <c r="C141" s="22">
         <v>1</v>
       </c>
@@ -5946,7 +5988,7 @@
       <c r="A142" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B142" s="57">
+      <c r="B142" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C142" s="22">
@@ -5957,7 +5999,7 @@
       <c r="A143" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B143" s="57">
+      <c r="B143" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C143" s="22">
@@ -5968,7 +6010,7 @@
       <c r="A144" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B144" s="57">
+      <c r="B144" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C144" s="22">
@@ -5979,7 +6021,7 @@
       <c r="A145" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B145" s="57">
+      <c r="B145" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C145" s="22">
@@ -5993,7 +6035,7 @@
       <c r="A146" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B146" s="57">
+      <c r="B146" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C146" s="22">
@@ -6007,7 +6049,7 @@
       <c r="A147" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B147" s="57">
+      <c r="B147" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C147" s="22">
@@ -6018,7 +6060,7 @@
       <c r="A148" s="33" t="s">
         <v>669</v>
       </c>
-      <c r="B148" s="57">
+      <c r="B148" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C148" s="22">
@@ -6029,7 +6071,7 @@
       <c r="A149" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B149" s="61">
+      <c r="B149" s="63">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C149" s="22">
@@ -6040,7 +6082,7 @@
       <c r="A150" s="33" t="s">
         <v>670</v>
       </c>
-      <c r="B150" s="61"/>
+      <c r="B150" s="63"/>
       <c r="C150" s="22">
         <v>3</v>
       </c>
@@ -6052,7 +6094,7 @@
       <c r="A151" s="33" t="s">
         <v>671</v>
       </c>
-      <c r="B151" s="61">
+      <c r="B151" s="63">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C151" s="22">
@@ -6066,7 +6108,7 @@
       <c r="A152" s="33" t="s">
         <v>672</v>
       </c>
-      <c r="B152" s="61"/>
+      <c r="B152" s="63"/>
       <c r="C152" s="22">
         <v>6</v>
       </c>
@@ -6078,7 +6120,7 @@
       <c r="A153" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B153" s="57">
+      <c r="B153" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C153" s="22">
@@ -6089,7 +6131,7 @@
       <c r="A154" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B154" s="57">
+      <c r="B154" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C154" s="22">
@@ -6100,7 +6142,7 @@
       <c r="A155" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B155" s="57">
+      <c r="B155" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C155" s="22">
@@ -6114,7 +6156,7 @@
       <c r="A156" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B156" s="57">
+      <c r="B156" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C156" s="22">
@@ -6125,7 +6167,7 @@
       <c r="A157" s="33" t="s">
         <v>674</v>
       </c>
-      <c r="B157" s="61">
+      <c r="B157" s="63">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C157" s="22">
@@ -6139,7 +6181,7 @@
       <c r="A158" s="33" t="s">
         <v>675</v>
       </c>
-      <c r="B158" s="61"/>
+      <c r="B158" s="63"/>
       <c r="C158" s="33">
         <v>9</v>
       </c>
@@ -6151,7 +6193,7 @@
       <c r="A159" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="B159" s="61"/>
+      <c r="B159" s="63"/>
       <c r="C159" s="22">
         <v>1</v>
       </c>
@@ -6160,7 +6202,7 @@
       <c r="A160" s="33" t="s">
         <v>680</v>
       </c>
-      <c r="B160" s="61"/>
+      <c r="B160" s="63"/>
       <c r="C160" s="22">
         <v>3</v>
       </c>
@@ -6172,7 +6214,7 @@
       <c r="A161" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="B161" s="61"/>
+      <c r="B161" s="63"/>
       <c r="C161" s="22">
         <v>3</v>
       </c>
@@ -6184,7 +6226,7 @@
       <c r="A162" s="33" t="s">
         <v>677</v>
       </c>
-      <c r="B162" s="61"/>
+      <c r="B162" s="63"/>
       <c r="C162" s="22" t="s">
         <v>717</v>
       </c>
@@ -6196,7 +6238,7 @@
       <c r="A163" s="33" t="s">
         <v>678</v>
       </c>
-      <c r="B163" s="61"/>
+      <c r="B163" s="63"/>
       <c r="C163" s="22">
         <v>3</v>
       </c>
@@ -6208,7 +6250,7 @@
       <c r="A164" s="33" t="s">
         <v>679</v>
       </c>
-      <c r="B164" s="61"/>
+      <c r="B164" s="63"/>
       <c r="C164" s="22">
         <v>3</v>
       </c>
@@ -6220,10 +6262,10 @@
       <c r="A165" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B165" s="57">
+      <c r="B165" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C165" s="46" t="s">
+      <c r="C165" s="45" t="s">
         <v>727</v>
       </c>
       <c r="D165" s="25" t="s">
@@ -6237,7 +6279,7 @@
       <c r="A166" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B166" s="57">
+      <c r="B166" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C166" s="22">
@@ -6251,7 +6293,7 @@
       <c r="A167" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="B167" s="57">
+      <c r="B167" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C167" s="22">
@@ -6265,7 +6307,7 @@
       <c r="A168" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B168" s="57">
+      <c r="B168" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C168" s="22">
@@ -6276,10 +6318,10 @@
       <c r="A169" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B169" s="57">
+      <c r="B169" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C169" s="47" t="s">
+      <c r="C169" s="46" t="s">
         <v>728</v>
       </c>
       <c r="D169" s="25" t="s">
@@ -6293,7 +6335,7 @@
       <c r="A170" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B170" s="57">
+      <c r="B170" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C170" s="33">
@@ -6307,7 +6349,7 @@
       <c r="A171" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B171" s="57">
+      <c r="B171" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C171" s="22">
@@ -6318,10 +6360,10 @@
       <c r="A172" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B172" s="57">
+      <c r="B172" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C172" s="47" t="s">
+      <c r="C172" s="46" t="s">
         <v>728</v>
       </c>
       <c r="D172" s="7" t="s">
@@ -6335,7 +6377,7 @@
       <c r="A173" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B173" s="57">
+      <c r="B173" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C173" s="22">
@@ -6349,7 +6391,7 @@
       <c r="A174" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B174" s="57">
+      <c r="B174" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C174" s="22">
@@ -6363,7 +6405,7 @@
       <c r="A175" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B175" s="57">
+      <c r="B175" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C175" s="22">
@@ -6374,7 +6416,7 @@
       <c r="A176" s="33" t="s">
         <v>688</v>
       </c>
-      <c r="B176" s="61">
+      <c r="B176" s="63">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C176" s="22" t="s">
@@ -6388,7 +6430,7 @@
       <c r="A177" s="33" t="s">
         <v>689</v>
       </c>
-      <c r="B177" s="61"/>
+      <c r="B177" s="63"/>
       <c r="C177" s="22" t="s">
         <v>729</v>
       </c>
@@ -6400,7 +6442,7 @@
       <c r="A178" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B178" s="57">
+      <c r="B178" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C178" s="22">
@@ -6414,7 +6456,7 @@
       <c r="A179" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B179" s="57">
+      <c r="B179" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C179" s="22">
@@ -6425,7 +6467,7 @@
       <c r="A180" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B180" s="57">
+      <c r="B180" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C180" s="22">
@@ -6439,7 +6481,7 @@
       <c r="A181" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B181" s="57">
+      <c r="B181" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C181" s="22">
@@ -6453,7 +6495,7 @@
       <c r="A182" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B182" s="57">
+      <c r="B182" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C182" s="22">
@@ -6464,7 +6506,7 @@
       <c r="A183" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B183" s="57">
+      <c r="B183" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C183" s="22">
@@ -6478,7 +6520,7 @@
       <c r="A184" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B184" s="57">
+      <c r="B184" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C184" s="22">
@@ -6492,7 +6534,7 @@
       <c r="A185" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B185" s="57">
+      <c r="B185" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C185" s="22">
@@ -6503,7 +6545,7 @@
       <c r="A186" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B186" s="57">
+      <c r="B186" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C186" s="22">
@@ -6514,7 +6556,7 @@
       <c r="A187" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B187" s="57">
+      <c r="B187" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C187" s="22">
@@ -6525,7 +6567,7 @@
       <c r="A188" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B188" s="57">
+      <c r="B188" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C188" s="22">
@@ -6539,7 +6581,7 @@
       <c r="A189" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B189" s="57">
+      <c r="B189" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C189" s="33">
@@ -6553,7 +6595,7 @@
       <c r="A190" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B190" s="57">
+      <c r="B190" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C190" s="22">
@@ -6567,7 +6609,7 @@
       <c r="A191" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B191" s="57">
+      <c r="B191" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C191" s="33">
@@ -6584,7 +6626,7 @@
       <c r="A192" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B192" s="57">
+      <c r="B192" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C192" s="22">
@@ -6598,7 +6640,7 @@
       <c r="A193" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B193" s="57">
+      <c r="B193" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C193" s="22">
@@ -6612,7 +6654,7 @@
       <c r="A194" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B194" s="57">
+      <c r="B194" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C194" s="22">
@@ -6623,7 +6665,7 @@
       <c r="A195" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B195" s="57">
+      <c r="B195" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C195" s="33">
@@ -6640,7 +6682,7 @@
       <c r="A196" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B196" s="57">
+      <c r="B196" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C196" s="22">
@@ -6654,7 +6696,7 @@
       <c r="A197" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="B197" s="57">
+      <c r="B197" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C197" s="22">
@@ -6665,7 +6707,7 @@
       <c r="A198" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B198" s="57">
+      <c r="B198" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C198" s="22">
@@ -6679,7 +6721,7 @@
       <c r="A199" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B199" s="57">
+      <c r="B199" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C199" s="22">
@@ -6690,7 +6732,7 @@
       <c r="A200" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B200" s="57">
+      <c r="B200" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C200" s="22">
@@ -6701,7 +6743,7 @@
       <c r="A201" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B201" s="57">
+      <c r="B201" s="56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C201" s="22" t="s">
@@ -6869,7 +6911,7 @@
       <c r="C214" s="2">
         <v>3</v>
       </c>
-      <c r="D214" s="51" t="s">
+      <c r="D214" s="50" t="s">
         <v>865</v>
       </c>
     </row>
@@ -6888,7 +6930,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="52" t="s">
+      <c r="A216" s="51" t="s">
         <v>908</v>
       </c>
       <c r="B216" s="4" t="s">
@@ -6897,7 +6939,7 @@
       <c r="C216" s="31">
         <v>6</v>
       </c>
-      <c r="D216" s="53" t="s">
+      <c r="D216" s="52" t="s">
         <v>907</v>
       </c>
     </row>
@@ -6907,8 +6949,8 @@
       <c r="F217" s="31"/>
     </row>
   </sheetData>
-  <sortState ref="A40:D51">
-    <sortCondition descending="1" ref="B40:B51"/>
+  <sortState ref="A4:D37">
+    <sortCondition descending="1" ref="B4:B37"/>
   </sortState>
   <mergeCells count="10">
     <mergeCell ref="B1:D1"/>
@@ -7306,13 +7348,13 @@
       <c r="B2" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="53" t="s">
         <v>601</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>602</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="53" t="s">
         <v>603</v>
       </c>
       <c r="F2" s="29" t="s">
@@ -7353,13 +7395,13 @@
       <c r="C3" s="32" t="s">
         <v>477</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="54" t="s">
         <v>607</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="54" t="s">
         <v>606</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="54" t="s">
         <v>605</v>
       </c>
       <c r="G3" s="32" t="s">
@@ -7394,19 +7436,19 @@
       <c r="B4" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="53" t="s">
         <v>609</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="53" t="s">
         <v>608</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="53" t="s">
         <v>925</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>915</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="53" t="s">
         <v>916</v>
       </c>
       <c r="H4" s="29" t="s">
@@ -7441,10 +7483,10 @@
       <c r="C5" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="53" t="s">
         <v>917</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="53" t="s">
         <v>918</v>
       </c>
       <c r="F5" s="29" t="s">
@@ -7482,19 +7524,19 @@
       <c r="B6" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="53" t="s">
         <v>919</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="53" t="s">
         <v>920</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="53" t="s">
         <v>921</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="54" t="s">
         <v>922</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="54" t="s">
         <v>923</v>
       </c>
       <c r="H6" s="29" t="s">
@@ -7526,19 +7568,19 @@
       <c r="B7" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>919</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="53" t="s">
         <v>920</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="53" t="s">
         <v>922</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="53" t="s">
         <v>926</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="53" t="s">
         <v>662</v>
       </c>
       <c r="H7" s="29" t="s">
@@ -7570,10 +7612,10 @@
       <c r="B8" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="53" t="s">
         <v>639</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>877</v>
       </c>
       <c r="E8" s="29" t="s">
@@ -7614,19 +7656,19 @@
       <c r="B9" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="53" t="s">
         <v>601</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>602</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="53" t="s">
         <v>636</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="53" t="s">
         <v>609</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="53" t="s">
         <v>635</v>
       </c>
       <c r="H9" s="29" t="s">
@@ -7661,16 +7703,16 @@
       <c r="C10" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="53" t="s">
         <v>649</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="53" t="s">
         <v>459</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="53" t="s">
         <v>648</v>
       </c>
       <c r="H10" s="29" t="s">
@@ -7702,19 +7744,19 @@
       <c r="B11" s="27" t="s">
         <v>650</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="53" t="s">
         <v>651</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>652</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="53" t="s">
         <v>653</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="53" t="s">
         <v>654</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="53" t="s">
         <v>655</v>
       </c>
       <c r="H11" s="29" t="s">
@@ -7746,19 +7788,19 @@
       <c r="B12" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="53" t="s">
         <v>658</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>659</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="53" t="s">
         <v>660</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="53" t="s">
         <v>661</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="53" t="s">
         <v>662</v>
       </c>
       <c r="H12" s="29" t="s">
@@ -7793,16 +7835,16 @@
       <c r="C13" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>827</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="53" t="s">
         <v>820</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="53" t="s">
         <v>927</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="53" t="s">
         <v>821</v>
       </c>
       <c r="H13" s="29" t="s">
@@ -7834,19 +7876,19 @@
       <c r="B14" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="53" t="s">
         <v>638</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="53" t="s">
         <v>639</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="53" t="s">
         <v>640</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="53" t="s">
         <v>591</v>
       </c>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="53" t="s">
         <v>641</v>
       </c>
       <c r="H14" s="29" t="s">
@@ -7878,19 +7920,19 @@
       <c r="B15" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="53" t="s">
         <v>827</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="53" t="s">
         <v>928</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="53" t="s">
         <v>929</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="53" t="s">
         <v>930</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="53" t="s">
         <v>931</v>
       </c>
       <c r="H15" s="29" t="s">
@@ -7922,25 +7964,25 @@
       <c r="B16" s="27" t="s">
         <v>650</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="53" t="s">
         <v>692</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="53" t="s">
         <v>693</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="53" t="s">
         <v>690</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="53" t="s">
         <v>423</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="53" t="s">
         <v>691</v>
       </c>
       <c r="H16" s="29" t="s">
         <v>597</v>
       </c>
-      <c r="I16" s="49" t="s">
+      <c r="I16" s="48" t="s">
         <v>911</v>
       </c>
       <c r="J16" s="29" t="s">
@@ -7966,25 +8008,25 @@
       <c r="B17" s="27" t="s">
         <v>650</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="54" t="s">
         <v>651</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="54" t="s">
         <v>823</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="54" t="s">
         <v>824</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="54" t="s">
         <v>459</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="54" t="s">
         <v>648</v>
       </c>
       <c r="H17" s="29" t="s">
         <v>597</v>
       </c>
-      <c r="I17" s="49" t="s">
+      <c r="I17" s="48" t="s">
         <v>825</v>
       </c>
       <c r="J17" s="29" t="s">
@@ -8010,19 +8052,19 @@
       <c r="B18" s="27" t="s">
         <v>650</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="53" t="s">
         <v>651</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="53" t="s">
         <v>652</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="53" t="s">
         <v>649</v>
       </c>
-      <c r="G18" s="54" t="s">
+      <c r="G18" s="53" t="s">
         <v>655</v>
       </c>
       <c r="H18" s="29" t="s">
@@ -8057,16 +8099,16 @@
       <c r="C19" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="53" t="s">
         <v>932</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="53" t="s">
         <v>933</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="53" t="s">
         <v>605</v>
       </c>
-      <c r="G19" s="54" t="s">
+      <c r="G19" s="53" t="s">
         <v>724</v>
       </c>
       <c r="H19" s="29" t="s">
@@ -8098,19 +8140,19 @@
       <c r="B20" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="53" t="s">
         <v>601</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="54" t="s">
         <v>920</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="54" t="s">
         <v>636</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="53" t="s">
         <v>732</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="53" t="s">
         <v>877</v>
       </c>
       <c r="H20" s="29" t="s">
@@ -8145,16 +8187,16 @@
       <c r="C21" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="53" t="s">
         <v>602</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="53" t="s">
         <v>603</v>
       </c>
-      <c r="G21" s="54" t="s">
+      <c r="G21" s="53" t="s">
         <v>662</v>
       </c>
       <c r="H21" s="29" t="s">
@@ -8186,19 +8228,19 @@
       <c r="B22" s="27" t="s">
         <v>650</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="54" t="s">
         <v>870</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="54" t="s">
         <v>871</v>
       </c>
-      <c r="F22" s="55" t="s">
+      <c r="F22" s="54" t="s">
         <v>872</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="54" t="s">
         <v>873</v>
       </c>
       <c r="H22" s="29" t="s">
@@ -8230,19 +8272,19 @@
       <c r="B23" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="54" t="s">
         <v>639</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="54" t="s">
         <v>880</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="54" t="s">
         <v>439</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="54" t="s">
         <v>934</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="54" t="s">
         <v>935</v>
       </c>
       <c r="H23" s="29" t="s">
@@ -8274,19 +8316,19 @@
       <c r="B24" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="53" t="s">
         <v>601</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="53" t="s">
         <v>602</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="54" t="s">
         <v>936</v>
       </c>
-      <c r="F24" s="55" t="s">
+      <c r="F24" s="54" t="s">
         <v>661</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="48" t="s">
         <v>477</v>
       </c>
       <c r="H24" s="29" t="s">
@@ -8313,36 +8355,36 @@
     </row>
     <row r="25" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
     </row>
     <row r="26" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>699</v>
       </c>
       <c r="B26" s="20"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
       <c r="O26" s="31"/>
       <c r="P26" s="31"/>
       <c r="Q26" s="31"/>
@@ -8357,13 +8399,13 @@
       <c r="B27" s="27" t="s">
         <v>650</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="54" t="s">
         <v>601</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="54" t="s">
         <v>602</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="54" t="s">
         <v>603</v>
       </c>
       <c r="F27" s="29" t="s">
@@ -8372,7 +8414,7 @@
       <c r="G27" s="29" t="s">
         <v>595</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="54" t="s">
         <v>700</v>
       </c>
       <c r="I27" s="29" t="s">
@@ -8394,12 +8436,12 @@
         <v>600</v>
       </c>
       <c r="O27" s="31"/>
-      <c r="P27" s="62" t="s">
+      <c r="P27" s="64" t="s">
         <v>819</v>
       </c>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
       <c r="T27" s="31"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -8409,10 +8451,10 @@
       <c r="B28" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="54" t="s">
         <v>920</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="54" t="s">
         <v>922</v>
       </c>
       <c r="E28" s="29" t="s">
@@ -8424,7 +8466,7 @@
       <c r="G28" s="29" t="s">
         <v>595</v>
       </c>
-      <c r="H28" s="55" t="s">
+      <c r="H28" s="54" t="s">
         <v>427</v>
       </c>
       <c r="I28" s="29" t="s">
@@ -8459,22 +8501,22 @@
       <c r="B29" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="54" t="s">
         <v>662</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="54" t="s">
         <v>937</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="54" t="s">
         <v>938</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="54" t="s">
         <v>939</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="54" t="s">
         <v>940</v>
       </c>
-      <c r="H29" s="55" t="s">
+      <c r="H29" s="54" t="s">
         <v>713</v>
       </c>
       <c r="I29" s="29" t="s">
@@ -8509,22 +8551,22 @@
       <c r="B30" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="54" t="s">
         <v>941</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="54" t="s">
         <v>942</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="54" t="s">
         <v>943</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="54" t="s">
         <v>944</v>
       </c>
-      <c r="G30" s="55" t="s">
+      <c r="G30" s="54" t="s">
         <v>945</v>
       </c>
-      <c r="H30" s="55" t="s">
+      <c r="H30" s="54" t="s">
         <v>946</v>
       </c>
       <c r="I30" s="29" t="s">
@@ -8559,22 +8601,22 @@
       <c r="B31" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="54" t="s">
         <v>925</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="54" t="s">
         <v>636</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="54" t="s">
         <v>639</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="54" t="s">
         <v>732</v>
       </c>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="54" t="s">
         <v>635</v>
       </c>
-      <c r="H31" s="55" t="s">
+      <c r="H31" s="54" t="s">
         <v>641</v>
       </c>
       <c r="I31" s="29" t="s">
@@ -8603,22 +8645,22 @@
       <c r="B32" s="27" t="s">
         <v>650</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="54" t="s">
         <v>919</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="54" t="s">
         <v>920</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="E32" s="54" t="s">
         <v>922</v>
       </c>
-      <c r="F32" s="55" t="s">
+      <c r="F32" s="54" t="s">
         <v>638</v>
       </c>
-      <c r="G32" s="55" t="s">
+      <c r="G32" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="H32" s="55" t="s">
+      <c r="H32" s="54" t="s">
         <v>744</v>
       </c>
       <c r="I32" s="29" t="s">
@@ -8647,22 +8689,22 @@
       <c r="B33" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="53" t="s">
         <v>827</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="54" t="s">
         <v>938</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="54" t="s">
         <v>947</v>
       </c>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="53" t="s">
         <v>927</v>
       </c>
-      <c r="G33" s="54" t="s">
+      <c r="G33" s="53" t="s">
         <v>821</v>
       </c>
-      <c r="H33" s="54" t="s">
+      <c r="H33" s="53" t="s">
         <v>820</v>
       </c>
       <c r="I33" s="29" t="s">
@@ -8740,7 +8782,7 @@
       <c r="L36" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="M36" s="49" t="s">
+      <c r="M36" s="48" t="s">
         <v>808</v>
       </c>
       <c r="N36" s="1" t="s">
@@ -9039,7 +9081,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="49" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -9211,7 +9253,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="49" t="s">
         <v>503</v>
       </c>
       <c r="B13" t="s">
@@ -9254,7 +9296,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
@@ -9309,10 +9351,10 @@
       <c r="D17" t="s">
         <v>349</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="66">
         <v>23.6</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="65">
         <v>45</v>
       </c>
     </row>
@@ -9329,8 +9371,8 @@
       <c r="D18" t="s">
         <v>478</v>
       </c>
-      <c r="F18" s="64"/>
-      <c r="G18" s="63"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="65"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
@@ -9565,7 +9607,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="49" t="s">
         <v>48</v>
       </c>
       <c r="B30" t="s">
@@ -10322,10 +10364,10 @@
       <c r="E18" t="s">
         <v>765</v>
       </c>
-      <c r="F18" s="62">
+      <c r="F18" s="64">
         <v>3.5</v>
       </c>
-      <c r="G18" s="62">
+      <c r="G18" s="64">
         <v>3.5</v>
       </c>
     </row>
@@ -10339,8 +10381,8 @@
       <c r="E19" t="s">
         <v>766</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">

--- a/external/languages.xlsx
+++ b/external/languages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Scripts\qphyx\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1B4BBD-7C20-4884-B03A-40A375ADA01E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6B5C98-DE6F-4437-B83D-AA602761440C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="1030">
   <si>
     <t>English</t>
   </si>
@@ -2085,9 +2085,6 @@
   </si>
   <si>
     <t>Old English / Icelandic</t>
-  </si>
-  <si>
-    <t>Urdu</t>
   </si>
   <si>
     <t>z̤</t>
@@ -3446,7 +3443,13 @@
     <t>ӱ</t>
   </si>
   <si>
-    <t>Yakut / Evenki / Even / Southern Altai / Krymchak / Caucasian groups</t>
+    <t>Urdu (Roman script)</t>
+  </si>
+  <si>
+    <t>Yakut / Evenki / Even / Altai / Krymchak / Caucasian groups</t>
+  </si>
+  <si>
+    <t>ҋ</t>
   </si>
 </sst>
 </file>
@@ -4263,15 +4266,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4297,13 +4291,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -4364,110 +4367,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFE60000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFADDB7B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC0E399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8EEC0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7575"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE60000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4785,7 +4684,7 @@
   <dimension ref="A1:L239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" activeCellId="1" sqref="J5:J6 J14:J15"/>
+      <selection activeCell="J6" activeCellId="1" sqref="J14:J15 J5:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4810,7 +4709,7 @@
       <c r="C1" s="114"/>
       <c r="D1" s="114"/>
       <c r="E1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -4825,7 +4724,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>37</v>
@@ -4852,7 +4751,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="99" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="I4" s="96">
         <f>SUMIF($B$4:$B$1005,"Latin",$C$4:$C$1005)</f>
@@ -4868,7 +4767,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C5" s="38">
         <v>7.0000000000000007E-2</v>
@@ -4880,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="81" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I5" s="82">
         <f t="shared" ref="I5:I11" si="0">SUMIFS($C$4:$C$1005, $D$4:$D$1005, $G5, $B$4:$B$1005, "Latin") + SUMIFS($C$4:$C$1005, $D$4:$D$1005, "*" &amp; $G5 &amp; "*", $B$4:$B$1005, "Latin")</f>
@@ -4939,7 +4838,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I7" s="82">
         <f t="shared" si="0"/>
@@ -4955,7 +4854,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C8" s="38">
         <v>3.5000000000000003E-2</v>
@@ -4970,7 +4869,7 @@
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I8" s="82">
         <f t="shared" si="0"/>
@@ -4998,7 +4897,7 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I9" s="82">
         <f t="shared" si="0"/>
@@ -5026,7 +4925,7 @@
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I10" s="82">
         <f t="shared" si="0"/>
@@ -5042,7 +4941,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C11" s="38">
         <v>1.9E-2</v>
@@ -5089,7 +4988,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C13" s="38">
         <v>1.2999999999999999E-2</v>
@@ -5098,10 +4997,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="68" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H13" s="98" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I13" s="97">
         <f>SUMIF($B$4:$B$1005,"Cyrillic",$C$4:$C$1005)</f>
@@ -5117,7 +5016,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C14" s="43">
         <v>1.2E-2</v>
@@ -5126,13 +5025,13 @@
         <v>7</v>
       </c>
       <c r="E14" s="107" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G14" s="115">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I14" s="82">
         <f>SUMIFS($C$4:$C$1005, $D$4:$D$1005, $G14, $B$4:$B$1005, "Cyrillic") + SUMIFS($C$4:$C$1005, $D$4:$D$1005, "*" &amp; $G14 &amp; "*", $B$4:$B$1005, "Cyrillic")</f>
@@ -5160,7 +5059,7 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I15" s="82">
         <f>SUMIFS($C$4:$C$1005, $D$4:$D$1005, $G15, $B$4:$B$1005, "Cyrillic") + SUMIFS($C$4:$C$1005, $D$4:$D$1005, "*" &amp; $G15 &amp; "*", $B$4:$B$1005, "Cyrillic")</f>
@@ -5188,7 +5087,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I16" s="82">
         <f>SUMIFS($C$4:$C$1005, $D$4:$D$1005, $G16, $B$4:$B$1005, "Cyrillic") + SUMIFS($C$4:$C$1005, $D$4:$D$1005, "*" &amp; $G16 &amp; "*", $B$4:$B$1005, "Cyrillic")</f>
@@ -5232,7 +5131,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="102" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C18" s="108">
         <v>6.0000000000000001E-3</v>
@@ -5241,7 +5140,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I18" s="85"/>
       <c r="J18" s="52"/>
@@ -5251,7 +5150,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="102" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C19" s="108">
         <v>5.4999999999999997E-3</v>
@@ -5263,7 +5162,7 @@
         <v>179</v>
       </c>
       <c r="H19" s="98" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I19" s="97">
         <f>SUMIF($B$4:$B$1005,"Other",$C$4:$C$1005)</f>
@@ -5291,7 +5190,7 @@
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I20" s="25">
         <f>SUMIFS($C$4:$C$1005, $D$4:$D$1005, $G20, $B$4:$B$1005, "Other") + SUMIFS($C$4:$C$1005, $D$4:$D$1005, "*" &amp; $G20 &amp; "*", $B$4:$B$1005, "Other")</f>
@@ -5307,7 +5206,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C21" s="41">
         <v>5.0000000000000001E-3</v>
@@ -5338,7 +5237,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C22" s="41">
         <v>5.0000000000000001E-3</v>
@@ -5378,7 +5277,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="67" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -5386,7 +5285,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C24" s="41">
         <v>2.5000000000000001E-3</v>
@@ -5429,7 +5328,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="131" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -5437,7 +5336,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C27" s="41">
         <v>2E-3</v>
@@ -5446,7 +5345,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -5492,7 +5391,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -5500,7 +5399,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C31" s="41">
         <v>1E-3</v>
@@ -5554,7 +5453,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="70" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I34" s="39"/>
     </row>
@@ -5563,7 +5462,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C35" s="41">
         <v>6.9999999999999999E-4</v>
@@ -5572,12 +5471,12 @@
         <v>7</v>
       </c>
       <c r="E35" s="69" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B36" s="57" t="s">
         <v>95</v>
@@ -5604,7 +5503,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="67" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -5621,7 +5520,7 @@
         <v>6</v>
       </c>
       <c r="E38" s="71" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -5669,7 +5568,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="67" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5686,7 +5585,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -5708,7 +5607,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C44" s="36">
         <v>3.4000000000000002E-4</v>
@@ -5717,7 +5616,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="67" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -5725,7 +5624,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C45" s="36">
         <v>3.3E-4</v>
@@ -5742,7 +5641,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C46" s="36">
         <v>2.9999999999999997E-4</v>
@@ -5751,7 +5650,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="71" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -5768,7 +5667,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="67" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -5776,7 +5675,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C48" s="36">
         <v>2.2000000000000001E-4</v>
@@ -5807,7 +5706,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C50" s="36">
         <v>1.9000000000000001E-4</v>
@@ -5833,7 +5732,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="71" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -5841,7 +5740,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C52" s="87">
         <v>8.0000000000000007E-5</v>
@@ -5850,7 +5749,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="67" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -5858,7 +5757,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C53" s="36">
         <v>1.2E-4</v>
@@ -5867,7 +5766,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="71" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -5881,15 +5780,15 @@
         <v>1.1E-4</v>
       </c>
       <c r="D54" s="58" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E54" s="71" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="132" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B55" s="56" t="s">
         <v>95</v>
@@ -5903,10 +5802,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="134" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B56" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C56" s="89">
         <v>5.5000000000000002E-5</v>
@@ -5915,7 +5814,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="71" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -5923,7 +5822,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C57" s="36">
         <v>1E-4</v>
@@ -5932,10 +5831,10 @@
         <v>7</v>
       </c>
       <c r="E57" s="72" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -5952,7 +5851,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="73" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -5960,7 +5859,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C59" s="37">
         <v>6.2000000000000003E-5</v>
@@ -5969,7 +5868,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="71" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -5986,7 +5885,7 @@
         <v>6</v>
       </c>
       <c r="E60" s="71" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -6009,7 +5908,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C62" s="37">
         <v>4.5000000000000003E-5</v>
@@ -6026,7 +5925,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C63" s="37">
         <v>4.3000000000000002E-5</v>
@@ -6043,7 +5942,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C64" s="37">
         <v>3.1000000000000001E-5</v>
@@ -6069,7 +5968,7 @@
         <v>6</v>
       </c>
       <c r="E65" s="71" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -6077,7 +5976,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C66" s="37">
         <v>2.8E-5</v>
@@ -6109,7 +6008,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C68" s="37">
         <v>2.6999999999999999E-5</v>
@@ -6154,16 +6053,16 @@
         <v>67</v>
       </c>
       <c r="B71" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C71" s="37">
         <v>2.5999999999999998E-5</v>
       </c>
       <c r="D71" s="58" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E71" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -6186,7 +6085,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C73" s="37">
         <v>2.1999999999999999E-5</v>
@@ -6234,7 +6133,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C76" s="35">
         <v>1.8E-5</v>
@@ -6251,7 +6150,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C77" s="35">
         <v>1.5999999999999999E-5</v>
@@ -6268,7 +6167,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C78" s="35">
         <v>1.5E-5</v>
@@ -6299,7 +6198,7 @@
         <v>74</v>
       </c>
       <c r="B80" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C80" s="35">
         <v>1.4E-5</v>
@@ -6316,7 +6215,7 @@
         <v>77</v>
       </c>
       <c r="B81" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C81" s="35">
         <v>1.4E-5</v>
@@ -6325,7 +6224,7 @@
         <v>3</v>
       </c>
       <c r="E81" s="71" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -6333,7 +6232,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C82" s="35">
         <v>1.2999999999999999E-5</v>
@@ -6350,7 +6249,7 @@
         <v>79</v>
       </c>
       <c r="B83" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C83" s="35">
         <v>1.2999999999999999E-5</v>
@@ -6359,7 +6258,7 @@
         <v>3</v>
       </c>
       <c r="E83" s="71" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -6395,7 +6294,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="132" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B86" s="56" t="s">
         <v>95</v>
@@ -6407,15 +6306,15 @@
         <v>2</v>
       </c>
       <c r="E86" s="71" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="134" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B87" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C87" s="89">
         <v>6.0000000000000002E-6</v>
@@ -6424,7 +6323,7 @@
         <v>3</v>
       </c>
       <c r="E87" s="71" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -6432,7 +6331,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C88" s="35">
         <v>1.1E-5</v>
@@ -6449,7 +6348,7 @@
         <v>81</v>
       </c>
       <c r="B89" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C89" s="35">
         <v>1.1E-5</v>
@@ -6466,7 +6365,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="57" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C90" s="48">
         <v>1.1E-5</v>
@@ -6475,7 +6374,7 @@
         <v>3</v>
       </c>
       <c r="E90" s="103" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -6483,7 +6382,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C91" s="47">
         <v>9.0000000000000002E-6</v>
@@ -6500,7 +6399,7 @@
         <v>86</v>
       </c>
       <c r="B92" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C92" s="47">
         <v>8.6999999999999997E-6</v>
@@ -6540,7 +6439,7 @@
         <v>2</v>
       </c>
       <c r="E94" s="67" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -6585,7 +6484,7 @@
         <v>3</v>
       </c>
       <c r="E97" s="71" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -6593,7 +6492,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C98" s="47">
         <v>6.8000000000000001E-6</v>
@@ -6650,7 +6549,7 @@
         <v>3</v>
       </c>
       <c r="E101" s="71" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -6700,7 +6599,7 @@
         <v>99</v>
       </c>
       <c r="B105" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C105" s="47">
         <v>4.7999999999999998E-6</v>
@@ -6726,7 +6625,7 @@
         <v>6</v>
       </c>
       <c r="E106" s="71" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -6734,7 +6633,7 @@
         <v>88</v>
       </c>
       <c r="B107" s="102" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C107" s="106">
         <v>4.3000000000000003E-6</v>
@@ -6774,7 +6673,7 @@
         <v>3</v>
       </c>
       <c r="E109" s="71" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -6782,7 +6681,7 @@
         <v>630</v>
       </c>
       <c r="B110" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C110" s="105">
         <v>1.5999999999999999E-6</v>
@@ -6842,7 +6741,7 @@
         <v>104</v>
       </c>
       <c r="B114" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C114" s="47">
         <v>2.7999999999999999E-6</v>
@@ -6868,7 +6767,7 @@
         <v>6</v>
       </c>
       <c r="E115" s="67" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -6890,7 +6789,7 @@
         <v>111</v>
       </c>
       <c r="B117" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C117" s="47">
         <v>1.7999999999999999E-6</v>
@@ -6907,7 +6806,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C118" s="47">
         <v>1.7E-6</v>
@@ -6967,7 +6866,7 @@
         <v>1</v>
       </c>
       <c r="L121" s="71" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -6989,16 +6888,16 @@
         <v>108</v>
       </c>
       <c r="B123" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C123" s="47">
         <v>1.3999999999999999E-6</v>
       </c>
       <c r="D123" s="58" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E123" s="65" t="s">
         <v>1019</v>
-      </c>
-      <c r="E123" s="65" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -7015,12 +6914,12 @@
         <v>3</v>
       </c>
       <c r="E124" s="73" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C125" s="16" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D125" s="60"/>
       <c r="E125" s="71"/>
@@ -7030,7 +6929,7 @@
         <v>115</v>
       </c>
       <c r="B126" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C126" s="50">
         <v>9.9000000000000005E-7</v>
@@ -7056,7 +6955,7 @@
         <v>3</v>
       </c>
       <c r="E127" s="71" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -7123,7 +7022,7 @@
         <v>129</v>
       </c>
       <c r="B132" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C132" s="90">
         <v>4.5999999999999999E-7</v>
@@ -7236,7 +7135,7 @@
         <v>3</v>
       </c>
       <c r="E139" s="71" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -7270,7 +7169,7 @@
         <v>3</v>
       </c>
       <c r="E141" s="71" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -7278,7 +7177,7 @@
         <v>127</v>
       </c>
       <c r="B142" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C142" s="50">
         <v>8.5000000000000001E-7</v>
@@ -7304,7 +7203,7 @@
         <v>3</v>
       </c>
       <c r="E143" s="71" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F143" s="111"/>
     </row>
@@ -7451,7 +7350,7 @@
         <v>3</v>
       </c>
       <c r="E153" s="71" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -7499,7 +7398,7 @@
         <v>3</v>
       </c>
       <c r="E156" s="71" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -7516,7 +7415,7 @@
         <v>3</v>
       </c>
       <c r="E157" s="71" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -7530,10 +7429,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="D158" s="58" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E158" s="71" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -7541,7 +7440,7 @@
         <v>661</v>
       </c>
       <c r="B159" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C159" s="91">
         <v>9.9999999999999995E-8</v>
@@ -7550,7 +7449,7 @@
         <v>3</v>
       </c>
       <c r="E159" s="71" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -7558,7 +7457,7 @@
         <v>662</v>
       </c>
       <c r="B160" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C160" s="92">
         <v>9.9999999999999995E-8</v>
@@ -7567,7 +7466,7 @@
         <v>2</v>
       </c>
       <c r="E160" s="71" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -7601,7 +7500,7 @@
         <v>3</v>
       </c>
       <c r="E162" s="71" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -7618,7 +7517,7 @@
         <v>3</v>
       </c>
       <c r="E163" s="71" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -7658,7 +7557,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="34" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B166" s="56" t="s">
         <v>95</v>
@@ -7670,7 +7569,7 @@
         <v>3</v>
       </c>
       <c r="E166" s="67" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -7706,7 +7605,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="132" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B169" s="56" t="s">
         <v>95</v>
@@ -7715,18 +7614,18 @@
         <v>3.2000000000000001E-7</v>
       </c>
       <c r="D169" s="58" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E169" s="67" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="134" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B170" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C170" s="92">
         <v>3.2000000000000001E-7</v>
@@ -7798,7 +7697,7 @@
         <v>5</v>
       </c>
       <c r="E174" s="74" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F174" s="110"/>
     </row>
@@ -7821,7 +7720,7 @@
         <v>158</v>
       </c>
       <c r="B176" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C176" s="50">
         <v>5.7999999999999995E-7</v>
@@ -7830,7 +7729,7 @@
         <v>1</v>
       </c>
       <c r="E176" s="67" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -7897,7 +7796,7 @@
         <v>165</v>
       </c>
       <c r="B181" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C181" s="50">
         <v>5.3000000000000001E-7</v>
@@ -7906,15 +7805,15 @@
         <v>2</v>
       </c>
       <c r="E181" s="67" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="135" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B182" s="55" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C182" s="90">
         <v>2.6E-7</v>
@@ -7925,7 +7824,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="136" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B183" s="55" t="s">
         <v>95</v>
@@ -7939,7 +7838,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="34" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B184" s="56" t="s">
         <v>95</v>
@@ -7987,10 +7886,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="34" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B187" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C187" s="50">
         <v>4.7999999999999996E-7</v>
@@ -8016,12 +7915,12 @@
         <v>3</v>
       </c>
       <c r="E188" s="71" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B189" s="55" t="s">
         <v>95</v>
@@ -8033,7 +7932,7 @@
         <v>5</v>
       </c>
       <c r="E189" s="67" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -8050,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="15" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -8058,7 +7957,7 @@
         <v>170</v>
       </c>
       <c r="B191" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C191" s="50">
         <v>4.4000000000000002E-7</v>
@@ -8089,7 +7988,7 @@
         <v>173</v>
       </c>
       <c r="B193" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C193" s="50">
         <v>4.2E-7</v>
@@ -8098,7 +7997,7 @@
         <v>2</v>
       </c>
       <c r="E193" s="67" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -8131,7 +8030,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="40" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B196" s="56" t="s">
         <v>95</v>
@@ -8185,10 +8084,10 @@
         <v>3.5999999999999999E-7</v>
       </c>
       <c r="D199" s="60" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E199" s="67" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -8208,15 +8107,15 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C201" s="21" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="34" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B202" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C202" s="47">
         <v>9.9999999999999995E-8</v>
@@ -8225,7 +8124,7 @@
         <v>2</v>
       </c>
       <c r="E202" s="67" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -8258,7 +8157,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="34" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B205" s="56" t="s">
         <v>95</v>
@@ -8270,7 +8169,7 @@
         <v>3</v>
       </c>
       <c r="E205" s="67" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -8278,7 +8177,7 @@
         <v>147</v>
       </c>
       <c r="B206" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C206" s="47">
         <v>9.9999999999999995E-8</v>
@@ -8301,10 +8200,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="D207" s="58" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E207" s="67" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -8318,10 +8217,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="D208" s="58" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E208" s="71" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -8338,7 +8237,7 @@
         <v>3</v>
       </c>
       <c r="E209" s="71" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -8346,7 +8245,7 @@
         <v>164</v>
       </c>
       <c r="B210" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C210" s="47">
         <v>9.9999999999999995E-8</v>
@@ -8363,7 +8262,7 @@
         <v>166</v>
       </c>
       <c r="B211" s="56" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C211" s="47">
         <v>9.9999999999999995E-8</v>
@@ -8375,7 +8274,7 @@
         <v>615</v>
       </c>
       <c r="F211" s="15" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -8412,19 +8311,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B214" s="56" t="s">
         <v>95</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D214" s="62">
         <v>5</v>
       </c>
       <c r="E214" s="65" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -8435,7 +8334,7 @@
         <v>95</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D215" s="62">
         <v>5</v>
@@ -8452,7 +8351,7 @@
         <v>95</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D216" s="62">
         <v>1</v>
@@ -8466,7 +8365,7 @@
         <v>95</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D217" s="62">
         <v>1</v>
@@ -8474,155 +8373,155 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B218" s="56" t="s">
         <v>95</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D218" s="62" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E218" s="67" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B219" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D219" s="62">
         <v>3</v>
       </c>
       <c r="E219" s="75" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B220" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D220" s="62">
         <v>3</v>
       </c>
       <c r="E220" s="75" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B221" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D221" s="62">
         <v>2</v>
       </c>
       <c r="E221" s="75" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B222" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D222" s="62">
         <v>2</v>
       </c>
       <c r="E222" s="75" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B223" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D223" s="62">
         <v>2</v>
       </c>
       <c r="E223" s="67" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B224" s="56" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D224" s="62">
         <v>2</v>
       </c>
       <c r="E224" s="76" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B225" s="56" t="s">
         <v>95</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D225" s="62">
         <v>3</v>
       </c>
       <c r="E225" s="67" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="31" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B226" s="56" t="s">
         <v>95</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D226" s="55">
         <v>6</v>
       </c>
       <c r="E226" s="77" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -8779,13 +8678,13 @@
   <sheetData>
     <row r="1" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="142" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B1" s="128" t="s">
+        <v>996</v>
+      </c>
+      <c r="C1" s="159" t="s">
         <v>997</v>
-      </c>
-      <c r="C1" s="162" t="s">
-        <v>998</v>
       </c>
       <c r="D1" s="128"/>
       <c r="E1" s="128"/>
@@ -8816,7 +8715,7 @@
         <v>477</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>587</v>
@@ -8834,7 +8733,7 @@
         <v>492</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>589</v>
@@ -8882,7 +8781,7 @@
         <v>492</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L3" s="18" t="s">
         <v>589</v>
@@ -8930,7 +8829,7 @@
         <v>492</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L4" s="18" t="s">
         <v>589</v>
@@ -8945,7 +8844,7 @@
         <v>593</v>
       </c>
       <c r="P4" s="140" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -8966,13 +8865,13 @@
         <v>601</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G5" s="32" t="s">
+        <v>851</v>
+      </c>
+      <c r="H5" s="32" t="s">
         <v>852</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>853</v>
       </c>
       <c r="I5" s="130" t="s">
         <v>590</v>
@@ -8981,7 +8880,7 @@
         <v>492</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L5" s="18" t="s">
         <v>589</v>
@@ -9011,10 +8910,10 @@
         <v>477</v>
       </c>
       <c r="E6" s="34" t="s">
+        <v>853</v>
+      </c>
+      <c r="F6" s="34" t="s">
         <v>854</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>855</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>423</v>
@@ -9029,7 +8928,7 @@
         <v>492</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L6" s="18" t="s">
         <v>589</v>
@@ -9044,12 +8943,12 @@
         <v>593</v>
       </c>
       <c r="P6" s="140" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>597</v>
@@ -9059,19 +8958,19 @@
         <v>1.1902000000000002E-3</v>
       </c>
       <c r="D7" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>856</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="F7" s="33" t="s">
+        <v>858</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>857</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>858</v>
-      </c>
-      <c r="G7" s="33" t="s">
+      <c r="H7" s="33" t="s">
         <v>859</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>860</v>
       </c>
       <c r="I7" s="130" t="s">
         <v>590</v>
@@ -9080,7 +8979,7 @@
         <v>492</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L7" s="18" t="s">
         <v>589</v>
@@ -9107,16 +9006,16 @@
         <v>4.8999999999999998E-4</v>
       </c>
       <c r="D8" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>856</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>857</v>
-      </c>
       <c r="F8" s="34" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>645</v>
@@ -9128,7 +9027,7 @@
         <v>492</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L8" s="18" t="s">
         <v>589</v>
@@ -9143,12 +9042,12 @@
         <v>593</v>
       </c>
       <c r="P8" s="140" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>597</v>
@@ -9161,16 +9060,16 @@
         <v>594</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>620</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I9" s="130" t="s">
         <v>590</v>
@@ -9179,7 +9078,7 @@
         <v>492</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L9" s="18" t="s">
         <v>589</v>
@@ -9225,10 +9124,10 @@
         <v>590</v>
       </c>
       <c r="J10" s="158" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K10" s="156" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L10" s="156" t="s">
         <v>589</v>
@@ -9246,7 +9145,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>597</v>
@@ -9262,7 +9161,7 @@
         <v>595</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>644</v>
@@ -9277,7 +9176,7 @@
         <v>492</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L11" s="18" t="s">
         <v>589</v>
@@ -9291,7 +9190,6 @@
       <c r="O11" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
@@ -9326,7 +9224,7 @@
         <v>492</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L12" s="18" t="s">
         <v>589</v>
@@ -9343,7 +9241,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>597</v>
@@ -9374,7 +9272,7 @@
         <v>492</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L13" s="18" t="s">
         <v>589</v>
@@ -9389,12 +9287,12 @@
         <v>593</v>
       </c>
       <c r="P13" s="137" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>597</v>
@@ -9407,7 +9305,7 @@
         <v>623</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>587</v>
@@ -9425,7 +9323,7 @@
         <v>492</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L14" s="18" t="s">
         <v>589</v>
@@ -9455,16 +9353,16 @@
         <v>477</v>
       </c>
       <c r="E15" s="32" t="s">
+        <v>868</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>869</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>870</v>
       </c>
       <c r="G15" s="32" t="s">
         <v>598</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I15" s="130" t="s">
         <v>590</v>
@@ -9473,7 +9371,7 @@
         <v>492</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L15" s="18" t="s">
         <v>589</v>
@@ -9490,7 +9388,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>597</v>
@@ -9503,16 +9401,16 @@
         <v>623</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F16" s="33" t="s">
         <v>439</v>
       </c>
       <c r="G16" s="33" t="s">
+        <v>870</v>
+      </c>
+      <c r="H16" s="33" t="s">
         <v>871</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>872</v>
       </c>
       <c r="I16" s="130" t="s">
         <v>590</v>
@@ -9521,7 +9419,7 @@
         <v>492</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L16" s="18" t="s">
         <v>589</v>
@@ -9538,7 +9436,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="126" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>597</v>
@@ -9569,7 +9467,7 @@
         <v>492</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>589</v>
@@ -9584,7 +9482,7 @@
         <v>593</v>
       </c>
       <c r="P17" s="137" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -9593,7 +9491,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="142" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B19" s="128"/>
       <c r="C19" s="148"/>
@@ -9612,7 +9510,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B20" s="141" t="s">
         <v>634</v>
@@ -9622,19 +9520,19 @@
         <v>5.6100000000000002E-5</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>224</v>
       </c>
       <c r="F20" s="33" t="s">
+        <v>813</v>
+      </c>
+      <c r="G20" s="33" t="s">
         <v>814</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="H20" s="33" t="s">
         <v>815</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>816</v>
       </c>
       <c r="I20" s="130" t="s">
         <v>590</v>
@@ -9643,7 +9541,7 @@
         <v>492</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L20" s="18" t="s">
         <v>589</v>
@@ -9660,7 +9558,7 @@
     </row>
     <row r="21" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B21" s="141" t="s">
         <v>634</v>
@@ -9691,7 +9589,7 @@
         <v>492</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L21" s="18" t="s">
         <v>589</v>
@@ -9740,7 +9638,7 @@
         <v>492</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L22" s="18" t="s">
         <v>589</v>
@@ -9768,19 +9666,19 @@
         <v>8.7000000000000003E-7</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E23" s="32" t="s">
+        <v>864</v>
+      </c>
+      <c r="F23" s="32" t="s">
         <v>865</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="G23" s="32" t="s">
         <v>866</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="H23" s="32" t="s">
         <v>867</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>868</v>
       </c>
       <c r="I23" s="130" t="s">
         <v>590</v>
@@ -9789,7 +9687,7 @@
         <v>492</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L23" s="18" t="s">
         <v>589</v>
@@ -9838,7 +9736,7 @@
         <v>492</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L24" s="18" t="s">
         <v>589</v>
@@ -9856,22 +9754,22 @@
     </row>
     <row r="25" spans="1:21" s="124" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B25" s="141" t="s">
         <v>634</v>
       </c>
       <c r="C25" s="149" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>635</v>
       </c>
       <c r="E25" s="33" t="s">
+        <v>777</v>
+      </c>
+      <c r="F25" s="33" t="s">
         <v>778</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>779</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>459</v>
@@ -9883,10 +9781,10 @@
         <v>590</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L25" s="18" t="s">
         <v>589</v>
@@ -9908,7 +9806,7 @@
     </row>
     <row r="27" spans="1:21" s="124" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="142" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B27" s="128"/>
       <c r="C27" s="148"/>
@@ -9938,10 +9836,10 @@
         <v>3.6999999999999999E-4</v>
       </c>
       <c r="D28" s="124" t="s">
-        <v>857</v>
+        <v>427</v>
       </c>
       <c r="E28" s="124" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>587</v>
@@ -9953,13 +9851,13 @@
         <v>588</v>
       </c>
       <c r="I28" s="124" t="s">
-        <v>427</v>
+        <v>858</v>
       </c>
       <c r="J28" s="130" t="s">
         <v>492</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L28" s="18" t="s">
         <v>589</v>
@@ -9973,11 +9871,10 @@
       <c r="O28" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="P28" s="137"/>
     </row>
     <row r="29" spans="1:21" s="124" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="127" t="s">
-        <v>683</v>
+        <v>1027</v>
       </c>
       <c r="B29" s="128" t="s">
         <v>597</v>
@@ -9990,25 +9887,25 @@
         <v>645</v>
       </c>
       <c r="E29" s="128" t="s">
+        <v>873</v>
+      </c>
+      <c r="F29" s="128" t="s">
         <v>874</v>
       </c>
-      <c r="F29" s="128" t="s">
+      <c r="G29" s="128" t="s">
         <v>875</v>
       </c>
-      <c r="G29" s="128" t="s">
+      <c r="H29" s="128" t="s">
         <v>876</v>
       </c>
-      <c r="H29" s="128" t="s">
-        <v>877</v>
-      </c>
       <c r="I29" s="128" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J29" s="155" t="s">
         <v>492</v>
       </c>
       <c r="K29" s="156" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L29" s="156" t="s">
         <v>589</v>
@@ -10040,13 +9937,13 @@
         <v>2.8E-5</v>
       </c>
       <c r="D30" s="33" t="s">
+        <v>855</v>
+      </c>
+      <c r="E30" s="33" t="s">
         <v>856</v>
       </c>
-      <c r="E30" s="33" t="s">
-        <v>857</v>
-      </c>
       <c r="F30" s="33" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>622</v>
@@ -10055,13 +9952,13 @@
         <v>224</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J30" s="130" t="s">
         <v>492</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L30" s="18" t="s">
         <v>589</v>
@@ -10093,28 +9990,28 @@
         <v>6.2999999999999998E-6</v>
       </c>
       <c r="D31" s="33" t="s">
+        <v>877</v>
+      </c>
+      <c r="E31" s="33" t="s">
         <v>878</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="F31" s="33" t="s">
         <v>879</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="G31" s="33" t="s">
         <v>880</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="H31" s="33" t="s">
         <v>881</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="I31" s="33" t="s">
         <v>882</v>
-      </c>
-      <c r="I31" s="33" t="s">
-        <v>883</v>
       </c>
       <c r="J31" s="130" t="s">
         <v>492</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L31" s="18" t="s">
         <v>589</v>
@@ -10137,7 +10034,7 @@
     </row>
     <row r="32" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>597</v>
@@ -10147,28 +10044,28 @@
         <v>1.1599999999999999E-6</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H32" s="32" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J32" s="130" t="s">
         <v>492</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L32" s="18" t="s">
         <v>589</v>
@@ -10201,7 +10098,7 @@
         <v>8.6000000000000002E-7</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E33" s="33" t="s">
         <v>620</v>
@@ -10210,7 +10107,7 @@
         <v>623</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H33" s="33" t="s">
         <v>619</v>
@@ -10222,7 +10119,7 @@
         <v>492</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L33" s="18" t="s">
         <v>589</v>
@@ -10248,7 +10145,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="142" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B35" s="128"/>
       <c r="C35" s="148"/>
@@ -10268,7 +10165,7 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="143" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>597</v>
@@ -10278,19 +10175,19 @@
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E36" s="101" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F36" s="101" t="s">
         <v>584</v>
       </c>
       <c r="G36" s="101" t="s">
+        <v>932</v>
+      </c>
+      <c r="H36" s="34" t="s">
         <v>933</v>
-      </c>
-      <c r="H36" s="34" t="s">
-        <v>934</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>590</v>
@@ -10314,12 +10211,12 @@
         <v>598</v>
       </c>
       <c r="P36" s="137" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="144" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>597</v>
@@ -10329,48 +10226,48 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E37" s="124" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F37" s="101" t="s">
         <v>584</v>
       </c>
       <c r="G37" s="101" t="s">
+        <v>946</v>
+      </c>
+      <c r="H37" s="34" t="s">
         <v>947</v>
       </c>
-      <c r="H37" s="34" t="s">
+      <c r="I37" s="34" t="s">
+        <v>949</v>
+      </c>
+      <c r="J37" s="34" t="s">
         <v>948</v>
       </c>
-      <c r="I37" s="34" t="s">
-        <v>950</v>
-      </c>
-      <c r="J37" s="34" t="s">
-        <v>949</v>
-      </c>
       <c r="K37" s="101" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="L37" s="18" t="s">
         <v>589</v>
       </c>
       <c r="M37" s="34" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="N37" s="34" t="s">
         <v>561</v>
       </c>
       <c r="O37" s="34" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P37" s="138" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="143" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>597</v>
@@ -10386,10 +10283,10 @@
         <v>623</v>
       </c>
       <c r="F38" s="101" t="s">
+        <v>584</v>
+      </c>
+      <c r="G38" s="101" t="s">
         <v>624</v>
-      </c>
-      <c r="G38" s="101" t="s">
-        <v>584</v>
       </c>
       <c r="H38" s="101" t="s">
         <v>625</v>
@@ -10410,18 +10307,18 @@
         <v>591</v>
       </c>
       <c r="N38" s="34" t="s">
+        <v>853</v>
+      </c>
+      <c r="O38" s="34" t="s">
         <v>854</v>
       </c>
-      <c r="O38" s="34" t="s">
-        <v>855</v>
-      </c>
       <c r="P38" s="137" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="39" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="144" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>597</v>
@@ -10431,10 +10328,10 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="D39" s="101" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>587</v>
@@ -10446,33 +10343,33 @@
         <v>588</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J39" s="34" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L39" s="18" t="s">
         <v>589</v>
       </c>
       <c r="M39" s="34" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="N39" s="34" t="s">
         <v>561</v>
       </c>
       <c r="O39" s="34" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P39" s="138" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="40" spans="1:21" s="101" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="144" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B40" s="141" t="s">
         <v>597</v>
@@ -10485,7 +10382,7 @@
         <v>477</v>
       </c>
       <c r="E40" s="125" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>587</v>
@@ -10503,10 +10400,10 @@
         <v>678</v>
       </c>
       <c r="K40" s="30" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L40" s="34" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M40" s="34" t="s">
         <v>595</v>
@@ -10518,12 +10415,12 @@
         <v>596</v>
       </c>
       <c r="P40" s="137" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="41" spans="1:21" s="101" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="143" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>597</v>
@@ -10533,25 +10430,25 @@
         <v>4.8999999999999998E-4</v>
       </c>
       <c r="D41" s="34" t="s">
+        <v>950</v>
+      </c>
+      <c r="E41" s="101" t="s">
         <v>951</v>
       </c>
-      <c r="E41" s="101" t="s">
+      <c r="F41" s="101" t="s">
         <v>952</v>
       </c>
-      <c r="F41" s="101" t="s">
+      <c r="G41" s="101" t="s">
         <v>953</v>
       </c>
-      <c r="G41" s="101" t="s">
+      <c r="H41" s="101" t="s">
         <v>954</v>
-      </c>
-      <c r="H41" s="101" t="s">
-        <v>955</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>590</v>
       </c>
       <c r="J41" s="34" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="K41" s="34" t="s">
         <v>598</v>
@@ -10560,21 +10457,21 @@
         <v>589</v>
       </c>
       <c r="M41" s="34" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="N41" s="34" t="s">
         <v>561</v>
       </c>
       <c r="O41" s="34" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P41" s="137" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="42" spans="1:21" s="101" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="144" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>597</v>
@@ -10584,51 +10481,51 @@
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="D42" s="34" t="s">
+        <v>961</v>
+      </c>
+      <c r="E42" s="101" t="s">
         <v>962</v>
       </c>
-      <c r="E42" s="101" t="s">
+      <c r="F42" s="101" t="s">
         <v>963</v>
       </c>
-      <c r="F42" s="101" t="s">
-        <v>964</v>
-      </c>
       <c r="G42" s="101" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H42" s="101" t="s">
+        <v>957</v>
+      </c>
+      <c r="I42" s="101" t="s">
         <v>958</v>
       </c>
-      <c r="I42" s="101" t="s">
+      <c r="J42" s="34" t="s">
         <v>959</v>
       </c>
-      <c r="J42" s="34" t="s">
+      <c r="K42" s="34" t="s">
         <v>960</v>
-      </c>
-      <c r="K42" s="34" t="s">
-        <v>961</v>
       </c>
       <c r="L42" s="18" t="s">
         <v>589</v>
       </c>
       <c r="M42" s="34" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="N42" s="34" t="s">
         <v>561</v>
       </c>
       <c r="O42" s="34" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P42" s="138"/>
     </row>
     <row r="43" spans="1:21" s="125" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="101" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C43" s="164">
+      <c r="C43" s="161">
         <f>Languages!C94</f>
         <v>8.4999999999999999E-6</v>
       </c>
@@ -10648,13 +10545,13 @@
         <v>588</v>
       </c>
       <c r="I43" s="101" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J43" s="101" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L43" s="18" t="s">
         <v>589</v>
@@ -10666,7 +10563,7 @@
         <v>592</v>
       </c>
       <c r="O43" s="101" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="44" spans="1:21" s="101" customFormat="1" x14ac:dyDescent="0.25">
@@ -10674,7 +10571,7 @@
     </row>
     <row r="45" spans="1:21" s="101" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="142" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B45" s="128"/>
       <c r="C45" s="148"/>
@@ -10694,7 +10591,7 @@
     </row>
     <row r="46" spans="1:21" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B46" s="141" t="s">
         <v>634</v>
@@ -10704,46 +10601,46 @@
         <v>6.0631500000000015E-3</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E46" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="F46" s="14" t="s">
         <v>728</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="G46" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>730</v>
-      </c>
       <c r="H46" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="N46" s="30" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="P46" s="137"/>
     </row>
     <row r="47" spans="1:21" s="101" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B47" s="141" t="s">
         <v>634</v>
@@ -10753,46 +10650,46 @@
         <v>2.64E-3</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>710</v>
-      </c>
       <c r="N47" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="O47" s="3" t="s">
         <v>757</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>758</v>
       </c>
       <c r="P47" s="137"/>
     </row>
     <row r="48" spans="1:21" s="101" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B48" s="141" t="s">
         <v>634</v>
@@ -10802,46 +10699,46 @@
         <v>2.8210000000000003E-4</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E48" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="F48" s="14" t="s">
         <v>737</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="G48" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="N48" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="G48" s="14" t="s">
-        <v>743</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>742</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>740</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>741</v>
-      </c>
-      <c r="L48" s="14" t="s">
-        <v>713</v>
-      </c>
-      <c r="M48" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="N48" s="14" t="s">
-        <v>739</v>
-      </c>
       <c r="O48" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="P48" s="137"/>
     </row>
     <row r="49" spans="1:16" s="101" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B49" s="141" t="s">
         <v>634</v>
@@ -10851,40 +10748,40 @@
         <v>1.2659999999999999E-5</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E49" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>751</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>752</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="L49" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="N49" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="O49" s="14" t="s">
         <v>750</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>752</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>753</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>740</v>
-      </c>
-      <c r="J49" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="K49" s="14" t="s">
-        <v>741</v>
-      </c>
-      <c r="L49" s="14" t="s">
-        <v>713</v>
-      </c>
-      <c r="M49" s="14" t="s">
-        <v>744</v>
-      </c>
-      <c r="N49" s="14" t="s">
-        <v>749</v>
-      </c>
-      <c r="O49" s="14" t="s">
-        <v>751</v>
       </c>
       <c r="P49" s="137"/>
     </row>
@@ -10900,43 +10797,43 @@
         <v>2.5999999999999998E-5</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="M50" s="23" t="s">
+        <v>848</v>
+      </c>
+      <c r="N50" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="M50" s="23" t="s">
-        <v>849</v>
-      </c>
-      <c r="N50" s="3" t="s">
+      <c r="O50" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="O50" s="3" t="s">
-        <v>800</v>
-      </c>
       <c r="P50" s="137" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="51" spans="1:16" s="101" customFormat="1" x14ac:dyDescent="0.25">
@@ -10947,43 +10844,43 @@
         <v>634</v>
       </c>
       <c r="C51" s="149" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D51" s="34" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E51" s="101" t="s">
         <v>1024</v>
       </c>
-      <c r="E51" s="101" t="s">
+      <c r="F51" s="101" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G51" s="101" t="s">
+        <v>740</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>768</v>
+      </c>
+      <c r="I51" s="101" t="s">
+        <v>739</v>
+      </c>
+      <c r="J51" s="34" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K51" s="34" t="s">
+        <v>706</v>
+      </c>
+      <c r="L51" s="34" t="s">
+        <v>712</v>
+      </c>
+      <c r="M51" s="34" t="s">
         <v>1025</v>
       </c>
-      <c r="F51" s="101" t="s">
-        <v>713</v>
-      </c>
-      <c r="G51" s="101" t="s">
-        <v>741</v>
-      </c>
-      <c r="H51" s="34" t="s">
-        <v>769</v>
-      </c>
-      <c r="I51" s="101" t="s">
-        <v>740</v>
-      </c>
-      <c r="J51" s="34" t="s">
-        <v>1023</v>
-      </c>
-      <c r="K51" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="L51" s="34" t="s">
-        <v>713</v>
-      </c>
-      <c r="M51" s="34" t="s">
+      <c r="N51" s="34" t="s">
         <v>1026</v>
       </c>
-      <c r="N51" s="34" t="s">
-        <v>1027</v>
-      </c>
       <c r="O51" s="34" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="P51" s="138"/>
     </row>
@@ -11046,7 +10943,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="174" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="171" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
@@ -11057,7 +10954,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="168"/>
+      <c r="A1" s="165"/>
       <c r="B1" s="11" t="s">
         <v>470</v>
       </c>
@@ -11070,18 +10967,18 @@
       <c r="E1" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="F1" s="167" t="s">
+      <c r="F1" s="164" t="s">
         <v>474</v>
       </c>
-      <c r="G1" s="167" t="s">
-        <v>786</v>
+      <c r="G1" s="164" t="s">
+        <v>785</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="166" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -11101,7 +10998,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="166" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -11121,7 +11018,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="166" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
@@ -11141,7 +11038,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="167" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -11164,7 +11061,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="169" t="s">
+      <c r="A6" s="166" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -11184,7 +11081,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="166" t="s">
         <v>486</v>
       </c>
       <c r="B7" t="s">
@@ -11207,7 +11104,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="166" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
@@ -11227,7 +11124,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="171" t="s">
+      <c r="A9" s="168" t="s">
         <v>493</v>
       </c>
       <c r="B9" t="s">
@@ -11250,7 +11147,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="166" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
@@ -11270,7 +11167,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="166" t="s">
         <v>498</v>
       </c>
       <c r="B11" t="s">
@@ -11290,7 +11187,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="169" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
@@ -11313,20 +11210,20 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="170" t="s">
+      <c r="A13" s="167" t="s">
         <v>503</v>
       </c>
       <c r="B13" t="s">
+        <v>825</v>
+      </c>
+      <c r="C13" t="s">
         <v>826</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>827</v>
       </c>
-      <c r="D13" t="s">
-        <v>828</v>
-      </c>
       <c r="E13" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F13" s="7">
         <v>25.1</v>
@@ -11336,7 +11233,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="166" t="s">
         <v>97</v>
       </c>
       <c r="B14" t="s">
@@ -11356,7 +11253,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="170" t="s">
+      <c r="A15" s="167" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
@@ -11379,7 +11276,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="169" t="s">
+      <c r="A16" s="166" t="s">
         <v>124</v>
       </c>
       <c r="B16" t="s">
@@ -11399,7 +11296,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="169" t="s">
+      <c r="A17" s="166" t="s">
         <v>84</v>
       </c>
       <c r="B17" t="s">
@@ -11411,15 +11308,15 @@
       <c r="D17" t="s">
         <v>349</v>
       </c>
-      <c r="F17" s="160">
+      <c r="F17" s="173">
         <v>23.6</v>
       </c>
-      <c r="G17" s="159">
+      <c r="G17" s="172">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="169" t="s">
+      <c r="A18" s="166" t="s">
         <v>508</v>
       </c>
       <c r="B18" t="s">
@@ -11431,11 +11328,11 @@
       <c r="D18" t="s">
         <v>478</v>
       </c>
-      <c r="F18" s="160"/>
-      <c r="G18" s="159"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="172"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="169" t="s">
+      <c r="A19" s="166" t="s">
         <v>510</v>
       </c>
       <c r="B19" t="s">
@@ -11455,7 +11352,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="169" t="s">
+      <c r="A20" s="166" t="s">
         <v>512</v>
       </c>
       <c r="B20" t="s">
@@ -11475,7 +11372,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="169" t="s">
+      <c r="A21" s="166" t="s">
         <v>47</v>
       </c>
       <c r="B21" t="s">
@@ -11495,7 +11392,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="169" t="s">
+      <c r="A22" s="166" t="s">
         <v>513</v>
       </c>
       <c r="B22" t="s">
@@ -11515,7 +11412,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="169" t="s">
+      <c r="A23" s="166" t="s">
         <v>131</v>
       </c>
       <c r="B23" t="s">
@@ -11535,7 +11432,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="172" t="s">
+      <c r="A24" s="169" t="s">
         <v>514</v>
       </c>
       <c r="B24" t="s">
@@ -11558,20 +11455,20 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="173" t="s">
+      <c r="A25" s="170" t="s">
         <v>519</v>
       </c>
       <c r="B25" t="s">
         <v>520</v>
       </c>
       <c r="C25" t="s">
+        <v>928</v>
+      </c>
+      <c r="D25" t="s">
         <v>929</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>930</v>
-      </c>
-      <c r="E25" t="s">
-        <v>931</v>
       </c>
       <c r="F25" s="7">
         <v>12.9</v>
@@ -11581,7 +11478,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="169" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -11604,20 +11501,20 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="172" t="s">
+      <c r="A27" s="169" t="s">
         <v>22</v>
       </c>
       <c r="B27" t="s">
         <v>524</v>
       </c>
       <c r="C27" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D27" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E27" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F27" s="7">
         <v>10.7</v>
@@ -11627,7 +11524,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="169" t="s">
+      <c r="A28" s="166" t="s">
         <v>23</v>
       </c>
       <c r="B28" t="s">
@@ -11647,7 +11544,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="169" t="s">
+      <c r="A29" s="166" t="s">
         <v>528</v>
       </c>
       <c r="B29" t="s">
@@ -11667,7 +11564,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="167" t="s">
         <v>48</v>
       </c>
       <c r="B30" t="s">
@@ -11690,7 +11587,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="171" t="s">
+      <c r="A31" s="168" t="s">
         <v>534</v>
       </c>
       <c r="B31" t="s">
@@ -11713,7 +11610,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="171" t="s">
+      <c r="A32" s="168" t="s">
         <v>539</v>
       </c>
       <c r="B32" t="s">
@@ -11736,7 +11633,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="173" t="s">
+      <c r="A33" s="170" t="s">
         <v>542</v>
       </c>
       <c r="B33" t="s">
@@ -11762,7 +11659,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="169" t="s">
+      <c r="A34" s="166" t="s">
         <v>26</v>
       </c>
       <c r="B34" t="s">
@@ -11782,7 +11679,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="169" t="s">
+      <c r="A35" s="166" t="s">
         <v>28</v>
       </c>
       <c r="B35" t="s">
@@ -11802,7 +11699,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="169" t="s">
+      <c r="A36" s="166" t="s">
         <v>551</v>
       </c>
       <c r="B36" t="s">
@@ -11822,7 +11719,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="169" t="s">
+      <c r="A37" s="166" t="s">
         <v>33</v>
       </c>
       <c r="B37" t="s">
@@ -11842,20 +11739,20 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="172" t="s">
+      <c r="A38" s="169" t="s">
         <v>29</v>
       </c>
       <c r="B38" t="s">
         <v>552</v>
       </c>
       <c r="C38" t="s">
+        <v>934</v>
+      </c>
+      <c r="D38" t="s">
         <v>935</v>
       </c>
-      <c r="D38" t="s">
-        <v>936</v>
-      </c>
       <c r="E38" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F38">
         <v>5.2</v>
@@ -11865,7 +11762,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="169" t="s">
+      <c r="A39" s="166" t="s">
         <v>553</v>
       </c>
       <c r="B39" t="s">
@@ -11885,7 +11782,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="169" t="s">
+      <c r="A40" s="166" t="s">
         <v>555</v>
       </c>
       <c r="B40" t="s">
@@ -11905,7 +11802,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="169" t="s">
         <v>556</v>
       </c>
       <c r="B41" t="s">
@@ -11928,7 +11825,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="171" t="s">
+      <c r="A42" s="168" t="s">
         <v>560</v>
       </c>
       <c r="B42" t="s">
@@ -11951,14 +11848,14 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="172" t="s">
+      <c r="A43" s="169" t="s">
         <v>565</v>
       </c>
       <c r="B43" t="s">
         <v>566</v>
       </c>
       <c r="C43" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D43" t="s">
         <v>567</v>
@@ -11974,7 +11871,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="171" t="s">
+      <c r="A44" s="168" t="s">
         <v>568</v>
       </c>
       <c r="B44" t="s">
@@ -11997,7 +11894,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="172" t="s">
+      <c r="A45" s="169" t="s">
         <v>573</v>
       </c>
       <c r="B45" t="s">
@@ -12020,7 +11917,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="173" t="s">
+      <c r="A46" s="170" t="s">
         <v>578</v>
       </c>
       <c r="B46" t="s">
@@ -12043,7 +11940,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="171" t="s">
+      <c r="A47" s="168" t="s">
         <v>583</v>
       </c>
       <c r="B47" t="s">
@@ -12106,10 +12003,10 @@
         <v>473</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>785</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>786</v>
       </c>
       <c r="H1" t="s">
         <v>475</v>
@@ -12140,10 +12037,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F3" s="14">
         <v>35</v>
@@ -12157,10 +12054,10 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F4" s="14">
         <v>12</v>
@@ -12197,13 +12094,13 @@
         <v>584</v>
       </c>
       <c r="C6" t="s">
+        <v>710</v>
+      </c>
+      <c r="D6" t="s">
         <v>711</v>
       </c>
-      <c r="D6" t="s">
-        <v>712</v>
-      </c>
       <c r="E6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F6" s="14">
         <v>1.4</v>
@@ -12217,10 +12114,10 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F7" s="14">
         <v>2.5</v>
@@ -12234,10 +12131,10 @@
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F8" s="14">
         <v>13.2</v>
@@ -12251,10 +12148,10 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F9" s="14">
         <v>5.2</v>
@@ -12265,13 +12162,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F10" s="14">
         <v>34</v>
@@ -12285,10 +12182,10 @@
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F11" s="14">
         <v>5.0999999999999996</v>
@@ -12302,10 +12199,10 @@
         <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E12" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F12" s="14">
         <v>0.19</v>
@@ -12319,10 +12216,10 @@
         <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E13" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F13" s="14">
         <v>4.3</v>
@@ -12336,16 +12233,16 @@
         <v>79</v>
       </c>
       <c r="B14" t="s">
+        <v>745</v>
+      </c>
+      <c r="C14" t="s">
+        <v>744</v>
+      </c>
+      <c r="D14" t="s">
         <v>746</v>
       </c>
-      <c r="C14" t="s">
-        <v>745</v>
-      </c>
-      <c r="D14" t="s">
-        <v>747</v>
-      </c>
       <c r="E14" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F14" s="14">
         <v>8.1</v>
@@ -12359,10 +12256,10 @@
         <v>616</v>
       </c>
       <c r="D15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F15" s="14">
         <v>5.2</v>
@@ -12376,13 +12273,13 @@
         <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D16" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E16" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F16" s="14">
         <v>1.4</v>
@@ -12396,16 +12293,16 @@
         <v>108</v>
       </c>
       <c r="B17" t="s">
+        <v>720</v>
+      </c>
+      <c r="C17" t="s">
+        <v>719</v>
+      </c>
+      <c r="D17" t="s">
         <v>721</v>
       </c>
-      <c r="C17" t="s">
-        <v>720</v>
-      </c>
-      <c r="D17" t="s">
-        <v>722</v>
-      </c>
       <c r="E17" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F17" s="14">
         <v>1</v>
@@ -12419,15 +12316,15 @@
         <v>661</v>
       </c>
       <c r="D18" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E18" t="s">
-        <v>724</v>
-      </c>
-      <c r="F18" s="161">
+        <v>723</v>
+      </c>
+      <c r="F18" s="174">
         <v>3.5</v>
       </c>
-      <c r="G18" s="161">
+      <c r="G18" s="174">
         <v>3.5</v>
       </c>
     </row>
@@ -12436,23 +12333,23 @@
         <v>662</v>
       </c>
       <c r="D19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E19" t="s">
-        <v>725</v>
-      </c>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
+        <v>724</v>
+      </c>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="D20" t="s">
         <v>755</v>
       </c>
-      <c r="D20" t="s">
-        <v>756</v>
-      </c>
       <c r="E20" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F20" s="14">
         <v>0.23</v>
@@ -12463,13 +12360,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
+        <v>759</v>
+      </c>
+      <c r="D21" t="s">
         <v>760</v>
       </c>
-      <c r="D21" t="s">
-        <v>761</v>
-      </c>
       <c r="E21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F21" s="14">
         <v>0.01</v>
@@ -12480,13 +12377,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F22" s="14">
         <v>0.1</v>
@@ -12497,13 +12394,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="D23" t="s">
         <v>764</v>
       </c>
-      <c r="D23" t="s">
-        <v>765</v>
-      </c>
       <c r="E23" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F23" s="14">
         <v>0.6</v>
@@ -12514,13 +12411,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D24" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E24" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F24" s="14">
         <v>0.47</v>
@@ -12531,13 +12428,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="D25" t="s">
         <v>767</v>
       </c>
-      <c r="D25" t="s">
-        <v>768</v>
-      </c>
       <c r="E25" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F25" s="14">
         <v>0.2</v>
@@ -12548,13 +12445,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D26" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E26" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F26" s="14">
         <v>1.3</v>
@@ -12565,13 +12462,13 @@
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F27" s="14">
         <v>5.2</v>
@@ -15504,7 +15401,7 @@
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="127"/>
       <c r="B1" s="128" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C1" s="128" t="s">
         <v>594</v>
@@ -15528,25 +15425,25 @@
         <v>477</v>
       </c>
       <c r="J1" s="128" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K1" s="128" t="s">
         <v>678</v>
       </c>
-      <c r="L1" s="166" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M1" s="166" t="s">
-        <v>1004</v>
-      </c>
-      <c r="N1" s="166" t="s">
-        <v>1006</v>
+      <c r="L1" s="163" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M1" s="163" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N1" s="163" t="s">
+        <v>1005</v>
       </c>
       <c r="O1" s="128" t="s">
+        <v>1008</v>
+      </c>
+      <c r="P1" s="127" t="s">
         <v>1009</v>
-      </c>
-      <c r="P1" s="127" t="s">
-        <v>1010</v>
       </c>
       <c r="Q1" s="128"/>
     </row>
@@ -15555,22 +15452,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C2" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D2" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E2" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G2" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H2" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="125">
@@ -15580,31 +15477,31 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B3" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C3" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D3" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E3" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F3" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G3" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H3" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I3" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="125">
@@ -15614,44 +15511,44 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B4" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C4" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D4" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E4" s="125" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F4" s="163" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G4" s="163" t="s">
-        <v>1003</v>
+        <v>999</v>
+      </c>
+      <c r="F4" s="160" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G4" s="160" t="s">
+        <v>1002</v>
       </c>
       <c r="H4" s="125" t="s">
-        <v>1000</v>
-      </c>
-      <c r="I4" s="163" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K4" s="163" t="s">
-        <v>1003</v>
-      </c>
-      <c r="L4" s="163" t="s">
-        <v>1003</v>
-      </c>
-      <c r="M4" s="163" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="165"/>
+        <v>999</v>
+      </c>
+      <c r="I4" s="160" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K4" s="160" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L4" s="160" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M4" s="160" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="162"/>
       <c r="Q4" s="125">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -15659,31 +15556,31 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B5" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D5" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E5" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F5" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G5" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H5" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I5" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="J5" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="125">
@@ -15693,28 +15590,28 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B6" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C6" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D6" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E6" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G6" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H6" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I6" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="125">
@@ -15724,28 +15621,28 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C7" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D7" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G7" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H7" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I7" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="N7" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="125">
@@ -15758,25 +15655,25 @@
         <v>39</v>
       </c>
       <c r="B8" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C8" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D8" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E8" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G8" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H8" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K8" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="125">
@@ -15786,31 +15683,31 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B9" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C9" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D9" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F9" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G9" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H9" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O9" s="125" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="Q9" s="125">
         <f t="shared" si="0"/>
@@ -15819,29 +15716,29 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="127" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B10" s="128" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C10" s="128" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D10" s="128" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E10" s="128" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F10" s="128"/>
       <c r="G10" s="128" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H10" s="128" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I10" s="128" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="J10" s="128"/>
       <c r="K10" s="128"/>

--- a/external/languages.xlsx
+++ b/external/languages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Scripts\qphyx\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6B5C98-DE6F-4437-B83D-AA602761440C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EB14CAD-3169-4936-B0B6-F47A6CBEE674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="1031">
   <si>
     <t>English</t>
   </si>
@@ -2933,9 +2933,6 @@
     <t>(âôû ñ š)</t>
   </si>
   <si>
-    <t>* 1 December 2021</t>
-  </si>
-  <si>
     <t>(áčďéěíňóřšťúůýž)</t>
   </si>
   <si>
@@ -3450,6 +3447,12 @@
   </si>
   <si>
     <t>ҋ</t>
+  </si>
+  <si>
+    <t>Tswana</t>
+  </si>
+  <si>
+    <t>* 1 January 2022</t>
   </si>
 </sst>
 </file>
@@ -3718,7 +3721,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -3768,43 +3771,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -3832,13 +3798,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3928,9 +3985,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3947,17 +4001,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4031,9 +4079,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4059,33 +4104,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4098,15 +4116,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4176,29 +4185,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4254,7 +4248,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4291,6 +4285,72 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4300,6 +4360,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4307,6 +4394,13 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE60000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4360,13 +4454,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF7575"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE60000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4681,19 +4768,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L239"/>
+  <dimension ref="A1:L240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" activeCellId="1" sqref="J14:J15 J5:J6"/>
+      <selection activeCell="J14" activeCellId="1" sqref="J5:J6 J14:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="52" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="118.85546875" style="65" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="118.85546875" style="62" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45.85546875" customWidth="1"/>
@@ -4702,649 +4789,649 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" t="s">
-        <v>925</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
-      <c r="B2" s="56"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="79"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="60" t="s">
         <v>915</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="51" t="s">
         <v>613</v>
       </c>
-      <c r="F3" s="95"/>
+      <c r="F3" s="82"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <v>0.63600000000000001</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="55">
         <v>1</v>
       </c>
-      <c r="H4" s="99" t="s">
+      <c r="H4" s="86" t="s">
         <v>895</v>
       </c>
-      <c r="I4" s="96">
-        <f>SUMIF($B$4:$B$1005,"Latin",$C$4:$C$1005)</f>
-        <v>0.82379024999999939</v>
-      </c>
-      <c r="J4" s="100">
+      <c r="I4" s="83">
+        <f>SUMIF($B$4:$B$1006,"Latin",$C$4:$C$1006)</f>
+        <v>0.82285744999999955</v>
+      </c>
+      <c r="J4" s="87">
         <f>I4/($I$4+$I$13+$I$19)</f>
-        <v>0.82157194003614709</v>
+        <v>0.82175847130839563</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="53" t="s">
         <v>780</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="55">
         <v>1</v>
       </c>
-      <c r="G5" s="115">
+      <c r="G5" s="99">
         <v>1</v>
       </c>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="77" t="s">
         <v>906</v>
       </c>
-      <c r="I5" s="82">
-        <f t="shared" ref="I5:I11" si="0">SUMIFS($C$4:$C$1005, $D$4:$D$1005, $G5, $B$4:$B$1005, "Latin") + SUMIFS($C$4:$C$1005, $D$4:$D$1005, "*" &amp; $G5 &amp; "*", $B$4:$B$1005, "Latin")</f>
-        <v>0.70754640999999996</v>
-      </c>
-      <c r="J5" s="53">
+      <c r="I5" s="78">
+        <f t="shared" ref="I5:I11" si="0">SUMIFS($C$4:$C$1006, $D$4:$D$1006, $G5, $B$4:$B$1006, "Latin") + SUMIFS($C$4:$C$1006, $D$4:$D$1006, "*" &amp; $G5 &amp; "*", $B$4:$B$1006, "Latin")</f>
+        <v>0.70772632000000013</v>
+      </c>
+      <c r="J5" s="50">
         <f>I5/(SUM($I$5:$I$11)+SUM($I$14:$I$17)+SUM($I$20:$I$22))</f>
-        <v>0.70564112251791189</v>
+        <v>0.70678110628750657</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <v>3.9E-2</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="55">
         <v>3</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="64" t="s">
         <v>603</v>
       </c>
-      <c r="G6" s="116">
+      <c r="G6" s="100">
         <v>2</v>
       </c>
       <c r="H6" t="s">
         <v>679</v>
       </c>
-      <c r="I6" s="82">
+      <c r="I6" s="78">
         <f t="shared" si="0"/>
-        <v>6.2363219999999997E-2</v>
-      </c>
-      <c r="J6" s="53">
+        <v>6.11868E-2</v>
+      </c>
+      <c r="J6" s="50">
         <f t="shared" ref="J6:J22" si="1">I6/(SUM($I$5:$I$11)+SUM($I$14:$I$17)+SUM($I$20:$I$22))</f>
-        <v>6.2195287747458847E-2</v>
+        <v>6.1105081119764482E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="38">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="D7" s="58">
+      <c r="C7" s="37">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D7" s="55">
         <v>2</v>
       </c>
-      <c r="G7" s="118">
+      <c r="G7" s="102">
         <v>3</v>
       </c>
       <c r="H7" t="s">
         <v>911</v>
       </c>
-      <c r="I7" s="82">
+      <c r="I7" s="78">
         <f t="shared" si="0"/>
-        <v>5.0381350000000026E-2</v>
-      </c>
-      <c r="J7" s="53">
+        <v>5.0387890000000039E-2</v>
+      </c>
+      <c r="J7" s="50">
         <f t="shared" si="1"/>
-        <v>5.0245682637224912E-2</v>
+        <v>5.0320593753943203E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="53" t="s">
         <v>897</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="55">
         <v>7</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="G8" s="117">
+      <c r="G8" s="101">
         <v>4</v>
       </c>
       <c r="H8" t="s">
         <v>912</v>
       </c>
-      <c r="I8" s="82">
+      <c r="I8" s="78">
         <f t="shared" si="0"/>
-        <v>2.8E-3</v>
-      </c>
-      <c r="J8" s="53">
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="J8" s="50">
         <f t="shared" si="1"/>
-        <v>2.7924601342407397E-3</v>
+        <v>2.8461936429316254E-3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="37">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="55">
         <v>1</v>
       </c>
-      <c r="G9" s="119">
+      <c r="G9" s="103">
         <v>5</v>
       </c>
       <c r="H9" t="s">
         <v>913</v>
       </c>
-      <c r="I9" s="82">
+      <c r="I9" s="78">
         <f t="shared" si="0"/>
-        <v>2.1000000000000002E-6</v>
-      </c>
-      <c r="J9" s="52">
+        <v>1.9800000000000001E-6</v>
+      </c>
+      <c r="J9" s="49">
         <f t="shared" si="1"/>
-        <v>2.0943451006805551E-6</v>
+        <v>1.9773555835103927E-6</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <v>0.02</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="55">
         <v>2</v>
       </c>
-      <c r="G10" s="120">
+      <c r="G10" s="104">
         <v>6</v>
       </c>
       <c r="H10" t="s">
         <v>914</v>
       </c>
-      <c r="I10" s="82">
+      <c r="I10" s="78">
         <f t="shared" si="0"/>
-        <v>6.9707000000000005E-4</v>
-      </c>
-      <c r="J10" s="53">
+        <v>7.0436000000000012E-4</v>
+      </c>
+      <c r="J10" s="50">
         <f t="shared" si="1"/>
-        <v>6.9519292349114019E-4</v>
+        <v>7.0341928222291924E-4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="53" t="s">
         <v>897</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="37">
         <v>1.9E-2</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="55">
         <v>7</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="G11" s="123">
+      <c r="G11" s="107">
         <v>9</v>
       </c>
       <c r="H11" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="83">
+      <c r="I11" s="79">
         <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="J11" s="113">
+      <c r="J11" s="97">
         <f t="shared" si="1"/>
-        <v>9.973071908002641E-8</v>
+        <v>9.9866443611635974E-8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="37">
         <v>1.9E-2</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="55">
         <v>1</v>
       </c>
-      <c r="I12" s="84"/>
-      <c r="J12" s="52"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="53" t="s">
         <v>897</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="37">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="55">
         <v>7</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="65" t="s">
         <v>810</v>
       </c>
-      <c r="H13" s="98" t="s">
+      <c r="H13" s="85" t="s">
         <v>896</v>
       </c>
-      <c r="I13" s="97">
-        <f>SUMIF($B$4:$B$1005,"Cyrillic",$C$4:$C$1005)</f>
-        <v>8.0030490000000024E-2</v>
-      </c>
-      <c r="J13" s="100">
+      <c r="I13" s="84">
+        <f>SUMIF($B$4:$B$1006,"Cyrillic",$C$4:$C$1006)</f>
+        <v>8.0058980000000016E-2</v>
+      </c>
+      <c r="J13" s="87">
         <f>I13/($I$4+$I$13+$I$19)</f>
-        <v>7.9814983160268693E-2</v>
+        <v>7.9952056117750969E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="54" t="s">
         <v>897</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="41">
         <v>1.2E-2</v>
       </c>
-      <c r="D14" s="59">
+      <c r="D14" s="56">
         <v>7</v>
       </c>
-      <c r="E14" s="107" t="s">
+      <c r="E14" s="91" t="s">
         <v>811</v>
       </c>
-      <c r="G14" s="115">
+      <c r="G14" s="99">
         <v>1</v>
       </c>
       <c r="H14" t="s">
         <v>907</v>
       </c>
-      <c r="I14" s="82">
-        <f>SUMIFS($C$4:$C$1005, $D$4:$D$1005, $G14, $B$4:$B$1005, "Cyrillic") + SUMIFS($C$4:$C$1005, $D$4:$D$1005, "*" &amp; $G14 &amp; "*", $B$4:$B$1005, "Cyrillic")</f>
-        <v>7.1002240000000008E-2</v>
-      </c>
-      <c r="J14" s="53">
+      <c r="I14" s="78">
+        <f>SUMIFS($C$4:$C$1006, $D$4:$D$1006, $G14, $B$4:$B$1006, "Cyrillic") + SUMIFS($C$4:$C$1006, $D$4:$D$1006, "*" &amp; $G14 &amp; "*", $B$4:$B$1006, "Cyrillic")</f>
+        <v>7.0902320000000005E-2</v>
+      </c>
+      <c r="J14" s="50">
         <f t="shared" si="1"/>
-        <v>7.0811044514926161E-2</v>
+        <v>7.0807625422141696E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="41">
-        <v>7.6E-3</v>
-      </c>
-      <c r="D15" s="58">
+      <c r="C15" s="40">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="D15" s="55">
         <v>1</v>
       </c>
-      <c r="G15" s="116">
+      <c r="G15" s="100">
         <v>2</v>
       </c>
       <c r="H15" t="s">
         <v>908</v>
       </c>
-      <c r="I15" s="82">
-        <f>SUMIFS($C$4:$C$1005, $D$4:$D$1005, $G15, $B$4:$B$1005, "Cyrillic") + SUMIFS($C$4:$C$1005, $D$4:$D$1005, "*" &amp; $G15 &amp; "*", $B$4:$B$1005, "Cyrillic")</f>
-        <v>6.0631500000000015E-3</v>
-      </c>
-      <c r="J15" s="53">
+      <c r="I15" s="78">
+        <f>SUMIFS($C$4:$C$1006, $D$4:$D$1006, $G15, $B$4:$B$1006, "Cyrillic") + SUMIFS($C$4:$C$1006, $D$4:$D$1006, "*" &amp; $G15 &amp; "*", $B$4:$B$1006, "Cyrillic")</f>
+        <v>6.1604600000000004E-3</v>
+      </c>
+      <c r="J15" s="50">
         <f t="shared" si="1"/>
-        <v>6.0468230939006232E-3</v>
+        <v>6.1522323121173898E-3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="40">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="55">
         <v>1</v>
       </c>
-      <c r="G16" s="118">
+      <c r="G16" s="102">
         <v>3</v>
       </c>
       <c r="H16" t="s">
         <v>909</v>
       </c>
-      <c r="I16" s="82">
-        <f>SUMIFS($C$4:$C$1005, $D$4:$D$1005, $G16, $B$4:$B$1005, "Cyrillic") + SUMIFS($C$4:$C$1005, $D$4:$D$1005, "*" &amp; $G16 &amp; "*", $B$4:$B$1005, "Cyrillic")</f>
-        <v>2.9651E-3</v>
-      </c>
-      <c r="J16" s="53">
+      <c r="I16" s="78">
+        <f>SUMIFS($C$4:$C$1006, $D$4:$D$1006, $G16, $B$4:$B$1006, "Cyrillic") + SUMIFS($C$4:$C$1006, $D$4:$D$1006, "*" &amp; $G16 &amp; "*", $B$4:$B$1006, "Cyrillic")</f>
+        <v>2.9961999999999996E-3</v>
+      </c>
+      <c r="J16" s="50">
         <f t="shared" si="1"/>
-        <v>2.9571155514418633E-3</v>
+        <v>2.992198383491837E-3</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="108">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="D17" s="60">
+      <c r="C17" s="92">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="D17" s="57">
         <v>1</v>
       </c>
-      <c r="G17" s="123">
+      <c r="G17" s="107">
         <v>9</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="83">
-        <f>SUMIFS($C$4:$C$1005, $D$4:$D$1005, $G17, $B$4:$B$1005, "Cyrillic") + SUMIFS($C$4:$C$1005, $D$4:$D$1005, "*" &amp; $G17 &amp; "*", $B$4:$B$1005, "Cyrillic")</f>
+      <c r="I17" s="79">
+        <f>SUMIFS($C$4:$C$1006, $D$4:$D$1006, $G17, $B$4:$B$1006, "Cyrillic") + SUMIFS($C$4:$C$1006, $D$4:$D$1006, "*" &amp; $G17 &amp; "*", $B$4:$B$1006, "Cyrillic")</f>
         <v>0</v>
       </c>
-      <c r="J17" s="80">
+      <c r="J17" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="89" t="s">
         <v>780</v>
       </c>
-      <c r="C18" s="108">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D18" s="60">
+      <c r="C18" s="92">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="D18" s="57">
         <v>2</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="64" t="s">
         <v>782</v>
       </c>
-      <c r="I18" s="85"/>
-      <c r="J18" s="52"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="89" t="s">
         <v>897</v>
       </c>
-      <c r="C19" s="108">
+      <c r="C19" s="92">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="D19" s="102">
+      <c r="D19" s="89">
         <v>7</v>
       </c>
-      <c r="E19" s="68" t="s">
+      <c r="E19" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="H19" s="98" t="s">
+      <c r="H19" s="85" t="s">
         <v>904</v>
       </c>
-      <c r="I19" s="97">
-        <f>SUMIF($B$4:$B$1005,"Other",$C$4:$C$1005)</f>
-        <v>9.887934000000001E-2</v>
-      </c>
-      <c r="J19" s="100">
+      <c r="I19" s="84">
+        <f>SUMIF($B$4:$B$1006,"Other",$C$4:$C$1006)</f>
+        <v>9.8420920000000009E-2</v>
+      </c>
+      <c r="J19" s="87">
         <f>I19/($I$4+$I$13+$I$19)</f>
-        <v>9.8613076803584249E-2</v>
+        <v>9.8289472573853412E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="40">
         <v>5.3E-3</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="55">
         <v>1</v>
       </c>
-      <c r="G20" s="121">
+      <c r="G20" s="105">
         <v>7</v>
       </c>
       <c r="H20" t="s">
         <v>905</v>
       </c>
       <c r="I20" s="25">
-        <f>SUMIFS($C$4:$C$1005, $D$4:$D$1005, $G20, $B$4:$B$1005, "Other") + SUMIFS($C$4:$C$1005, $D$4:$D$1005, "*" &amp; $G20 &amp; "*", $B$4:$B$1005, "Other")</f>
-        <v>9.8699230000000013E-2</v>
-      </c>
-      <c r="J20" s="53">
+        <f>SUMIFS($C$4:$C$1006, $D$4:$D$1006, $G20, $B$4:$B$1006, "Other") + SUMIFS($C$4:$C$1006, $D$4:$D$1006, "*" &amp; $G20 &amp; "*", $B$4:$B$1006, "Other")</f>
+        <v>9.824192000000001E-2</v>
+      </c>
+      <c r="J20" s="50">
         <f t="shared" si="1"/>
-        <v>9.8433451805449171E-2</v>
+        <v>9.8110711639788531E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="53" t="s">
         <v>897</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D21" s="56">
+      <c r="D21" s="53">
         <v>7</v>
       </c>
-      <c r="E21" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="G21" s="122">
+      <c r="E21" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="106">
         <v>8</v>
       </c>
       <c r="H21" t="s">
         <v>614</v>
       </c>
       <c r="I21" s="25">
-        <f>SUMIFS($C$4:$C$1005, $D$4:$D$1005, $G21, $B$4:$B$1005, "Other") + SUMIFS($C$4:$C$1005, $D$4:$D$1005, "*" &amp; $G21 &amp; "*", $B$4:$B$1005, "Other")</f>
-        <v>1.7388999999999998E-4</v>
-      </c>
-      <c r="J21" s="53">
+        <f>SUMIFS($C$4:$C$1006, $D$4:$D$1006, $G21, $B$4:$B$1006, "Other") + SUMIFS($C$4:$C$1006, $D$4:$D$1006, "*" &amp; $G21 &amp; "*", $B$4:$B$1006, "Other")</f>
+        <v>1.7295E-4</v>
+      </c>
+      <c r="J21" s="50">
         <f t="shared" si="1"/>
-        <v>1.7342174740825792E-4</v>
+        <v>1.7271901422632443E-4</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="53" t="s">
         <v>897</v>
       </c>
-      <c r="C22" s="41">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D22" s="56">
+      <c r="C22" s="40">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="D22" s="53">
         <v>7</v>
       </c>
-      <c r="E22" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="G22" s="123">
+      <c r="E22" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="107">
         <v>9</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
       </c>
       <c r="I22" s="25">
-        <f>SUMIFS($C$4:$C$1005, $D$4:$D$1005, $G22, $B$4:$B$1005, "Other") + SUMIFS($C$4:$C$1005, $D$4:$D$1005, "*" &amp; $G22 &amp; "*", $B$4:$B$1005, "Other")</f>
-        <v>6.2200000000000006E-6</v>
-      </c>
-      <c r="J22" s="52">
+        <f>SUMIFS($C$4:$C$1006, $D$4:$D$1006, $G22, $B$4:$B$1006, "Other") + SUMIFS($C$4:$C$1006, $D$4:$D$1006, "*" &amp; $G22 &amp; "*", $B$4:$B$1006, "Other")</f>
+        <v>6.0499999999999997E-6</v>
+      </c>
+      <c r="J22" s="49">
         <f t="shared" si="1"/>
-        <v>6.2032507267776437E-6</v>
+        <v>6.041919838503976E-6</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="41">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="D23" s="58">
+      <c r="C23" s="40">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="D23" s="55">
         <v>3</v>
       </c>
-      <c r="E23" s="67" t="s">
-        <v>974</v>
+      <c r="E23" s="64" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>897</v>
-      </c>
-      <c r="C24" s="41">
+        <v>21</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="40">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="D24" s="56">
-        <v>7</v>
-      </c>
-      <c r="E24" s="69" t="s">
-        <v>180</v>
+      <c r="D24" s="55">
+        <v>3</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="41">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="D25" s="58">
-        <v>3</v>
-      </c>
-      <c r="E25" s="67" t="s">
-        <v>604</v>
+        <v>14</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>897</v>
+      </c>
+      <c r="C25" s="40">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D25" s="53">
+        <v>7</v>
+      </c>
+      <c r="E25" s="66" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="40">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="D26" s="58">
+      <c r="D26" s="55">
         <v>4</v>
       </c>
-      <c r="E26" s="131" t="s">
-        <v>975</v>
+      <c r="E26" s="115" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="53" t="s">
         <v>780</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="40">
         <v>2E-3</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D27" s="55">
         <v>3</v>
       </c>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="64" t="s">
         <v>783</v>
       </c>
     </row>
@@ -5352,28 +5439,28 @@
       <c r="A28" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="41">
-        <v>2E-3</v>
-      </c>
-      <c r="D28" s="58">
+      <c r="C28" s="40">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D28" s="55">
         <v>2</v>
       </c>
-      <c r="K28" s="65"/>
+      <c r="K28" s="62"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="41">
-        <v>1.4E-3</v>
-      </c>
-      <c r="D29" s="58">
+      <c r="C29" s="40">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D29" s="55">
         <v>2</v>
       </c>
     </row>
@@ -5381,30 +5468,30 @@
       <c r="A30" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="40">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D30" s="58">
+      <c r="D30" s="55">
         <v>3</v>
       </c>
-      <c r="E30" s="67" t="s">
-        <v>973</v>
+      <c r="E30" s="64" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="53" t="s">
         <v>780</v>
       </c>
-      <c r="C31" s="41">
-        <v>1E-3</v>
-      </c>
-      <c r="D31" s="58">
+      <c r="C31" s="40">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D31" s="55">
         <v>1</v>
       </c>
     </row>
@@ -5412,30 +5499,30 @@
       <c r="A32" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="40">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D32" s="58">
+      <c r="D32" s="55">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="179" t="s">
         <v>681</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="180">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="D33" s="58">
+      <c r="D33" s="181">
         <v>3</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="182" t="s">
         <v>680</v>
       </c>
     </row>
@@ -5443,83 +5530,82 @@
       <c r="A34" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="41">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="D34" s="58">
+      <c r="C34" s="176">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="D34" s="55">
         <v>4</v>
       </c>
-      <c r="E34" s="70" t="s">
-        <v>976</v>
-      </c>
-      <c r="I34" s="39"/>
+      <c r="E34" s="67" t="s">
+        <v>975</v>
+      </c>
+      <c r="I34" s="38"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="53" t="s">
         <v>897</v>
       </c>
-      <c r="C35" s="41">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="D35" s="56">
+      <c r="C35" s="176">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="D35" s="53">
         <v>7</v>
       </c>
-      <c r="E35" s="69" t="s">
+      <c r="E35" s="66" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="42" t="s">
         <v>886</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="177">
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="D36" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="178">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D36" s="59">
-        <v>2</v>
-      </c>
-      <c r="E36" s="66"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="45">
-        <v>4.8999999999999998E-4</v>
-      </c>
-      <c r="D37" s="60">
+      <c r="D37" s="56">
         <v>3</v>
       </c>
-      <c r="E37" s="67" t="s">
-        <v>989</v>
+      <c r="E37" s="151" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="36">
-        <v>4.6999999999999999E-4</v>
-      </c>
-      <c r="D38" s="58">
+      <c r="C38" s="35">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="D38" s="55">
         <v>6</v>
       </c>
-      <c r="E38" s="71" t="s">
+      <c r="E38" s="68" t="s">
         <v>793</v>
       </c>
     </row>
@@ -5527,228 +5613,229 @@
       <c r="A39" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="35">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D39" s="58">
+      <c r="D39" s="55">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="35">
         <v>3.8999999999999999E-4</v>
       </c>
-      <c r="D40" s="58">
+      <c r="D40" s="55">
         <v>3</v>
       </c>
-      <c r="E40" s="67" t="s">
-        <v>607</v>
+      <c r="E40" s="64" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="35">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="D41" s="58">
+      <c r="D41" s="55">
         <v>3</v>
       </c>
-      <c r="E41" s="67" t="s">
-        <v>990</v>
+      <c r="E41" s="64" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="36">
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="D42" s="58">
+      <c r="C42" s="35">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="D42" s="55">
         <v>3</v>
       </c>
-      <c r="E42" s="71" t="s">
+      <c r="E42" s="68" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="36">
-        <v>3.5E-4</v>
-      </c>
-      <c r="D43" s="58">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>780</v>
+      </c>
+      <c r="C43" s="35">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="D43" s="55">
+        <v>3</v>
+      </c>
+      <c r="E43" s="64" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="56" t="s">
-        <v>780</v>
-      </c>
-      <c r="C44" s="36">
+        <v>45</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>897</v>
+      </c>
+      <c r="C44" s="35">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="D44" s="58">
-        <v>3</v>
-      </c>
-      <c r="E44" s="67" t="s">
-        <v>786</v>
+      <c r="D44" s="53">
+        <v>7</v>
+      </c>
+      <c r="E44" s="66" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="56" t="s">
-        <v>897</v>
-      </c>
-      <c r="C45" s="36">
+        <v>43</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="35">
         <v>3.3E-4</v>
       </c>
-      <c r="D45" s="56">
-        <v>7</v>
-      </c>
-      <c r="E45" s="69" t="s">
-        <v>608</v>
+      <c r="D45" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="53" t="s">
         <v>780</v>
       </c>
-      <c r="C46" s="36">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="D46" s="58">
+      <c r="C46" s="35">
+        <v>3.1E-4</v>
+      </c>
+      <c r="D46" s="55">
         <v>3</v>
       </c>
-      <c r="E46" s="71" t="s">
+      <c r="E46" s="68" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="36">
-        <v>2.2000000000000001E-4</v>
-      </c>
-      <c r="D47" s="58">
-        <v>3</v>
-      </c>
-      <c r="E47" s="67" t="s">
-        <v>819</v>
+        <v>49</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>897</v>
+      </c>
+      <c r="C47" s="35">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="D47" s="53">
+        <v>7</v>
+      </c>
+      <c r="E47" s="65" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="56" t="s">
-        <v>897</v>
-      </c>
-      <c r="C48" s="36">
+        <v>48</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="35">
         <v>2.2000000000000001E-4</v>
       </c>
-      <c r="D48" s="56">
-        <v>7</v>
-      </c>
-      <c r="E48" s="68" t="s">
-        <v>609</v>
+      <c r="D48" s="55">
+        <v>3</v>
+      </c>
+      <c r="E48" s="64" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C49" s="43">
         <v>2.1000000000000001E-4</v>
       </c>
-      <c r="D49" s="58">
+      <c r="D49" s="56">
         <v>1</v>
       </c>
+      <c r="E49" s="63"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="53" t="s">
         <v>897</v>
       </c>
       <c r="C50" s="36">
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="D50" s="56">
+        <v>1.93E-4</v>
+      </c>
+      <c r="D50" s="53">
         <v>7</v>
       </c>
-      <c r="E50" s="68" t="s">
+      <c r="E50" s="65" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="132" t="s">
+      <c r="A51" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="56" t="s">
+      <c r="B51" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="86">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="D51" s="58">
+      <c r="C51" s="156">
+        <v>8.5000000000000006E-5</v>
+      </c>
+      <c r="D51" s="55">
         <v>3</v>
       </c>
-      <c r="E51" s="71" t="s">
-        <v>1015</v>
+      <c r="E51" s="68" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="134" t="s">
+      <c r="A52" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="158" t="s">
         <v>780</v>
       </c>
-      <c r="C52" s="87">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="D52" s="58">
+      <c r="C52" s="159">
+        <v>8.5000000000000006E-5</v>
+      </c>
+      <c r="D52" s="55">
         <v>3</v>
       </c>
-      <c r="E52" s="67" t="s">
+      <c r="E52" s="64" t="s">
         <v>788</v>
       </c>
     </row>
@@ -5756,118 +5843,118 @@
       <c r="A53" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="53" t="s">
         <v>780</v>
       </c>
       <c r="C53" s="36">
-        <v>1.2E-4</v>
-      </c>
-      <c r="D53" s="58">
+        <v>1.17E-4</v>
+      </c>
+      <c r="D53" s="55">
         <v>3</v>
       </c>
-      <c r="E53" s="71" t="s">
+      <c r="E53" s="68" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="154" t="s">
+        <v>828</v>
+      </c>
+      <c r="B54" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="156">
+        <v>5.5000000000000002E-5</v>
+      </c>
+      <c r="D54" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="157" t="s">
+        <v>828</v>
+      </c>
+      <c r="B55" s="158" t="s">
+        <v>780</v>
+      </c>
+      <c r="C55" s="159">
+        <v>5.5000000000000002E-5</v>
+      </c>
+      <c r="D55" s="55">
+        <v>3</v>
+      </c>
+      <c r="E55" s="68" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="56" t="s">
+      <c r="B56" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="36">
-        <v>1.1E-4</v>
-      </c>
-      <c r="D54" s="58" t="s">
+      <c r="C56" s="36">
+        <v>1.0900000000000001E-4</v>
+      </c>
+      <c r="D56" s="55" t="s">
         <v>691</v>
       </c>
-      <c r="E54" s="71" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="132" t="s">
-        <v>828</v>
-      </c>
-      <c r="B55" s="56" t="s">
+      <c r="E56" s="68" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="42" t="s">
+        <v>611</v>
+      </c>
+      <c r="B57" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="88">
-        <v>5.5000000000000002E-5</v>
-      </c>
-      <c r="D55" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="134" t="s">
-        <v>828</v>
-      </c>
-      <c r="B56" s="56" t="s">
-        <v>780</v>
-      </c>
-      <c r="C56" s="89">
-        <v>5.5000000000000002E-5</v>
-      </c>
-      <c r="D56" s="58">
+      <c r="C57" s="152">
+        <v>1.03E-4</v>
+      </c>
+      <c r="D57" s="57">
         <v>3</v>
       </c>
-      <c r="E56" s="71" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="E57" s="68" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B58" s="158" t="s">
         <v>897</v>
       </c>
-      <c r="C57" s="36">
-        <v>1E-4</v>
-      </c>
-      <c r="D57" s="56">
+      <c r="C58" s="183">
+        <v>1.02E-4</v>
+      </c>
+      <c r="D58" s="158">
         <v>7</v>
       </c>
-      <c r="E57" s="72" t="s">
+      <c r="E58" s="184" t="s">
         <v>809</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F58" s="15" t="s">
         <v>910</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
-        <v>611</v>
-      </c>
-      <c r="B58" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" s="46">
-        <v>1E-4</v>
-      </c>
-      <c r="D58" s="59">
-        <v>3</v>
-      </c>
-      <c r="E58" s="73" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="53" t="s">
         <v>780</v>
       </c>
-      <c r="C59" s="37">
-        <v>6.2000000000000003E-5</v>
-      </c>
-      <c r="D59" s="58">
+      <c r="C59" s="36">
+        <v>5.8999999999999998E-5</v>
+      </c>
+      <c r="D59" s="55">
         <v>2</v>
       </c>
-      <c r="E59" s="71" t="s">
+      <c r="E59" s="68" t="s">
         <v>791</v>
       </c>
     </row>
@@ -5875,16 +5962,16 @@
       <c r="A60" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="56" t="s">
+      <c r="B60" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="37">
-        <v>5.5999999999999999E-5</v>
-      </c>
-      <c r="D60" s="58">
+      <c r="C60" s="36">
+        <v>5.8E-5</v>
+      </c>
+      <c r="D60" s="55">
         <v>6</v>
       </c>
-      <c r="E60" s="71" t="s">
+      <c r="E60" s="68" t="s">
         <v>817</v>
       </c>
     </row>
@@ -5892,13 +5979,13 @@
       <c r="A61" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="37">
-        <v>4.8000000000000001E-5</v>
-      </c>
-      <c r="D61" s="58">
+      <c r="C61" s="36">
+        <v>4.6E-5</v>
+      </c>
+      <c r="D61" s="55">
         <v>2</v>
       </c>
       <c r="I61" s="5"/>
@@ -5907,16 +5994,16 @@
       <c r="A62" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="56" t="s">
+      <c r="B62" s="53" t="s">
         <v>897</v>
       </c>
-      <c r="C62" s="37">
-        <v>4.5000000000000003E-5</v>
-      </c>
-      <c r="D62" s="56">
+      <c r="C62" s="36">
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="D62" s="53">
         <v>7</v>
       </c>
-      <c r="E62" s="68" t="s">
+      <c r="E62" s="65" t="s">
         <v>612</v>
       </c>
     </row>
@@ -5924,16 +6011,16 @@
       <c r="A63" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="56" t="s">
+      <c r="B63" s="53" t="s">
         <v>897</v>
       </c>
-      <c r="C63" s="37">
+      <c r="C63" s="36">
         <v>4.3000000000000002E-5</v>
       </c>
-      <c r="D63" s="56">
+      <c r="D63" s="53">
         <v>7</v>
       </c>
-      <c r="E63" s="68" t="s">
+      <c r="E63" s="65" t="s">
         <v>612</v>
       </c>
     </row>
@@ -5941,50 +6028,50 @@
       <c r="A64" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="56" t="s">
+      <c r="B64" s="53" t="s">
         <v>897</v>
       </c>
-      <c r="C64" s="37">
-        <v>3.1000000000000001E-5</v>
-      </c>
-      <c r="D64" s="56">
+      <c r="C64" s="36">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="D64" s="53">
         <v>8</v>
       </c>
-      <c r="E64" s="65" t="s">
+      <c r="E64" s="62" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65" s="37">
-        <v>2.8E-5</v>
-      </c>
-      <c r="D65" s="58">
-        <v>6</v>
-      </c>
-      <c r="E65" s="71" t="s">
-        <v>703</v>
+        <v>66</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>897</v>
+      </c>
+      <c r="C65" s="36">
+        <v>2.9E-5</v>
+      </c>
+      <c r="D65" s="53">
+        <v>8</v>
+      </c>
+      <c r="E65" s="62" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="56" t="s">
+      <c r="B66" s="53" t="s">
         <v>897</v>
       </c>
-      <c r="C66" s="37">
+      <c r="C66" s="36">
         <v>2.8E-5</v>
       </c>
-      <c r="D66" s="56">
+      <c r="D66" s="53">
         <v>8</v>
       </c>
-      <c r="E66" s="65" t="s">
+      <c r="E66" s="62" t="s">
         <v>615</v>
       </c>
     </row>
@@ -5992,122 +6079,122 @@
       <c r="A67" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="56" t="s">
+      <c r="B67" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="37">
-        <v>2.8E-5</v>
-      </c>
-      <c r="D67" s="58">
+      <c r="C67" s="36">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="D67" s="55">
         <v>1</v>
       </c>
-      <c r="I67" s="5"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" s="56" t="s">
-        <v>897</v>
-      </c>
-      <c r="C68" s="37">
-        <v>2.6999999999999999E-5</v>
-      </c>
-      <c r="D68" s="56">
-        <v>8</v>
-      </c>
-      <c r="E68" s="65" t="s">
-        <v>615</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>780</v>
+      </c>
+      <c r="C68" s="36">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="D68" s="55" t="s">
+        <v>803</v>
+      </c>
+      <c r="E68" s="68" t="s">
+        <v>898</v>
+      </c>
+      <c r="I68" s="5"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B69" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C69" s="37">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="D69" s="58">
+      <c r="C69" s="36">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="D69" s="55">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B70" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="37">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="D70" s="58">
-        <v>2</v>
+      <c r="C70" s="36">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="D70" s="55">
+        <v>6</v>
+      </c>
+      <c r="E70" s="68" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" s="56" t="s">
-        <v>780</v>
-      </c>
-      <c r="C71" s="37">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="D71" s="58" t="s">
-        <v>803</v>
-      </c>
-      <c r="E71" s="71" t="s">
-        <v>898</v>
+        <v>65</v>
+      </c>
+      <c r="B71" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="36">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="D71" s="55">
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="37">
-        <v>2.4000000000000001E-5</v>
-      </c>
-      <c r="D72" s="58">
+      <c r="C72" s="36">
+        <v>2.3E-5</v>
+      </c>
+      <c r="D72" s="55">
         <v>2</v>
       </c>
-      <c r="I72" s="5"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="56" t="s">
+      <c r="B73" s="53" t="s">
         <v>897</v>
       </c>
-      <c r="C73" s="37">
+      <c r="C73" s="36">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="D73" s="56">
+      <c r="D73" s="53">
         <v>8</v>
       </c>
-      <c r="E73" s="65" t="s">
+      <c r="E73" s="62" t="s">
         <v>615</v>
       </c>
+      <c r="I73" s="5"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="56" t="s">
+      <c r="B74" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C74" s="37">
+      <c r="C74" s="36">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="D74" s="58">
+      <c r="D74" s="55">
         <v>2</v>
       </c>
     </row>
@@ -6115,16 +6202,16 @@
       <c r="A75" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="C75" s="48">
+      <c r="C75" s="45">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="D75" s="59">
+      <c r="D75" s="56">
         <v>6</v>
       </c>
-      <c r="E75" s="73" t="s">
+      <c r="E75" s="69" t="s">
         <v>650</v>
       </c>
     </row>
@@ -6132,16 +6219,16 @@
       <c r="A76" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="56" t="s">
+      <c r="B76" s="53" t="s">
         <v>897</v>
       </c>
-      <c r="C76" s="35">
-        <v>1.8E-5</v>
-      </c>
-      <c r="D76" s="56">
+      <c r="C76" s="44">
+        <v>1.7799999999999999E-5</v>
+      </c>
+      <c r="D76" s="53">
         <v>7</v>
       </c>
-      <c r="E76" s="68" t="s">
+      <c r="E76" s="65" t="s">
         <v>612</v>
       </c>
     </row>
@@ -6149,16 +6236,16 @@
       <c r="A77" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="56" t="s">
+      <c r="B77" s="53" t="s">
         <v>897</v>
       </c>
-      <c r="C77" s="35">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="D77" s="56">
+      <c r="C77" s="44">
+        <v>1.7099999999999999E-5</v>
+      </c>
+      <c r="D77" s="53">
         <v>7</v>
       </c>
-      <c r="E77" s="68" t="s">
+      <c r="E77" s="65" t="s">
         <v>612</v>
       </c>
     </row>
@@ -6166,16 +6253,16 @@
       <c r="A78" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B78" s="56" t="s">
+      <c r="B78" s="53" t="s">
         <v>897</v>
       </c>
-      <c r="C78" s="35">
-        <v>1.5E-5</v>
-      </c>
-      <c r="D78" s="56">
+      <c r="C78" s="44">
+        <v>1.6900000000000001E-5</v>
+      </c>
+      <c r="D78" s="53">
         <v>7</v>
       </c>
-      <c r="E78" s="68" t="s">
+      <c r="E78" s="65" t="s">
         <v>612</v>
       </c>
     </row>
@@ -6183,1594 +6270,1592 @@
       <c r="A79" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B79" s="56" t="s">
+      <c r="B79" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C79" s="35">
-        <v>1.4E-5</v>
-      </c>
-      <c r="D79" s="58">
+      <c r="C79" s="44">
+        <v>1.5E-5</v>
+      </c>
+      <c r="D79" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B80" s="56" t="s">
-        <v>897</v>
-      </c>
-      <c r="C80" s="35">
-        <v>1.4E-5</v>
-      </c>
-      <c r="D80" s="56">
-        <v>8</v>
-      </c>
-      <c r="E80" s="65" t="s">
-        <v>615</v>
+        <v>77</v>
+      </c>
+      <c r="B80" s="53" t="s">
+        <v>780</v>
+      </c>
+      <c r="C80" s="44">
+        <v>1.38E-5</v>
+      </c>
+      <c r="D80" s="55">
+        <v>3</v>
+      </c>
+      <c r="E80" s="68" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B81" s="56" t="s">
-        <v>780</v>
-      </c>
-      <c r="C81" s="35">
-        <v>1.4E-5</v>
-      </c>
-      <c r="D81" s="58">
+        <v>618</v>
+      </c>
+      <c r="B81" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="44">
+        <v>1.33E-5</v>
+      </c>
+      <c r="D81" s="55">
         <v>3</v>
       </c>
-      <c r="E81" s="71" t="s">
-        <v>794</v>
+      <c r="E81" s="64" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B82" s="56" t="s">
-        <v>897</v>
-      </c>
-      <c r="C82" s="35">
+        <v>79</v>
+      </c>
+      <c r="B82" s="53" t="s">
+        <v>780</v>
+      </c>
+      <c r="C82" s="44">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="D82" s="56">
-        <v>8</v>
-      </c>
-      <c r="E82" s="65" t="s">
-        <v>615</v>
+      <c r="D82" s="55">
+        <v>3</v>
+      </c>
+      <c r="E82" s="68" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B83" s="56" t="s">
+      <c r="A83" s="154" t="s">
+        <v>916</v>
+      </c>
+      <c r="B83" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="160">
+        <v>6.3999999999999997E-6</v>
+      </c>
+      <c r="D83" s="55">
+        <v>2</v>
+      </c>
+      <c r="E83" s="68" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="157" t="s">
+        <v>916</v>
+      </c>
+      <c r="B84" s="158" t="s">
         <v>780</v>
       </c>
-      <c r="C83" s="35">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="D83" s="58">
+      <c r="C84" s="161">
+        <v>6.3999999999999997E-6</v>
+      </c>
+      <c r="D84" s="55">
         <v>3</v>
       </c>
-      <c r="E83" s="71" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
-        <v>618</v>
-      </c>
-      <c r="B84" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C84" s="35">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="D84" s="58">
-        <v>3</v>
-      </c>
-      <c r="E84" s="67" t="s">
-        <v>621</v>
+      <c r="E84" s="68" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" s="53" t="s">
+        <v>897</v>
+      </c>
+      <c r="C85" s="44">
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="D85" s="53">
+        <v>8</v>
+      </c>
+      <c r="E85" s="62" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" s="53" t="s">
+        <v>897</v>
+      </c>
+      <c r="C86" s="44">
+        <v>1.17E-5</v>
+      </c>
+      <c r="D86" s="53">
+        <v>8</v>
+      </c>
+      <c r="E86" s="62" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B85" s="56" t="s">
+      <c r="B87" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C85" s="35">
-        <v>1.2E-5</v>
-      </c>
-      <c r="D85" s="58">
+      <c r="C87" s="44">
+        <v>1.1E-5</v>
+      </c>
+      <c r="D87" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="132" t="s">
-        <v>916</v>
-      </c>
-      <c r="B86" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86" s="88">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="D86" s="58">
-        <v>2</v>
-      </c>
-      <c r="E86" s="71" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="134" t="s">
-        <v>916</v>
-      </c>
-      <c r="B87" s="56" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="89" t="s">
         <v>780</v>
       </c>
-      <c r="C87" s="89">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="D87" s="58">
+      <c r="C88" s="90">
+        <v>1.0900000000000001E-5</v>
+      </c>
+      <c r="D88" s="57">
         <v>3</v>
       </c>
-      <c r="E87" s="71" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="56" t="s">
-        <v>897</v>
-      </c>
-      <c r="C88" s="35">
-        <v>1.1E-5</v>
-      </c>
-      <c r="D88" s="56">
-        <v>7</v>
-      </c>
-      <c r="E88" s="68" t="s">
-        <v>626</v>
+      <c r="E88" s="70" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="56" t="s">
+      <c r="B89" s="53" t="s">
         <v>897</v>
       </c>
-      <c r="C89" s="35">
-        <v>1.1E-5</v>
-      </c>
-      <c r="D89" s="56">
+      <c r="C89" s="44">
+        <v>1.01E-5</v>
+      </c>
+      <c r="D89" s="53">
         <v>8</v>
       </c>
-      <c r="E89" s="65" t="s">
+      <c r="E89" s="62" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B90" s="57" t="s">
-        <v>780</v>
-      </c>
-      <c r="C90" s="48">
-        <v>1.1E-5</v>
-      </c>
-      <c r="D90" s="59">
-        <v>3</v>
-      </c>
-      <c r="E90" s="103" t="s">
-        <v>718</v>
+      <c r="A90" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" s="44">
+        <v>9.3000000000000007E-6</v>
+      </c>
+      <c r="D90" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" s="56" t="s">
+      <c r="A91" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" s="53" t="s">
         <v>897</v>
       </c>
-      <c r="C91" s="47">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="D91" s="56">
-        <v>7</v>
-      </c>
-      <c r="E91" s="68" t="s">
-        <v>627</v>
+      <c r="C91" s="44">
+        <v>9.0999999999999993E-6</v>
+      </c>
+      <c r="D91" s="53">
+        <v>8</v>
+      </c>
+      <c r="E91" s="62" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B92" s="56" t="s">
-        <v>897</v>
-      </c>
-      <c r="C92" s="47">
-        <v>8.6999999999999997E-6</v>
-      </c>
-      <c r="D92" s="56">
-        <v>8</v>
-      </c>
-      <c r="E92" s="65" t="s">
-        <v>615</v>
+        <v>91</v>
+      </c>
+      <c r="B92" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" s="44">
+        <v>8.8000000000000004E-6</v>
+      </c>
+      <c r="D92" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C93" s="47">
-        <v>8.4999999999999999E-6</v>
-      </c>
-      <c r="D93" s="58">
-        <v>1</v>
+      <c r="C93" s="44">
+        <v>8.6999999999999997E-6</v>
+      </c>
+      <c r="D93" s="55">
+        <v>2</v>
+      </c>
+      <c r="E93" s="64" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B94" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C94" s="47">
-        <v>8.4999999999999999E-6</v>
-      </c>
-      <c r="D94" s="58">
-        <v>2</v>
-      </c>
-      <c r="E94" s="67" t="s">
-        <v>1013</v>
+        <v>87</v>
+      </c>
+      <c r="B94" s="53" t="s">
+        <v>897</v>
+      </c>
+      <c r="C94" s="44">
+        <v>8.1999999999999994E-6</v>
+      </c>
+      <c r="D94" s="53">
+        <v>7</v>
+      </c>
+      <c r="E94" s="65" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B95" s="56" t="s">
+      <c r="B95" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C95" s="47">
-        <v>8.4999999999999999E-6</v>
-      </c>
-      <c r="D95" s="58">
+      <c r="C95" s="44">
+        <v>8.1999999999999994E-6</v>
+      </c>
+      <c r="D95" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B96" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C96" s="47">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="D96" s="58">
-        <v>1</v>
+      <c r="A96" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B96" s="53" t="s">
+        <v>897</v>
+      </c>
+      <c r="C96" s="44">
+        <v>7.7999999999999999E-6</v>
+      </c>
+      <c r="D96" s="53">
+        <v>7</v>
+      </c>
+      <c r="E96" s="65" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B97" s="56" t="s">
+      <c r="B97" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="47">
-        <v>7.7999999999999999E-6</v>
-      </c>
-      <c r="D97" s="58">
+      <c r="C97" s="44">
+        <v>7.4000000000000003E-6</v>
+      </c>
+      <c r="D97" s="55">
         <v>3</v>
       </c>
-      <c r="E97" s="71" t="s">
+      <c r="E97" s="68" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" s="56" t="s">
-        <v>897</v>
-      </c>
-      <c r="C98" s="47">
-        <v>6.8000000000000001E-6</v>
-      </c>
-      <c r="D98" s="56">
-        <v>8</v>
-      </c>
-      <c r="E98" s="65" t="s">
-        <v>615</v>
+        <v>95</v>
+      </c>
+      <c r="B98" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" s="44">
+        <v>6.2999999999999998E-6</v>
+      </c>
+      <c r="D98" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B99" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C99" s="47">
-        <v>6.8000000000000001E-6</v>
-      </c>
-      <c r="D99" s="58">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="B99" s="53" t="s">
+        <v>897</v>
+      </c>
+      <c r="C99" s="44">
+        <v>6.2999999999999998E-6</v>
+      </c>
+      <c r="D99" s="53">
+        <v>8</v>
+      </c>
+      <c r="E99" s="62" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B100" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C100" s="47">
-        <v>6.4999999999999996E-6</v>
-      </c>
-      <c r="D100" s="58">
+      <c r="C100" s="44">
+        <v>6.1E-6</v>
+      </c>
+      <c r="D100" s="55">
         <v>3</v>
       </c>
-      <c r="E100" s="71" t="s">
-        <v>656</v>
+      <c r="E100" s="68" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B101" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C101" s="47">
-        <v>6.2999999999999998E-6</v>
-      </c>
-      <c r="D101" s="58">
+      <c r="C101" s="44">
+        <v>6.1E-6</v>
+      </c>
+      <c r="D101" s="55">
         <v>3</v>
       </c>
-      <c r="E101" s="71" t="s">
-        <v>686</v>
+      <c r="E101" s="68" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="B102" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C102" s="47">
-        <v>6.1E-6</v>
-      </c>
-      <c r="D102" s="58">
+      <c r="C102" s="44">
+        <v>5.8000000000000004E-6</v>
+      </c>
+      <c r="D102" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B103" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C103" s="47">
-        <v>5.4999999999999999E-6</v>
-      </c>
-      <c r="D103" s="58">
-        <v>1</v>
+      <c r="C103" s="44">
+        <v>4.8999999999999997E-6</v>
+      </c>
+      <c r="D103" s="55">
+        <v>6</v>
+      </c>
+      <c r="E103" s="68" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
         <v>628</v>
       </c>
-      <c r="B104" s="56" t="s">
+      <c r="B104" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C104" s="47">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="D104" s="58">
+      <c r="C104" s="44">
+        <v>4.8999999999999997E-6</v>
+      </c>
+      <c r="D104" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B105" s="56" t="s">
+      <c r="A105" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B105" s="89" t="s">
         <v>897</v>
       </c>
-      <c r="C105" s="47">
-        <v>4.7999999999999998E-6</v>
-      </c>
-      <c r="D105" s="56">
-        <v>8</v>
-      </c>
-      <c r="E105" s="65" t="s">
-        <v>615</v>
+      <c r="C105" s="90">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="D105" s="89">
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B106" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B106" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C106" s="47">
-        <v>4.7999999999999998E-6</v>
-      </c>
-      <c r="D106" s="58">
-        <v>6</v>
-      </c>
-      <c r="E106" s="71" t="s">
-        <v>689</v>
+      <c r="C106" s="44">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="D106" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="B107" s="102" t="s">
+      <c r="A107" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B107" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C107" s="44">
+        <v>4.4000000000000002E-6</v>
+      </c>
+      <c r="D107" s="55">
+        <v>3</v>
+      </c>
+      <c r="E107" s="68" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B108" s="53" t="s">
         <v>897</v>
       </c>
-      <c r="C107" s="106">
-        <v>4.3000000000000003E-6</v>
-      </c>
-      <c r="D107" s="102">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B108" s="56" t="s">
+      <c r="C108" s="44">
+        <v>4.1999999999999996E-6</v>
+      </c>
+      <c r="D108" s="53">
+        <v>8</v>
+      </c>
+      <c r="E108" s="62" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B109" s="53" t="s">
+        <v>897</v>
+      </c>
+      <c r="C109" s="44">
+        <v>3.8E-6</v>
+      </c>
+      <c r="D109" s="53">
+        <v>8</v>
+      </c>
+      <c r="E109" s="62" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B110" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C108" s="47">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="D108" s="58">
-        <v>3</v>
-      </c>
-      <c r="E108" s="71" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="132" t="s">
-        <v>629</v>
-      </c>
-      <c r="B109" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C109" s="104">
-        <v>1.5999999999999999E-6</v>
-      </c>
-      <c r="D109" s="58">
-        <v>3</v>
-      </c>
-      <c r="E109" s="71" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="134" t="s">
-        <v>630</v>
-      </c>
-      <c r="B110" s="56" t="s">
-        <v>897</v>
-      </c>
-      <c r="C110" s="105">
-        <v>1.5999999999999999E-6</v>
-      </c>
-      <c r="D110" s="56">
-        <v>9</v>
-      </c>
-      <c r="E110" s="74"/>
+      <c r="C110" s="44">
+        <v>2.7999999999999999E-6</v>
+      </c>
+      <c r="D110" s="55">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B111" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B111" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C111" s="47">
+      <c r="C111" s="44">
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="D111" s="58">
+      <c r="D111" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B112" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B112" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C112" s="47">
-        <v>3.1999999999999999E-6</v>
-      </c>
-      <c r="D112" s="58">
-        <v>1</v>
+      <c r="C112" s="44">
+        <v>2.0999999999999998E-6</v>
+      </c>
+      <c r="D112" s="55">
+        <v>6</v>
+      </c>
+      <c r="E112" s="64" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="22" t="s">
-        <v>631</v>
-      </c>
-      <c r="B113" s="56" t="s">
+      <c r="A113" s="154" t="s">
+        <v>629</v>
+      </c>
+      <c r="B113" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="C113" s="47">
-        <v>2.0999999999999998E-6</v>
-      </c>
-      <c r="D113" s="58">
-        <v>6</v>
-      </c>
-      <c r="E113" s="67" t="s">
-        <v>640</v>
+      <c r="C113" s="160">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D113" s="55">
+        <v>3</v>
+      </c>
+      <c r="E113" s="68" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B114" s="56" t="s">
+      <c r="A114" s="157" t="s">
+        <v>630</v>
+      </c>
+      <c r="B114" s="158" t="s">
         <v>897</v>
       </c>
-      <c r="C114" s="47">
-        <v>2.7999999999999999E-6</v>
-      </c>
-      <c r="D114" s="56">
-        <v>8</v>
-      </c>
-      <c r="E114" s="65" t="s">
-        <v>615</v>
-      </c>
+      <c r="C114" s="161">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D114" s="53">
+        <v>9</v>
+      </c>
+      <c r="E114" s="70"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B115" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B115" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C115" s="47">
+      <c r="C115" s="44">
         <v>1.9E-6</v>
       </c>
-      <c r="D115" s="58">
-        <v>6</v>
-      </c>
-      <c r="E115" s="67" t="s">
-        <v>1017</v>
+      <c r="D115" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B116" s="56" t="s">
+        <v>631</v>
+      </c>
+      <c r="B116" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C116" s="47">
-        <v>1.9E-6</v>
-      </c>
-      <c r="D116" s="58">
-        <v>1</v>
+      <c r="C116" s="44">
+        <v>1.7E-6</v>
+      </c>
+      <c r="D116" s="55">
+        <v>6</v>
+      </c>
+      <c r="E116" s="64" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B117" s="56" t="s">
-        <v>897</v>
-      </c>
-      <c r="C117" s="47">
-        <v>1.7999999999999999E-6</v>
-      </c>
-      <c r="D117" s="56">
-        <v>8</v>
-      </c>
-      <c r="E117" s="65" t="s">
-        <v>615</v>
+        <v>125</v>
+      </c>
+      <c r="B117" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C117" s="44">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="D117" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B118" s="56" t="s">
-        <v>897</v>
-      </c>
-      <c r="C118" s="47">
-        <v>1.7E-6</v>
-      </c>
-      <c r="D118" s="56">
-        <v>8</v>
-      </c>
-      <c r="E118" s="65" t="s">
-        <v>615</v>
+        <v>126</v>
+      </c>
+      <c r="B118" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C118" s="44">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="D118" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B119" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C119" s="47">
-        <v>1.5999999999999999E-6</v>
-      </c>
-      <c r="D119" s="58">
-        <v>1</v>
-      </c>
-      <c r="K119" s="65"/>
+        <v>111</v>
+      </c>
+      <c r="B119" s="53" t="s">
+        <v>897</v>
+      </c>
+      <c r="C119" s="44">
+        <v>1.5E-6</v>
+      </c>
+      <c r="D119" s="53">
+        <v>8</v>
+      </c>
+      <c r="E119" s="62" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B120" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C120" s="47">
+        <v>116</v>
+      </c>
+      <c r="B120" s="53" t="s">
+        <v>897</v>
+      </c>
+      <c r="C120" s="44">
         <v>1.5E-6</v>
       </c>
-      <c r="D120" s="58">
-        <v>1</v>
-      </c>
-      <c r="G120" s="34"/>
-      <c r="H120" s="56"/>
-      <c r="I120" s="47"/>
-      <c r="J120" s="58"/>
-      <c r="K120" s="79"/>
+      <c r="D120" s="53">
+        <v>8</v>
+      </c>
+      <c r="E120" s="62" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B121" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C121" s="47">
-        <v>1.5E-6</v>
-      </c>
-      <c r="D121" s="58">
-        <v>1</v>
-      </c>
-      <c r="L121" s="71" t="s">
-        <v>899</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B121" s="53" t="s">
+        <v>780</v>
+      </c>
+      <c r="C121" s="44">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="D121" s="55" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E121" s="62" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K121" s="62"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B122" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B122" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C122" s="47">
+      <c r="C122" s="44">
         <v>1.3999999999999999E-6</v>
       </c>
-      <c r="D122" s="58">
-        <v>1</v>
-      </c>
+      <c r="D122" s="55">
+        <v>3</v>
+      </c>
+      <c r="E122" s="68" t="s">
+        <v>822</v>
+      </c>
+      <c r="G122" s="34"/>
+      <c r="H122" s="53"/>
+      <c r="I122" s="44"/>
+      <c r="J122" s="55"/>
+      <c r="K122" s="75"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B123" s="56" t="s">
-        <v>780</v>
-      </c>
-      <c r="C123" s="47">
-        <v>1.3999999999999999E-6</v>
-      </c>
-      <c r="D123" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E123" s="65" t="s">
-        <v>1019</v>
+        <v>112</v>
+      </c>
+      <c r="B123" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C123" s="44">
+        <v>1.3E-6</v>
+      </c>
+      <c r="D123" s="55">
+        <v>1</v>
+      </c>
+      <c r="L123" s="68" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B124" s="57" t="s">
+      <c r="A124" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C124" s="49">
-        <v>1.3E-6</v>
-      </c>
-      <c r="D124" s="59">
-        <v>3</v>
-      </c>
-      <c r="E124" s="73" t="s">
-        <v>821</v>
-      </c>
+      <c r="C124" s="44">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="D124" s="55">
+        <v>1</v>
+      </c>
+      <c r="L124" s="153"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C125" s="16" t="s">
-        <v>893</v>
-      </c>
-      <c r="D125" s="60"/>
-      <c r="E125" s="71"/>
+      <c r="A125" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B125" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C125" s="44">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="D125" s="55">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B126" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C126" s="44">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="D126" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B127" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C127" s="46">
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="D127" s="56">
+        <v>3</v>
+      </c>
+      <c r="E127" s="69" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C128" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="D128" s="57"/>
+      <c r="E128" s="68"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B129" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C129" s="47">
+        <v>9.7999999999999993E-7</v>
+      </c>
+      <c r="D129" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B130" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C130" s="47">
+        <v>9.7000000000000003E-7</v>
+      </c>
+      <c r="D130" s="55">
+        <v>3</v>
+      </c>
+      <c r="E130" s="64" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B131" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C131" s="47">
+        <v>9.5999999999999991E-7</v>
+      </c>
+      <c r="D131" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B126" s="56" t="s">
+      <c r="B132" s="53" t="s">
         <v>897</v>
       </c>
-      <c r="C126" s="50">
-        <v>9.9000000000000005E-7</v>
-      </c>
-      <c r="D126" s="56">
+      <c r="C132" s="47">
+        <v>9.5000000000000001E-7</v>
+      </c>
+      <c r="D132" s="53">
         <v>8</v>
       </c>
-      <c r="E126" s="65" t="s">
+      <c r="E132" s="62" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B127" s="56" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="154" t="s">
+        <v>129</v>
+      </c>
+      <c r="B133" s="155" t="s">
+        <v>897</v>
+      </c>
+      <c r="C133" s="162">
+        <v>4.7E-7</v>
+      </c>
+      <c r="D133" s="53">
+        <v>7</v>
+      </c>
+      <c r="E133" s="65" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="157" t="s">
+        <v>649</v>
+      </c>
+      <c r="B134" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="C127" s="50">
-        <v>9.7999999999999993E-7</v>
-      </c>
-      <c r="D127" s="58">
+      <c r="C134" s="163">
+        <v>4.7E-7</v>
+      </c>
+      <c r="D134" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B135" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C135" s="47">
+        <v>9.2999999999999999E-7</v>
+      </c>
+      <c r="D135" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C136" s="47">
+        <v>9.1999999999999998E-7</v>
+      </c>
+      <c r="D136" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B137" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C137" s="47">
+        <v>9.0999999999999997E-7</v>
+      </c>
+      <c r="D137" s="55">
+        <v>6</v>
+      </c>
+      <c r="E137" s="64" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B138" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C138" s="47">
+        <v>8.9999999999999996E-7</v>
+      </c>
+      <c r="D138" s="55">
         <v>3</v>
       </c>
-      <c r="E127" s="71" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B128" s="56" t="s">
+      <c r="E138" s="64" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B139" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C128" s="50">
-        <v>9.7000000000000003E-7</v>
-      </c>
-      <c r="D128" s="58">
-        <v>3</v>
-      </c>
-      <c r="E128" s="67" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B129" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C129" s="50">
-        <v>9.5999999999999991E-7</v>
-      </c>
-      <c r="D129" s="58">
+      <c r="C139" s="47">
+        <v>8.8999999999999995E-7</v>
+      </c>
+      <c r="D139" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B130" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C130" s="50">
-        <v>9.5000000000000001E-7</v>
-      </c>
-      <c r="D130" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B131" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C131" s="50">
-        <v>9.4E-7</v>
-      </c>
-      <c r="D131" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="132" t="s">
-        <v>129</v>
-      </c>
-      <c r="B132" s="56" t="s">
-        <v>897</v>
-      </c>
-      <c r="C132" s="90">
-        <v>4.5999999999999999E-7</v>
-      </c>
-      <c r="D132" s="56">
-        <v>7</v>
-      </c>
-      <c r="E132" s="68" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="134" t="s">
-        <v>649</v>
-      </c>
-      <c r="B133" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C133" s="92">
-        <v>4.5999999999999999E-7</v>
-      </c>
-      <c r="D133" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B134" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C134" s="50">
-        <v>9.1999999999999998E-7</v>
-      </c>
-      <c r="D134" s="58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B135" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C135" s="50">
-        <v>9.0999999999999997E-7</v>
-      </c>
-      <c r="D135" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B136" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C136" s="50">
-        <v>8.9999999999999996E-7</v>
-      </c>
-      <c r="D136" s="58">
-        <v>6</v>
-      </c>
-      <c r="E136" s="67" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B137" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C137" s="50">
-        <v>8.8999999999999995E-7</v>
-      </c>
-      <c r="D137" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="132" t="s">
-        <v>136</v>
-      </c>
-      <c r="B138" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C138" s="90">
-        <v>4.4000000000000002E-7</v>
-      </c>
-      <c r="D138" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="134" t="s">
-        <v>653</v>
-      </c>
-      <c r="B139" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C139" s="92">
-        <v>4.4000000000000002E-7</v>
-      </c>
-      <c r="D139" s="58">
-        <v>3</v>
-      </c>
-      <c r="E139" s="71" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="B140" s="56" t="s">
+      <c r="B140" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C140" s="50">
-        <v>8.7000000000000003E-7</v>
-      </c>
-      <c r="D140" s="58">
+      <c r="C140" s="47">
+        <v>8.8000000000000004E-7</v>
+      </c>
+      <c r="D140" s="55">
         <v>3</v>
       </c>
-      <c r="E140" s="67" t="s">
+      <c r="E140" s="64" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B141" s="56" t="s">
+      <c r="B141" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C141" s="50">
+      <c r="C141" s="47">
+        <v>8.7000000000000003E-7</v>
+      </c>
+      <c r="D141" s="55">
+        <v>3</v>
+      </c>
+      <c r="E141" s="68" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C142" s="47">
         <v>8.6000000000000002E-7</v>
       </c>
-      <c r="D141" s="58">
+      <c r="D142" s="58">
         <v>3</v>
       </c>
-      <c r="E141" s="71" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B142" s="56" t="s">
-        <v>897</v>
-      </c>
-      <c r="C142" s="50">
+      <c r="E142" s="68" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B143" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C143" s="47">
         <v>8.5000000000000001E-7</v>
       </c>
-      <c r="D142" s="56">
-        <v>7</v>
-      </c>
-      <c r="E142" s="68" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B143" s="56" t="s">
+      <c r="D143" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B144" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C143" s="50">
+      <c r="C144" s="47">
         <v>8.4E-7</v>
       </c>
-      <c r="D143" s="61">
+      <c r="D144" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B145" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C145" s="47">
+        <v>8.2999999999999999E-7</v>
+      </c>
+      <c r="D145" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B146" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C146" s="47">
+        <v>8.1999999999999998E-7</v>
+      </c>
+      <c r="D146" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B147" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C147" s="47">
+        <v>8.0999999999999997E-7</v>
+      </c>
+      <c r="D147" s="55">
+        <v>2</v>
+      </c>
+      <c r="F147" s="95"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="B148" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C148" s="47">
+        <v>7.9999999999999996E-7</v>
+      </c>
+      <c r="D148" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="154" t="s">
+        <v>657</v>
+      </c>
+      <c r="B149" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="C149" s="162">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D149" s="55">
         <v>3</v>
       </c>
-      <c r="E143" s="71" t="s">
-        <v>921</v>
-      </c>
-      <c r="F143" s="111"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="B144" s="56" t="s">
+      <c r="E149" s="68" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="164" t="s">
+        <v>658</v>
+      </c>
+      <c r="B150" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="C144" s="50">
-        <v>8.2999999999999999E-7</v>
-      </c>
-      <c r="D144" s="58">
+      <c r="C150" s="165">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D150" s="53">
+        <v>9</v>
+      </c>
+      <c r="E150" s="62" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="164" t="s">
+        <v>659</v>
+      </c>
+      <c r="B151" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="C151" s="165">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D151" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B145" s="56" t="s">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="164" t="s">
+        <v>663</v>
+      </c>
+      <c r="B152" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="C145" s="50">
-        <v>8.1999999999999998E-7</v>
-      </c>
-      <c r="D145" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B146" s="56" t="s">
+      <c r="C152" s="165">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D152" s="55">
+        <v>3</v>
+      </c>
+      <c r="E152" s="68" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="164" t="s">
+        <v>664</v>
+      </c>
+      <c r="B153" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="C146" s="50">
-        <v>8.0999999999999997E-7</v>
-      </c>
-      <c r="D146" s="58">
+      <c r="C153" s="165">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D153" s="55">
         <v>3</v>
       </c>
-      <c r="E146" s="75" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B147" s="56" t="s">
+      <c r="E153" s="68" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="164" t="s">
+        <v>660</v>
+      </c>
+      <c r="B154" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="C147" s="50">
-        <v>7.9999999999999996E-7</v>
-      </c>
-      <c r="D147" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="B148" s="56" t="s">
+      <c r="C154" s="165">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D154" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="E154" s="68" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="164" t="s">
+        <v>661</v>
+      </c>
+      <c r="B155" s="89" t="s">
+        <v>780</v>
+      </c>
+      <c r="C155" s="165">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D155" s="55">
+        <v>3</v>
+      </c>
+      <c r="E155" s="68" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="157" t="s">
+        <v>662</v>
+      </c>
+      <c r="B156" s="158" t="s">
+        <v>780</v>
+      </c>
+      <c r="C156" s="163">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D156" s="55">
+        <v>2</v>
+      </c>
+      <c r="E156" s="68" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B157" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C148" s="50">
+      <c r="C157" s="47">
         <v>7.8999999999999995E-7</v>
       </c>
-      <c r="D148" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B149" s="56" t="s">
+      <c r="D157" s="55">
+        <v>3</v>
+      </c>
+      <c r="E157" s="68" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="154" t="s">
+        <v>654</v>
+      </c>
+      <c r="B158" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="50">
-        <v>7.8000000000000005E-7</v>
-      </c>
-      <c r="D149" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B150" s="56" t="s">
+      <c r="C158" s="166">
+        <v>3.9000000000000002E-7</v>
+      </c>
+      <c r="D158" s="55">
+        <v>3</v>
+      </c>
+      <c r="E158" s="68" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="157" t="s">
+        <v>655</v>
+      </c>
+      <c r="B159" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="C150" s="50">
+      <c r="C159" s="167">
+        <v>3.9000000000000002E-7</v>
+      </c>
+      <c r="D159" s="55">
+        <v>6</v>
+      </c>
+      <c r="E159" s="64" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160" s="53" t="s">
+        <v>780</v>
+      </c>
+      <c r="C160" s="47">
         <v>7.7000000000000004E-7</v>
       </c>
-      <c r="D150" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B151" s="56" t="s">
+      <c r="D160" s="55">
+        <v>2</v>
+      </c>
+      <c r="E160" s="64" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="34" t="s">
+        <v>887</v>
+      </c>
+      <c r="B161" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C151" s="50">
+      <c r="C161" s="47">
         <v>7.6000000000000003E-7</v>
       </c>
-      <c r="D151" s="58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="22" t="s">
-        <v>652</v>
-      </c>
-      <c r="B152" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C152" s="50">
-        <v>7.5000000000000002E-7</v>
-      </c>
-      <c r="D152" s="58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="132" t="s">
-        <v>657</v>
-      </c>
-      <c r="B153" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C153" s="90">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="D153" s="58">
+      <c r="D161" s="55">
         <v>3</v>
       </c>
-      <c r="E153" s="71" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="133" t="s">
-        <v>658</v>
-      </c>
-      <c r="B154" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C154" s="91">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="D154" s="56">
-        <v>9</v>
-      </c>
-      <c r="E154" s="65" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="133" t="s">
-        <v>659</v>
-      </c>
-      <c r="B155" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C155" s="91">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="D155" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="133" t="s">
-        <v>663</v>
-      </c>
-      <c r="B156" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C156" s="91">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="D156" s="58">
-        <v>3</v>
-      </c>
-      <c r="E156" s="71" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="133" t="s">
-        <v>664</v>
-      </c>
-      <c r="B157" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C157" s="91">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="D157" s="58">
-        <v>3</v>
-      </c>
-      <c r="E157" s="71" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="133" t="s">
-        <v>660</v>
-      </c>
-      <c r="B158" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C158" s="91">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="D158" s="58" t="s">
-        <v>684</v>
-      </c>
-      <c r="E158" s="71" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="133" t="s">
-        <v>661</v>
-      </c>
-      <c r="B159" s="56" t="s">
-        <v>780</v>
-      </c>
-      <c r="C159" s="91">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="D159" s="58">
-        <v>3</v>
-      </c>
-      <c r="E159" s="71" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="134" t="s">
-        <v>662</v>
-      </c>
-      <c r="B160" s="56" t="s">
-        <v>780</v>
-      </c>
-      <c r="C160" s="92">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="D160" s="58">
-        <v>2</v>
-      </c>
-      <c r="E160" s="71" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="B161" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C161" s="50">
-        <v>7.1999999999999999E-7</v>
-      </c>
-      <c r="D161" s="58">
-        <v>3</v>
-      </c>
-      <c r="E161" s="67" t="s">
-        <v>646</v>
+      <c r="E161" s="64" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B162" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="B162" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C162" s="50">
-        <v>7.0999999999999998E-7</v>
-      </c>
-      <c r="D162" s="58">
-        <v>3</v>
-      </c>
-      <c r="E162" s="71" t="s">
-        <v>700</v>
+      <c r="C162" s="47">
+        <v>7.5000000000000002E-7</v>
+      </c>
+      <c r="D162" s="55">
+        <v>5</v>
+      </c>
+      <c r="E162" s="64" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="132" t="s">
-        <v>654</v>
-      </c>
-      <c r="B163" s="56" t="s">
+      <c r="A163" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B163" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C163" s="93">
-        <v>3.4999999999999998E-7</v>
-      </c>
-      <c r="D163" s="58">
-        <v>3</v>
-      </c>
-      <c r="E163" s="71" t="s">
-        <v>694</v>
+      <c r="C163" s="47">
+        <v>7.4000000000000001E-7</v>
+      </c>
+      <c r="D163" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="134" t="s">
-        <v>655</v>
-      </c>
-      <c r="B164" s="56" t="s">
+      <c r="A164" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B164" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C164" s="94">
-        <v>3.4999999999999998E-7</v>
-      </c>
-      <c r="D164" s="58">
-        <v>6</v>
-      </c>
-      <c r="E164" s="67" t="s">
-        <v>650</v>
+      <c r="C164" s="47">
+        <v>7.3E-7</v>
+      </c>
+      <c r="D164" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B165" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B165" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C165" s="50">
-        <v>6.7999999999999995E-7</v>
-      </c>
-      <c r="D165" s="61">
+      <c r="C165" s="47">
+        <v>7.1999999999999999E-7</v>
+      </c>
+      <c r="D165" s="55">
         <v>3</v>
       </c>
-      <c r="E165" s="67" t="s">
-        <v>656</v>
-      </c>
-      <c r="F165" s="111"/>
+      <c r="E165" s="71" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="34" t="s">
-        <v>887</v>
-      </c>
-      <c r="B166" s="56" t="s">
+      <c r="A166" s="154" t="s">
+        <v>918</v>
+      </c>
+      <c r="B166" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="C166" s="50">
-        <v>6.7000000000000004E-7</v>
-      </c>
-      <c r="D166" s="58">
-        <v>3</v>
-      </c>
-      <c r="E166" s="67" t="s">
-        <v>701</v>
+      <c r="C166" s="162">
+        <v>3.4999999999999998E-7</v>
+      </c>
+      <c r="D166" s="55" t="s">
+        <v>691</v>
+      </c>
+      <c r="E166" s="64" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="B167" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C167" s="50">
-        <v>6.6000000000000003E-7</v>
-      </c>
-      <c r="D167" s="58">
-        <v>5</v>
-      </c>
-      <c r="E167" s="67" t="s">
-        <v>667</v>
-      </c>
+      <c r="A167" s="157" t="s">
+        <v>918</v>
+      </c>
+      <c r="B167" s="158" t="s">
+        <v>897</v>
+      </c>
+      <c r="C167" s="163">
+        <v>3.4999999999999998E-7</v>
+      </c>
+      <c r="D167" s="55">
+        <v>9</v>
+      </c>
+      <c r="E167" s="64"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="B168" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B168" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C168" s="50">
-        <v>6.5000000000000002E-7</v>
-      </c>
-      <c r="D168" s="58">
+      <c r="C168" s="47">
+        <v>6.8999999999999996E-7</v>
+      </c>
+      <c r="D168" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B169" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C169" s="47">
+        <v>6.7999999999999995E-7</v>
+      </c>
+      <c r="D169" s="55">
+        <v>6</v>
+      </c>
+      <c r="E169" s="64" t="s">
+        <v>676</v>
+      </c>
+      <c r="F169" s="95"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B170" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C170" s="47">
+        <v>6.7000000000000004E-7</v>
+      </c>
+      <c r="D170" s="93">
+        <v>5</v>
+      </c>
+      <c r="E170" s="70" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="154" t="s">
+        <v>136</v>
+      </c>
+      <c r="B171" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="C171" s="162">
+        <v>3.3000000000000002E-7</v>
+      </c>
+      <c r="D171" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="132" t="s">
-        <v>918</v>
-      </c>
-      <c r="B169" s="56" t="s">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="157" t="s">
+        <v>653</v>
+      </c>
+      <c r="B172" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="C169" s="90">
-        <v>3.2000000000000001E-7</v>
-      </c>
-      <c r="D169" s="58" t="s">
-        <v>691</v>
-      </c>
-      <c r="E169" s="67" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="134" t="s">
-        <v>918</v>
-      </c>
-      <c r="B170" s="56" t="s">
-        <v>897</v>
-      </c>
-      <c r="C170" s="92">
-        <v>3.2000000000000001E-7</v>
-      </c>
-      <c r="D170" s="58">
-        <v>9</v>
-      </c>
-      <c r="E170" s="67"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="B171" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C171" s="50">
-        <v>6.3E-7</v>
-      </c>
-      <c r="D171" s="58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B172" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C172" s="50">
-        <v>6.1999999999999999E-7</v>
-      </c>
-      <c r="D172" s="58">
+      <c r="C172" s="163">
+        <v>3.3000000000000002E-7</v>
+      </c>
+      <c r="D172" s="55">
         <v>3</v>
       </c>
-      <c r="E172" s="67" t="s">
-        <v>656</v>
+      <c r="E172" s="68" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="B173" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="B173" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C173" s="50">
-        <v>6.0999999999999998E-7</v>
-      </c>
-      <c r="D173" s="58">
-        <v>6</v>
-      </c>
-      <c r="E173" s="67" t="s">
-        <v>676</v>
+      <c r="C173" s="47">
+        <v>6.5000000000000002E-7</v>
+      </c>
+      <c r="D173" s="55">
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B174" s="56" t="s">
+      <c r="A174" s="39" t="s">
+        <v>892</v>
+      </c>
+      <c r="B174" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C174" s="50">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="D174" s="109">
-        <v>5</v>
-      </c>
-      <c r="E174" s="74" t="s">
-        <v>920</v>
-      </c>
-      <c r="F174" s="110"/>
+      <c r="C174" s="47">
+        <v>6.4000000000000001E-7</v>
+      </c>
+      <c r="D174" s="59">
+        <v>1</v>
+      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B175" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C175" s="50">
-        <v>5.8999999999999996E-7</v>
-      </c>
-      <c r="D175" s="58">
-        <v>2</v>
+        <v>158</v>
+      </c>
+      <c r="B175" s="53" t="s">
+        <v>780</v>
+      </c>
+      <c r="C175" s="47">
+        <v>6.3E-7</v>
+      </c>
+      <c r="D175" s="55">
+        <v>1</v>
+      </c>
+      <c r="E175" s="64" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B176" s="56" t="s">
-        <v>780</v>
-      </c>
-      <c r="C176" s="50">
-        <v>5.7999999999999995E-7</v>
-      </c>
-      <c r="D176" s="58">
-        <v>1</v>
-      </c>
-      <c r="E176" s="67" t="s">
-        <v>1020</v>
+        <v>160</v>
+      </c>
+      <c r="B176" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C176" s="47">
+        <v>6.1999999999999999E-7</v>
+      </c>
+      <c r="D176" s="55">
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="B177" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B177" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C177" s="50">
-        <v>5.7000000000000005E-7</v>
-      </c>
-      <c r="D177" s="58">
-        <v>2</v>
+      <c r="C177" s="47">
+        <v>6.0999999999999998E-7</v>
+      </c>
+      <c r="D177" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="B178" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C178" s="50">
-        <v>5.6000000000000004E-7</v>
-      </c>
-      <c r="D178" s="58">
-        <v>1</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B178" s="53" t="s">
+        <v>897</v>
+      </c>
+      <c r="C178" s="47">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="D178" s="53">
+        <v>7</v>
+      </c>
+      <c r="E178" s="65" t="s">
+        <v>647</v>
+      </c>
+      <c r="F178" s="94"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B179" s="56" t="s">
+      <c r="B179" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C179" s="50">
-        <v>5.5000000000000003E-7</v>
-      </c>
-      <c r="D179" s="58">
+      <c r="C179" s="47">
+        <v>5.8999999999999996E-7</v>
+      </c>
+      <c r="D179" s="55">
         <v>1</v>
       </c>
     </row>
@@ -7778,760 +7863,775 @@
       <c r="A180" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="B180" s="56" t="s">
+      <c r="B180" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C180" s="50">
-        <v>5.4000000000000002E-7</v>
-      </c>
-      <c r="D180" s="58">
+      <c r="C180" s="47">
+        <v>5.7999999999999995E-7</v>
+      </c>
+      <c r="D180" s="55">
         <v>6</v>
       </c>
-      <c r="E180" s="67" t="s">
+      <c r="E180" s="64" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="B181" s="56" t="s">
+      <c r="A181" s="168" t="s">
+        <v>919</v>
+      </c>
+      <c r="B181" s="169" t="s">
         <v>780</v>
       </c>
-      <c r="C181" s="50">
-        <v>5.3000000000000001E-7</v>
-      </c>
-      <c r="D181" s="58">
-        <v>2</v>
-      </c>
-      <c r="E181" s="67" t="s">
-        <v>807</v>
+      <c r="C181" s="162">
+        <v>2.8999999999999998E-7</v>
+      </c>
+      <c r="D181" s="59">
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="135" t="s">
+      <c r="A182" s="170" t="s">
         <v>919</v>
       </c>
-      <c r="B182" s="55" t="s">
-        <v>780</v>
-      </c>
-      <c r="C182" s="90">
-        <v>2.6E-7</v>
-      </c>
-      <c r="D182" s="62">
+      <c r="B182" s="171" t="s">
+        <v>95</v>
+      </c>
+      <c r="C182" s="163">
+        <v>2.8999999999999998E-7</v>
+      </c>
+      <c r="D182" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="34" t="s">
+        <v>889</v>
+      </c>
+      <c r="B183" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C183" s="47">
+        <v>5.7000000000000005E-7</v>
+      </c>
+      <c r="D183" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="136" t="s">
-        <v>919</v>
-      </c>
-      <c r="B183" s="55" t="s">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B184" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C183" s="92">
-        <v>2.6E-7</v>
-      </c>
-      <c r="D183" s="62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="34" t="s">
-        <v>889</v>
-      </c>
-      <c r="B184" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C184" s="50">
-        <v>5.0999999999999999E-7</v>
-      </c>
-      <c r="D184" s="58">
-        <v>1</v>
+      <c r="C184" s="47">
+        <v>5.6000000000000004E-7</v>
+      </c>
+      <c r="D184" s="55">
+        <v>6</v>
+      </c>
+      <c r="E184" s="64" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="B185" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="B185" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C185" s="50">
-        <v>4.9999999999999998E-7</v>
-      </c>
-      <c r="D185" s="58">
+      <c r="C185" s="47">
+        <v>5.5000000000000003E-7</v>
+      </c>
+      <c r="D185" s="55">
         <v>6</v>
       </c>
-      <c r="E185" s="67" t="s">
-        <v>677</v>
+      <c r="E185" s="64" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B186" s="56" t="s">
+      <c r="A186" s="34" t="s">
+        <v>922</v>
+      </c>
+      <c r="B186" s="53" t="s">
+        <v>897</v>
+      </c>
+      <c r="C186" s="47">
+        <v>5.4000000000000002E-7</v>
+      </c>
+      <c r="D186" s="53">
+        <v>7</v>
+      </c>
+      <c r="E186" s="65" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B187" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C186" s="50">
-        <v>4.8999999999999997E-7</v>
-      </c>
-      <c r="D186" s="58">
-        <v>6</v>
-      </c>
-      <c r="E186" s="67" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="34" t="s">
-        <v>922</v>
-      </c>
-      <c r="B187" s="56" t="s">
-        <v>897</v>
-      </c>
-      <c r="C187" s="50">
-        <v>4.7999999999999996E-7</v>
-      </c>
-      <c r="D187" s="56">
-        <v>7</v>
+      <c r="C187" s="47">
+        <v>5.3000000000000001E-7</v>
+      </c>
+      <c r="D187" s="55">
+        <v>3</v>
       </c>
       <c r="E187" s="68" t="s">
-        <v>612</v>
+        <v>701</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B188" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="B188" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C188" s="50">
-        <v>4.7E-7</v>
-      </c>
-      <c r="D188" s="58">
-        <v>3</v>
-      </c>
-      <c r="E188" s="71" t="s">
-        <v>701</v>
+      <c r="C188" s="47">
+        <v>5.2E-7</v>
+      </c>
+      <c r="D188" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="B189" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="C189" s="50">
-        <v>4.5999999999999999E-7</v>
-      </c>
-      <c r="D189" s="62">
-        <v>5</v>
-      </c>
-      <c r="E189" s="67" t="s">
-        <v>924</v>
+      <c r="A189" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B189" s="53" t="s">
+        <v>897</v>
+      </c>
+      <c r="C189" s="47">
+        <v>5.0999999999999999E-7</v>
+      </c>
+      <c r="D189" s="53">
+        <v>7</v>
+      </c>
+      <c r="E189" s="62" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="B190" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="B190" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C190" s="50">
-        <v>4.4999999999999998E-7</v>
-      </c>
-      <c r="D190" s="58">
+      <c r="C190" s="47">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="D190" s="55">
         <v>1</v>
-      </c>
-      <c r="F190" s="15" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B191" s="56" t="s">
-        <v>897</v>
-      </c>
-      <c r="C191" s="50">
-        <v>4.4000000000000002E-7</v>
-      </c>
-      <c r="D191" s="56">
-        <v>7</v>
-      </c>
-      <c r="E191" s="65" t="s">
-        <v>615</v>
+        <v>173</v>
+      </c>
+      <c r="B191" s="53" t="s">
+        <v>780</v>
+      </c>
+      <c r="C191" s="47">
+        <v>4.8999999999999997E-7</v>
+      </c>
+      <c r="D191" s="55">
+        <v>2</v>
+      </c>
+      <c r="E191" s="64" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="B192" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B192" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C192" s="50">
+      <c r="C192" s="47">
+        <v>4.7999999999999996E-7</v>
+      </c>
+      <c r="D192" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B193" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C193" s="172">
+        <v>4.7E-7</v>
+      </c>
+      <c r="D193" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B194" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C194" s="47">
+        <v>4.5999999999999999E-7</v>
+      </c>
+      <c r="D194" s="55">
+        <v>5</v>
+      </c>
+      <c r="E194" s="62" t="s">
+        <v>674</v>
+      </c>
+      <c r="F194" s="95"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B195" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C195" s="47">
+        <v>4.4999999999999998E-7</v>
+      </c>
+      <c r="D195" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B196" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="C196" s="96">
+        <v>4.4000000000000002E-7</v>
+      </c>
+      <c r="D196" s="57" t="s">
+        <v>691</v>
+      </c>
+      <c r="E196" s="64" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B197" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C197" s="48">
         <v>4.3000000000000001E-7</v>
       </c>
-      <c r="D192" s="58">
+      <c r="D197" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="B193" s="56" t="s">
+      <c r="E197" s="63"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C198" s="21" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B199" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C199" s="44">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D199" s="55">
+        <v>3</v>
+      </c>
+      <c r="E199" s="64" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B200" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C200" s="44">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D200" s="58">
+        <v>3</v>
+      </c>
+      <c r="E200" s="64" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="B201" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C201" s="44">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D201" s="59">
+        <v>5</v>
+      </c>
+      <c r="E201" s="64" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B202" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C202" s="44">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D202" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="B203" s="53" t="s">
         <v>780</v>
       </c>
-      <c r="C193" s="50">
-        <v>4.2E-7</v>
-      </c>
-      <c r="D193" s="58">
+      <c r="C203" s="44">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D203" s="55">
         <v>2</v>
       </c>
-      <c r="E193" s="67" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B194" s="56" t="s">
+      <c r="E203" s="64" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B204" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C194" s="50">
-        <v>4.0999999999999999E-7</v>
-      </c>
-      <c r="D194" s="58">
+      <c r="C204" s="44">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D204" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B195" s="56" t="s">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B205" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C195" s="50">
-        <v>3.9999999999999998E-7</v>
-      </c>
-      <c r="D195" s="58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="40" t="s">
-        <v>892</v>
-      </c>
-      <c r="B196" s="56" t="s">
+      <c r="C205" s="44">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D205" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="34" t="s">
+        <v>891</v>
+      </c>
+      <c r="B206" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C196" s="50">
-        <v>3.9000000000000002E-7</v>
-      </c>
-      <c r="D196" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B197" s="56" t="s">
+      <c r="C206" s="44">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D206" s="55">
+        <v>3</v>
+      </c>
+      <c r="E206" s="64" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B207" s="53" t="s">
+        <v>897</v>
+      </c>
+      <c r="C207" s="44">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D207" s="53">
+        <v>8</v>
+      </c>
+      <c r="E207" s="62" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="22" t="s">
+        <v>668</v>
+      </c>
+      <c r="B208" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C197" s="50">
-        <v>3.8000000000000001E-7</v>
-      </c>
-      <c r="D197" s="58">
-        <v>5</v>
-      </c>
-      <c r="E197" s="65" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B198" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C198" s="50">
-        <v>3.7E-7</v>
-      </c>
-      <c r="D198" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="B199" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="C199" s="112">
-        <v>3.5999999999999999E-7</v>
-      </c>
-      <c r="D199" s="60" t="s">
+      <c r="C208" s="44">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D208" s="55" t="s">
         <v>691</v>
       </c>
-      <c r="E199" s="67" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B200" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="C200" s="51">
-        <v>3.4999999999999998E-7</v>
-      </c>
-      <c r="D200" s="59">
-        <v>1</v>
-      </c>
-      <c r="E200" s="66"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C201" s="21" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="34" t="s">
-        <v>888</v>
-      </c>
-      <c r="B202" s="56" t="s">
-        <v>780</v>
-      </c>
-      <c r="C202" s="47">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="D202" s="58">
-        <v>2</v>
-      </c>
-      <c r="E202" s="67" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B203" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C203" s="47">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="D203" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B204" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C204" s="47">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="D204" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="34" t="s">
-        <v>891</v>
-      </c>
-      <c r="B205" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C205" s="47">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="D205" s="58">
-        <v>3</v>
-      </c>
-      <c r="E205" s="67" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B206" s="56" t="s">
-        <v>897</v>
-      </c>
-      <c r="C206" s="47">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="D206" s="56">
-        <v>8</v>
-      </c>
-      <c r="E206" s="65" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="22" t="s">
-        <v>668</v>
-      </c>
-      <c r="B207" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C207" s="47">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="D207" s="58" t="s">
-        <v>691</v>
-      </c>
-      <c r="E207" s="67" t="s">
+      <c r="E208" s="64" t="s">
         <v>917</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="22" t="s">
-        <v>669</v>
-      </c>
-      <c r="B208" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C208" s="47">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="D208" s="58" t="s">
-        <v>691</v>
-      </c>
-      <c r="E208" s="71" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="B209" s="56" t="s">
+        <v>669</v>
+      </c>
+      <c r="B209" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C209" s="47">
+      <c r="C209" s="44">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="D209" s="58">
-        <v>3</v>
-      </c>
-      <c r="E209" s="71" t="s">
-        <v>823</v>
+      <c r="D209" s="55" t="s">
+        <v>691</v>
+      </c>
+      <c r="E209" s="68" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B210" s="56" t="s">
-        <v>897</v>
-      </c>
-      <c r="C210" s="47">
+        <v>153</v>
+      </c>
+      <c r="B210" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C210" s="44">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="D210" s="56">
-        <v>8</v>
-      </c>
-      <c r="E210" s="65" t="s">
-        <v>615</v>
+      <c r="D210" s="55">
+        <v>3</v>
+      </c>
+      <c r="E210" s="68" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="B211" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B211" s="53" t="s">
         <v>897</v>
       </c>
-      <c r="C211" s="47">
+      <c r="C211" s="44">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="D211" s="56">
+      <c r="D211" s="53">
         <v>8</v>
       </c>
-      <c r="E211" s="65" t="s">
+      <c r="E211" s="62" t="s">
         <v>615</v>
-      </c>
-      <c r="F211" s="15" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B212" s="53" t="s">
+        <v>897</v>
+      </c>
+      <c r="C212" s="44">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D212" s="53">
+        <v>8</v>
+      </c>
+      <c r="E212" s="62" t="s">
+        <v>615</v>
+      </c>
+      <c r="F212" s="15" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="B212" s="56" t="s">
+      <c r="B213" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C212" s="47">
+      <c r="C213" s="44">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="D212" s="58">
+      <c r="D213" s="55">
         <v>3</v>
       </c>
-      <c r="E212" s="67" t="s">
+      <c r="E213" s="64" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="29" t="s">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="B213" s="57" t="s">
+      <c r="B214" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="C213" s="49">
+      <c r="C214" s="46">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="D213" s="59">
+      <c r="D214" s="56">
         <v>1</v>
       </c>
-      <c r="E213" s="66"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="B214" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="D214" s="62">
-        <v>5</v>
-      </c>
-      <c r="E214" s="65" t="s">
-        <v>831</v>
-      </c>
+      <c r="E214" s="63"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="B215" s="56" t="s">
+        <v>829</v>
+      </c>
+      <c r="B215" s="53" t="s">
         <v>95</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D215" s="62">
+      <c r="D215" s="59">
         <v>5</v>
       </c>
-      <c r="E215" s="70" t="s">
-        <v>538</v>
+      <c r="E215" s="62" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="B216" s="56" t="s">
+        <v>534</v>
+      </c>
+      <c r="B216" s="53" t="s">
         <v>95</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D216" s="62">
-        <v>1</v>
+      <c r="D216" s="59">
+        <v>5</v>
+      </c>
+      <c r="E216" s="67" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="B217" s="56" t="s">
+        <v>551</v>
+      </c>
+      <c r="B217" s="53" t="s">
         <v>95</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D217" s="62">
+      <c r="D217" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="B218" s="56" t="s">
+        <v>555</v>
+      </c>
+      <c r="B218" s="53" t="s">
         <v>95</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D218" s="62" t="s">
-        <v>684</v>
-      </c>
-      <c r="E218" s="67" t="s">
-        <v>903</v>
+      <c r="D218" s="59">
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="B219" s="56" t="s">
-        <v>780</v>
+        <v>832</v>
+      </c>
+      <c r="B219" s="53" t="s">
+        <v>95</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D219" s="62">
-        <v>3</v>
-      </c>
-      <c r="E219" s="75" t="s">
-        <v>841</v>
+      <c r="D219" s="59" t="s">
+        <v>684</v>
+      </c>
+      <c r="E219" s="64" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="B220" s="56" t="s">
+        <v>833</v>
+      </c>
+      <c r="B220" s="53" t="s">
         <v>780</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D220" s="62">
+      <c r="D220" s="59">
         <v>3</v>
       </c>
-      <c r="E220" s="75" t="s">
-        <v>842</v>
+      <c r="E220" s="71" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="B221" s="56" t="s">
+        <v>759</v>
+      </c>
+      <c r="B221" s="53" t="s">
         <v>780</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D221" s="62">
-        <v>2</v>
-      </c>
-      <c r="E221" s="75" t="s">
-        <v>843</v>
+      <c r="D221" s="59">
+        <v>3</v>
+      </c>
+      <c r="E221" s="71" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="B222" s="56" t="s">
+        <v>834</v>
+      </c>
+      <c r="B222" s="53" t="s">
         <v>780</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D222" s="62">
+      <c r="D222" s="59">
         <v>2</v>
       </c>
-      <c r="E222" s="75" t="s">
-        <v>844</v>
+      <c r="E222" s="71" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="B223" s="56" t="s">
+        <v>771</v>
+      </c>
+      <c r="B223" s="53" t="s">
         <v>780</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D223" s="62">
+      <c r="D223" s="59">
         <v>2</v>
       </c>
-      <c r="E223" s="67" t="s">
-        <v>840</v>
+      <c r="E223" s="71" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="B224" s="56" t="s">
+        <v>835</v>
+      </c>
+      <c r="B224" s="53" t="s">
         <v>780</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D224" s="62">
+      <c r="D224" s="59">
         <v>2</v>
       </c>
-      <c r="E224" s="76" t="s">
-        <v>807</v>
+      <c r="E224" s="64" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="B225" s="56" t="s">
-        <v>95</v>
+        <v>836</v>
+      </c>
+      <c r="B225" s="53" t="s">
+        <v>780</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D225" s="62">
-        <v>3</v>
-      </c>
-      <c r="E225" s="67" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="31" t="s">
-        <v>846</v>
-      </c>
-      <c r="B226" s="56" t="s">
+      <c r="D225" s="59">
+        <v>2</v>
+      </c>
+      <c r="E225" s="72" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="B226" s="53" t="s">
         <v>95</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D226" s="55">
+      <c r="D226" s="59">
+        <v>3</v>
+      </c>
+      <c r="E226" s="64" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" s="31" t="s">
+        <v>846</v>
+      </c>
+      <c r="B227" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="D227" s="52">
         <v>6</v>
       </c>
-      <c r="E226" s="77" t="s">
+      <c r="E227" s="73" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E239" s="78"/>
-      <c r="F239" s="20"/>
-      <c r="G239" s="20"/>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E240" s="74"/>
+      <c r="F240" s="20"/>
+      <c r="G240" s="20"/>
     </row>
   </sheetData>
-  <sortState ref="A91:E108">
-    <sortCondition descending="1" ref="C91:C108"/>
+  <sortState ref="A24:E26">
+    <sortCondition descending="1" ref="C24:C26"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="containsText" dxfId="11" priority="22" operator="containsText" text="Other">
@@ -8553,17 +8653,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="181" operator="containsText" id="{F1DD1BF3-9779-496D-A448-DC654339F997}">
-            <xm:f>NOT(ISERROR(SEARCH(9,D1)))</xm:f>
-            <xm:f>9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFE60000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
           <x14:cfRule type="containsText" priority="182" operator="containsText" id="{A5DEA9FF-B947-4522-9F76-0FFFA1AE17EC}">
             <xm:f>NOT(ISERROR(SEARCH(8,D1)))</xm:f>
             <xm:f>8</xm:f>
@@ -8652,6 +8741,17 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
+          <x14:cfRule type="containsText" priority="181" operator="containsText" id="{F1DD1BF3-9779-496D-A448-DC654339F997}">
+            <xm:f>NOT(ISERROR(SEARCH(9,D1)))</xm:f>
+            <xm:f>9</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFE60000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
           <xm:sqref>D1:D1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
@@ -8670,35 +8770,35 @@
   <cols>
     <col min="1" max="1" width="76.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="147" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="126" bestFit="1" customWidth="1"/>
     <col min="4" max="15" width="9.140625" style="3"/>
-    <col min="16" max="16" width="53.140625" style="137" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="53.140625" style="116" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
-        <v>969</v>
-      </c>
-      <c r="B1" s="128" t="s">
+    <row r="1" spans="1:16" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="121" t="s">
+        <v>968</v>
+      </c>
+      <c r="B1" s="112" t="s">
+        <v>995</v>
+      </c>
+      <c r="C1" s="138" t="s">
         <v>996</v>
       </c>
-      <c r="C1" s="159" t="s">
-        <v>997</v>
-      </c>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="137"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="116"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -8707,9 +8807,9 @@
       <c r="B2" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C2" s="150">
-        <f>Languages!C7+Languages!C9+Languages!C10+Languages!C12+Languages!C28+Languages!C29+Languages!C32+Languages!C36+Languages!C39+Languages!C61+Languages!C69+Languages!C70+Languages!C72+Languages!C74</f>
-        <v>0.10634400000000001</v>
+      <c r="C2" s="129">
+        <f>Languages!C7+Languages!C9+Languages!C10+Languages!C12+Languages!C28+Languages!C29+Languages!C32+Languages!C36+Languages!C39+Languages!C61+Languages!C72+Languages!C71+Languages!C69+Languages!C74</f>
+        <v>0.105167</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>477</v>
@@ -8726,7 +8826,7 @@
       <c r="H2" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="I2" s="129" t="s">
+      <c r="I2" s="113" t="s">
         <v>590</v>
       </c>
       <c r="J2" s="18" t="s">
@@ -8755,7 +8855,7 @@
       <c r="B3" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C3" s="146">
+      <c r="C3" s="125">
         <f>Languages!C6</f>
         <v>3.9E-2</v>
       </c>
@@ -8774,7 +8874,7 @@
       <c r="H3" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="I3" s="130" t="s">
+      <c r="I3" s="114" t="s">
         <v>590</v>
       </c>
       <c r="J3" s="18" t="s">
@@ -8797,15 +8897,15 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="42" t="s">
         <v>597</v>
       </c>
-      <c r="C4" s="149">
+      <c r="C4" s="128">
         <f>Languages!C23</f>
-        <v>4.7999999999999996E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>477</v>
@@ -8822,7 +8922,7 @@
       <c r="H4" s="34" t="s">
         <v>584</v>
       </c>
-      <c r="I4" s="130" t="s">
+      <c r="I4" s="114" t="s">
         <v>590</v>
       </c>
       <c r="J4" s="18" t="s">
@@ -8843,8 +8943,8 @@
       <c r="O4" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="P4" s="140" t="s">
-        <v>977</v>
+      <c r="P4" s="119" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -8854,9 +8954,9 @@
       <c r="B5" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C5" s="149">
+      <c r="C5" s="128">
         <f>Languages!C25</f>
-        <v>2.3999999999999998E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>602</v>
@@ -8873,7 +8973,7 @@
       <c r="H5" s="32" t="s">
         <v>852</v>
       </c>
-      <c r="I5" s="130" t="s">
+      <c r="I5" s="114" t="s">
         <v>590</v>
       </c>
       <c r="J5" s="18" t="s">
@@ -8896,13 +8996,13 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
         <v>597</v>
       </c>
-      <c r="C6" s="149">
+      <c r="C6" s="128">
         <f>Languages!C30</f>
         <v>1.2999999999999999E-3</v>
       </c>
@@ -8921,7 +9021,7 @@
       <c r="H6" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="I6" s="130" t="s">
+      <c r="I6" s="114" t="s">
         <v>590</v>
       </c>
       <c r="J6" s="18" t="s">
@@ -8942,8 +9042,8 @@
       <c r="O6" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="P6" s="140" t="s">
-        <v>986</v>
+      <c r="P6" s="119" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -8953,9 +9053,9 @@
       <c r="B7" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C7" s="149">
-        <f>Languages!C40+Languages!C33+Languages!C153+Languages!C156</f>
-        <v>1.1902000000000002E-3</v>
+      <c r="C7" s="128">
+        <f>Languages!C41+Languages!C33+Languages!C149+Languages!C152</f>
+        <v>1.1802000000000002E-3</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>855</v>
@@ -8972,7 +9072,7 @@
       <c r="H7" s="33" t="s">
         <v>859</v>
       </c>
-      <c r="I7" s="130" t="s">
+      <c r="I7" s="114" t="s">
         <v>590</v>
       </c>
       <c r="J7" s="18" t="s">
@@ -8995,15 +9095,15 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="42" t="s">
         <v>597</v>
       </c>
-      <c r="C8" s="149">
+      <c r="C8" s="128">
         <f>Languages!C37</f>
-        <v>4.8999999999999998E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>855</v>
@@ -9020,7 +9120,7 @@
       <c r="H8" s="34" t="s">
         <v>645</v>
       </c>
-      <c r="I8" s="130" t="s">
+      <c r="I8" s="114" t="s">
         <v>590</v>
       </c>
       <c r="J8" s="18" t="s">
@@ -9041,20 +9141,20 @@
       <c r="O8" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="P8" s="140" t="s">
-        <v>987</v>
+      <c r="P8" s="119" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C9" s="149">
-        <f>Languages!C47+Languages!C139</f>
-        <v>2.2044E-4</v>
+      <c r="C9" s="128">
+        <f>Languages!C48+Languages!C172</f>
+        <v>2.2033E-4</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>594</v>
@@ -9071,7 +9171,7 @@
       <c r="H9" s="32" t="s">
         <v>818</v>
       </c>
-      <c r="I9" s="130" t="s">
+      <c r="I9" s="114" t="s">
         <v>590</v>
       </c>
       <c r="J9" s="18" t="s">
@@ -9095,15 +9195,15 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="111" t="s">
         <v>682</v>
       </c>
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="136" t="s">
         <v>634</v>
       </c>
-      <c r="C10" s="154">
-        <f>Languages!C54+Languages!C173</f>
-        <v>1.1061E-4</v>
+      <c r="C10" s="133">
+        <f>Languages!C56+Languages!C169</f>
+        <v>1.0968000000000001E-4</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>672</v>
@@ -9120,25 +9220,25 @@
       <c r="H10" s="29" t="s">
         <v>671</v>
       </c>
-      <c r="I10" s="155" t="s">
+      <c r="I10" s="134" t="s">
         <v>590</v>
       </c>
-      <c r="J10" s="158" t="s">
+      <c r="J10" s="137" t="s">
         <v>847</v>
       </c>
-      <c r="K10" s="156" t="s">
+      <c r="K10" s="135" t="s">
         <v>860</v>
       </c>
-      <c r="L10" s="156" t="s">
+      <c r="L10" s="135" t="s">
         <v>589</v>
       </c>
-      <c r="M10" s="156" t="s">
+      <c r="M10" s="135" t="s">
         <v>591</v>
       </c>
-      <c r="N10" s="156" t="s">
+      <c r="N10" s="135" t="s">
         <v>592</v>
       </c>
-      <c r="O10" s="156" t="s">
+      <c r="O10" s="135" t="s">
         <v>593</v>
       </c>
       <c r="P10" s="3"/>
@@ -9150,8 +9250,8 @@
       <c r="B11" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C11" s="151">
-        <f>Languages!C55</f>
+      <c r="C11" s="130">
+        <f>Languages!C54</f>
         <v>5.5000000000000002E-5</v>
       </c>
       <c r="D11" s="32" t="s">
@@ -9169,7 +9269,7 @@
       <c r="H11" s="30" t="s">
         <v>477</v>
       </c>
-      <c r="I11" s="130" t="s">
+      <c r="I11" s="114" t="s">
         <v>590</v>
       </c>
       <c r="J11" s="18" t="s">
@@ -9198,9 +9298,9 @@
       <c r="B12" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C12" s="151">
-        <f>Languages!C84</f>
-        <v>1.2999999999999999E-5</v>
+      <c r="C12" s="130">
+        <f>Languages!C81</f>
+        <v>1.33E-5</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>594</v>
@@ -9217,7 +9317,7 @@
       <c r="H12" s="32" t="s">
         <v>619</v>
       </c>
-      <c r="I12" s="130" t="s">
+      <c r="I12" s="114" t="s">
         <v>590</v>
       </c>
       <c r="J12" s="18" t="s">
@@ -9241,14 +9341,14 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C13" s="152">
-        <f>Languages!C100+Languages!C162+Languages!C172</f>
-        <v>7.8299999999999996E-6</v>
+      <c r="C13" s="131">
+        <f>Languages!C101+Languages!C157+Languages!C199</f>
+        <v>6.99E-6</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>622</v>
@@ -9265,7 +9365,7 @@
       <c r="H13" s="32" t="s">
         <v>625</v>
       </c>
-      <c r="I13" s="130" t="s">
+      <c r="I13" s="114" t="s">
         <v>590</v>
       </c>
       <c r="J13" s="18" t="s">
@@ -9286,8 +9386,8 @@
       <c r="O13" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="P13" s="137" t="s">
-        <v>981</v>
+      <c r="P13" s="116" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -9297,9 +9397,9 @@
       <c r="B14" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C14" s="152">
-        <f>Languages!C108+Languages!C109</f>
-        <v>5.5999999999999997E-6</v>
+      <c r="C14" s="131">
+        <f>Languages!C107+Languages!C113</f>
+        <v>5.4E-6</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>623</v>
@@ -9316,7 +9416,7 @@
       <c r="H14" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="I14" s="130" t="s">
+      <c r="I14" s="114" t="s">
         <v>590</v>
       </c>
       <c r="J14" s="18" t="s">
@@ -9342,12 +9442,12 @@
       <c r="A15" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="120" t="s">
         <v>634</v>
       </c>
-      <c r="C15" s="152">
-        <f>Languages!C106</f>
-        <v>4.7999999999999998E-6</v>
+      <c r="C15" s="131">
+        <f>Languages!C103</f>
+        <v>4.8999999999999997E-6</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>477</v>
@@ -9364,7 +9464,7 @@
       <c r="H15" s="32" t="s">
         <v>688</v>
       </c>
-      <c r="I15" s="130" t="s">
+      <c r="I15" s="114" t="s">
         <v>590</v>
       </c>
       <c r="J15" s="18" t="s">
@@ -9393,9 +9493,9 @@
       <c r="B16" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C16" s="153">
-        <f>Languages!C124+Languages!C127+Languages!C209</f>
-        <v>2.3800000000000001E-6</v>
+      <c r="C16" s="132">
+        <f>Languages!C127+Languages!C122+Languages!C210</f>
+        <v>2.5999999999999997E-6</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>623</v>
@@ -9412,7 +9512,7 @@
       <c r="H16" s="33" t="s">
         <v>871</v>
       </c>
-      <c r="I16" s="130" t="s">
+      <c r="I16" s="114" t="s">
         <v>590</v>
       </c>
       <c r="J16" s="18" t="s">
@@ -9435,15 +9535,15 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="126" t="s">
-        <v>978</v>
+      <c r="A17" s="110" t="s">
+        <v>977</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C17" s="153">
-        <f>Languages!C128+Languages!C161+Languages!C212</f>
-        <v>1.7899999999999998E-6</v>
+      <c r="C17" s="132">
+        <f>Languages!C130+Languages!C138+Languages!C213</f>
+        <v>1.9699999999999998E-6</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>641</v>
@@ -9460,7 +9560,7 @@
       <c r="H17" s="32" t="s">
         <v>645</v>
       </c>
-      <c r="I17" s="130" t="s">
+      <c r="I17" s="114" t="s">
         <v>590</v>
       </c>
       <c r="J17" s="18" t="s">
@@ -9481,8 +9581,8 @@
       <c r="O17" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="P17" s="137" t="s">
-        <v>979</v>
+      <c r="P17" s="116" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -9490,34 +9590,34 @@
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="142" t="s">
-        <v>970</v>
-      </c>
-      <c r="B19" s="128"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
+      <c r="A19" s="121" t="s">
+        <v>969</v>
+      </c>
+      <c r="B19" s="112"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>816</v>
       </c>
-      <c r="B20" s="141" t="s">
+      <c r="B20" s="120" t="s">
         <v>634</v>
       </c>
-      <c r="C20" s="151">
-        <f>Languages!C208+Languages!C60</f>
-        <v>5.6100000000000002E-5</v>
+      <c r="C20" s="130">
+        <f>Languages!C209+Languages!C60</f>
+        <v>5.8100000000000003E-5</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>812</v>
@@ -9534,7 +9634,7 @@
       <c r="H20" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="I20" s="130" t="s">
+      <c r="I20" s="114" t="s">
         <v>590</v>
       </c>
       <c r="J20" s="18" t="s">
@@ -9558,14 +9658,14 @@
     </row>
     <row r="21" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>991</v>
-      </c>
-      <c r="B21" s="141" t="s">
+        <v>990</v>
+      </c>
+      <c r="B21" s="120" t="s">
         <v>634</v>
       </c>
-      <c r="C21" s="151">
-        <f>Languages!C75+Languages!C113+Languages!C136+Languages!C164+Languages!C169+Languages!C207+Languages!C199+Languages!C180+Languages!C186</f>
-        <v>2.5160000000000003E-5</v>
+      <c r="C21" s="130">
+        <f>Languages!C75+Languages!C116+Languages!C137+Languages!C159+Languages!C166+Languages!C208+Languages!C196+Languages!C180+Languages!C185</f>
+        <v>2.5020000000000001E-5</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>477</v>
@@ -9582,7 +9682,7 @@
       <c r="H21" s="32" t="s">
         <v>632</v>
       </c>
-      <c r="I21" s="130" t="s">
+      <c r="I21" s="114" t="s">
         <v>590</v>
       </c>
       <c r="J21" s="18" t="s">
@@ -9603,18 +9703,18 @@
       <c r="O21" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="P21" s="137"/>
+      <c r="P21" s="116"/>
     </row>
     <row r="22" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="141" t="s">
+      <c r="B22" s="120" t="s">
         <v>634</v>
       </c>
-      <c r="C22" s="152">
-        <f>Languages!C115</f>
-        <v>1.9E-6</v>
+      <c r="C22" s="131">
+        <f>Languages!C112</f>
+        <v>2.0999999999999998E-6</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>635</v>
@@ -9631,7 +9731,7 @@
       <c r="H22" s="32" t="s">
         <v>639</v>
       </c>
-      <c r="I22" s="130" t="s">
+      <c r="I22" s="114" t="s">
         <v>590</v>
       </c>
       <c r="J22" s="18" t="s">
@@ -9652,18 +9752,18 @@
       <c r="O22" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="P22" s="137"/>
+      <c r="P22" s="116"/>
     </row>
     <row r="23" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="124" t="s">
         <v>597</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="132">
         <f>Languages!C140</f>
-        <v>8.7000000000000003E-7</v>
+        <v>8.8000000000000004E-7</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>781</v>
@@ -9680,7 +9780,7 @@
       <c r="H23" s="32" t="s">
         <v>867</v>
       </c>
-      <c r="I23" s="130" t="s">
+      <c r="I23" s="114" t="s">
         <v>590</v>
       </c>
       <c r="J23" s="18" t="s">
@@ -9701,18 +9801,18 @@
       <c r="O23" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="P23" s="137"/>
+      <c r="P23" s="116"/>
     </row>
     <row r="24" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="120" t="s">
         <v>634</v>
       </c>
-      <c r="C24" s="153">
-        <f>Languages!C185</f>
-        <v>4.9999999999999998E-7</v>
+      <c r="C24" s="132">
+        <f>Languages!C184</f>
+        <v>5.6000000000000004E-7</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>635</v>
@@ -9729,7 +9829,7 @@
       <c r="H24" s="32" t="s">
         <v>639</v>
       </c>
-      <c r="I24" s="130" t="s">
+      <c r="I24" s="114" t="s">
         <v>590</v>
       </c>
       <c r="J24" s="18" t="s">
@@ -9750,16 +9850,16 @@
       <c r="O24" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="P24" s="137"/>
-    </row>
-    <row r="25" spans="1:21" s="124" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="116"/>
+    </row>
+    <row r="25" spans="1:21" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>776</v>
       </c>
-      <c r="B25" s="141" t="s">
+      <c r="B25" s="120" t="s">
         <v>634</v>
       </c>
-      <c r="C25" s="149" t="s">
+      <c r="C25" s="128" t="s">
         <v>830</v>
       </c>
       <c r="D25" s="33" t="s">
@@ -9777,7 +9877,7 @@
       <c r="H25" s="33" t="s">
         <v>632</v>
       </c>
-      <c r="I25" s="130" t="s">
+      <c r="I25" s="114" t="s">
         <v>590</v>
       </c>
       <c r="J25" s="30" t="s">
@@ -9798,47 +9898,47 @@
       <c r="O25" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="P25" s="137"/>
-    </row>
-    <row r="26" spans="1:21" s="124" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="116"/>
+    </row>
+    <row r="26" spans="1:21" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="P26" s="137"/>
-    </row>
-    <row r="27" spans="1:21" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="142" t="s">
-        <v>971</v>
-      </c>
-      <c r="B27" s="128"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="137"/>
-    </row>
-    <row r="28" spans="1:21" s="124" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="116"/>
+    </row>
+    <row r="27" spans="1:21" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="121" t="s">
+        <v>970</v>
+      </c>
+      <c r="B27" s="112"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="116"/>
+    </row>
+    <row r="28" spans="1:21" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C28" s="149">
+      <c r="C28" s="128">
         <f>Languages!C42</f>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="D28" s="124" t="s">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="D28" s="108" t="s">
         <v>427</v>
       </c>
-      <c r="E28" s="124" t="s">
+      <c r="E28" s="108" t="s">
         <v>856</v>
       </c>
       <c r="F28" s="18" t="s">
@@ -9850,10 +9950,10 @@
       <c r="H28" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="I28" s="124" t="s">
+      <c r="I28" s="108" t="s">
         <v>858</v>
       </c>
-      <c r="J28" s="130" t="s">
+      <c r="J28" s="114" t="s">
         <v>492</v>
       </c>
       <c r="K28" s="18" t="s">
@@ -9872,69 +9972,69 @@
         <v>593</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="127" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B29" s="128" t="s">
+    <row r="29" spans="1:21" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="111" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B29" s="112" t="s">
         <v>597</v>
       </c>
-      <c r="C29" s="148">
-        <f>Languages!C58</f>
-        <v>1E-4</v>
-      </c>
-      <c r="D29" s="128" t="s">
+      <c r="C29" s="127">
+        <f>Languages!C57</f>
+        <v>1.03E-4</v>
+      </c>
+      <c r="D29" s="112" t="s">
         <v>645</v>
       </c>
-      <c r="E29" s="128" t="s">
+      <c r="E29" s="112" t="s">
         <v>873</v>
       </c>
-      <c r="F29" s="128" t="s">
+      <c r="F29" s="112" t="s">
         <v>874</v>
       </c>
-      <c r="G29" s="128" t="s">
+      <c r="G29" s="112" t="s">
         <v>875</v>
       </c>
-      <c r="H29" s="128" t="s">
+      <c r="H29" s="112" t="s">
         <v>876</v>
       </c>
-      <c r="I29" s="128" t="s">
+      <c r="I29" s="112" t="s">
         <v>683</v>
       </c>
-      <c r="J29" s="155" t="s">
+      <c r="J29" s="134" t="s">
         <v>492</v>
       </c>
-      <c r="K29" s="156" t="s">
+      <c r="K29" s="135" t="s">
         <v>860</v>
       </c>
-      <c r="L29" s="156" t="s">
+      <c r="L29" s="135" t="s">
         <v>589</v>
       </c>
-      <c r="M29" s="156" t="s">
+      <c r="M29" s="135" t="s">
         <v>591</v>
       </c>
-      <c r="N29" s="156" t="s">
+      <c r="N29" s="135" t="s">
         <v>592</v>
       </c>
-      <c r="O29" s="156" t="s">
+      <c r="O29" s="135" t="s">
         <v>593</v>
       </c>
-      <c r="P29" s="137"/>
+      <c r="P29" s="116"/>
       <c r="Q29" s="20"/>
       <c r="R29" s="20"/>
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
     </row>
-    <row r="30" spans="1:21" s="124" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="141" t="s">
+      <c r="B30" s="120" t="s">
         <v>634</v>
       </c>
-      <c r="C30" s="151">
-        <f>Languages!C65</f>
-        <v>2.8E-5</v>
+      <c r="C30" s="130">
+        <f>Languages!C70</f>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>855</v>
@@ -9954,7 +10054,7 @@
       <c r="I30" s="33" t="s">
         <v>702</v>
       </c>
-      <c r="J30" s="130" t="s">
+      <c r="J30" s="114" t="s">
         <v>492</v>
       </c>
       <c r="K30" s="18" t="s">
@@ -9972,7 +10072,7 @@
       <c r="O30" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="P30" s="137"/>
+      <c r="P30" s="116"/>
       <c r="Q30" s="20"/>
       <c r="R30" s="20"/>
       <c r="S30" s="20"/>
@@ -9985,9 +10085,9 @@
       <c r="B31" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C31" s="151">
-        <f>Languages!C101</f>
-        <v>6.2999999999999998E-6</v>
+      <c r="C31" s="130">
+        <f>Languages!C100</f>
+        <v>6.1E-6</v>
       </c>
       <c r="D31" s="33" t="s">
         <v>877</v>
@@ -10007,7 +10107,7 @@
       <c r="I31" s="33" t="s">
         <v>882</v>
       </c>
-      <c r="J31" s="130" t="s">
+      <c r="J31" s="114" t="s">
         <v>492</v>
       </c>
       <c r="K31" s="18" t="s">
@@ -10025,7 +10125,7 @@
       <c r="O31" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="P31" s="137"/>
+      <c r="P31" s="116"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -10039,9 +10139,9 @@
       <c r="B32" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C32" s="152">
-        <f>Languages!C163+Languages!C146</f>
-        <v>1.1599999999999999E-6</v>
+      <c r="C32" s="131">
+        <f>Languages!C158+Languages!C165</f>
+        <v>1.11E-6</v>
       </c>
       <c r="D32" s="32" t="s">
         <v>781</v>
@@ -10061,7 +10161,7 @@
       <c r="I32" s="32" t="s">
         <v>774</v>
       </c>
-      <c r="J32" s="130" t="s">
+      <c r="J32" s="114" t="s">
         <v>492</v>
       </c>
       <c r="K32" s="18" t="s">
@@ -10079,7 +10179,7 @@
       <c r="O32" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="P32" s="137"/>
+      <c r="P32" s="116"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -10093,9 +10193,9 @@
       <c r="B33" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C33" s="152">
+      <c r="C33" s="131">
         <f>Languages!C141</f>
-        <v>8.6000000000000002E-7</v>
+        <v>8.7000000000000003E-7</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>861</v>
@@ -10115,7 +10215,7 @@
       <c r="I33" s="33" t="s">
         <v>625</v>
       </c>
-      <c r="J33" s="130" t="s">
+      <c r="J33" s="114" t="s">
         <v>492</v>
       </c>
       <c r="K33" s="18" t="s">
@@ -10133,7 +10233,7 @@
       <c r="O33" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="P33" s="137"/>
+      <c r="P33" s="116"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -10144,18 +10244,18 @@
       <c r="U34" s="20"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="142" t="s">
-        <v>972</v>
-      </c>
-      <c r="B35" s="128"/>
-      <c r="C35" s="148"/>
+      <c r="A35" s="121" t="s">
+        <v>971</v>
+      </c>
+      <c r="B35" s="112"/>
+      <c r="C35" s="127"/>
       <c r="D35" s="29"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
-      <c r="J35" s="128"/>
+      <c r="J35" s="112"/>
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
       <c r="M35" s="29"/>
@@ -10164,30 +10264,30 @@
       <c r="U35" s="20"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="143" t="s">
-        <v>964</v>
+      <c r="A36" s="122" t="s">
+        <v>963</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C36" s="149">
+      <c r="C36" s="128">
         <f>Languages!C23</f>
-        <v>4.7999999999999996E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="D36" s="34" t="s">
         <v>859</v>
       </c>
-      <c r="E36" s="101" t="s">
+      <c r="E36" s="88" t="s">
+        <v>930</v>
+      </c>
+      <c r="F36" s="88" t="s">
+        <v>584</v>
+      </c>
+      <c r="G36" s="88" t="s">
         <v>931</v>
       </c>
-      <c r="F36" s="101" t="s">
-        <v>584</v>
-      </c>
-      <c r="G36" s="101" t="s">
+      <c r="H36" s="34" t="s">
         <v>932</v>
-      </c>
-      <c r="H36" s="34" t="s">
-        <v>933</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>590</v>
@@ -10210,85 +10310,85 @@
       <c r="O36" s="34" t="s">
         <v>598</v>
       </c>
-      <c r="P36" s="137" t="s">
-        <v>988</v>
+      <c r="P36" s="116" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="144" t="s">
-        <v>982</v>
+      <c r="A37" s="123" t="s">
+        <v>981</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C37" s="149">
+      <c r="C37" s="128">
         <f>Languages!C26</f>
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>936</v>
-      </c>
-      <c r="E37" s="124" t="s">
+        <v>935</v>
+      </c>
+      <c r="E37" s="108" t="s">
+        <v>943</v>
+      </c>
+      <c r="F37" s="88" t="s">
+        <v>584</v>
+      </c>
+      <c r="G37" s="88" t="s">
+        <v>945</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>946</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>948</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>947</v>
+      </c>
+      <c r="K37" s="88" t="s">
         <v>944</v>
-      </c>
-      <c r="F37" s="101" t="s">
-        <v>584</v>
-      </c>
-      <c r="G37" s="101" t="s">
-        <v>946</v>
-      </c>
-      <c r="H37" s="34" t="s">
-        <v>947</v>
-      </c>
-      <c r="I37" s="34" t="s">
-        <v>949</v>
-      </c>
-      <c r="J37" s="34" t="s">
-        <v>948</v>
-      </c>
-      <c r="K37" s="101" t="s">
-        <v>945</v>
       </c>
       <c r="L37" s="18" t="s">
         <v>589</v>
       </c>
       <c r="M37" s="34" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="N37" s="34" t="s">
         <v>561</v>
       </c>
       <c r="O37" s="34" t="s">
-        <v>943</v>
-      </c>
-      <c r="P37" s="138" t="s">
-        <v>983</v>
+        <v>942</v>
+      </c>
+      <c r="P37" s="117" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="143" t="s">
-        <v>965</v>
+      <c r="A38" s="122" t="s">
+        <v>964</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C38" s="149">
+      <c r="C38" s="128">
         <f>Languages!C30</f>
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D38" s="101" t="s">
+      <c r="D38" s="88" t="s">
         <v>622</v>
       </c>
-      <c r="E38" s="101" t="s">
+      <c r="E38" s="88" t="s">
         <v>623</v>
       </c>
-      <c r="F38" s="101" t="s">
+      <c r="F38" s="88" t="s">
         <v>584</v>
       </c>
-      <c r="G38" s="101" t="s">
+      <c r="G38" s="88" t="s">
         <v>624</v>
       </c>
-      <c r="H38" s="101" t="s">
+      <c r="H38" s="88" t="s">
         <v>625</v>
       </c>
       <c r="I38" s="18" t="s">
@@ -10312,26 +10412,26 @@
       <c r="O38" s="34" t="s">
         <v>854</v>
       </c>
-      <c r="P38" s="137" t="s">
-        <v>988</v>
+      <c r="P38" s="116" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="39" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="144" t="s">
-        <v>984</v>
+      <c r="A39" s="123" t="s">
+        <v>983</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C39" s="149">
+      <c r="C39" s="128">
         <f>Languages!C34</f>
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="D39" s="101" t="s">
-        <v>938</v>
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="D39" s="88" t="s">
+        <v>937</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>587</v>
@@ -10343,46 +10443,46 @@
         <v>588</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J39" s="34" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="L39" s="18" t="s">
         <v>589</v>
       </c>
       <c r="M39" s="34" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="N39" s="34" t="s">
         <v>561</v>
       </c>
       <c r="O39" s="34" t="s">
-        <v>943</v>
-      </c>
-      <c r="P39" s="138" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="144" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B40" s="141" t="s">
+        <v>942</v>
+      </c>
+      <c r="P39" s="117" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="123" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B40" s="120" t="s">
         <v>597</v>
       </c>
-      <c r="C40" s="149">
-        <f>Languages!C38+Languages!C51+Languages!C86+Languages!C183</f>
-        <v>5.5626000000000004E-4</v>
+      <c r="C40" s="128">
+        <f>Languages!C38+Languages!C51+Languages!C83+Languages!C182</f>
+        <v>5.7169000000000002E-4</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="E40" s="125" t="s">
-        <v>1008</v>
+      <c r="E40" s="109" t="s">
+        <v>1007</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>587</v>
@@ -10396,14 +10496,14 @@
       <c r="I40" s="34" t="s">
         <v>645</v>
       </c>
-      <c r="J40" s="101" t="s">
+      <c r="J40" s="88" t="s">
         <v>678</v>
       </c>
       <c r="K40" s="30" t="s">
         <v>860</v>
       </c>
       <c r="L40" s="34" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="M40" s="34" t="s">
         <v>595</v>
@@ -10414,41 +10514,41 @@
       <c r="O40" s="34" t="s">
         <v>596</v>
       </c>
-      <c r="P40" s="137" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="143" t="s">
-        <v>966</v>
+      <c r="P40" s="116" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="122" t="s">
+        <v>965</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C41" s="149">
+      <c r="C41" s="128">
         <f>Languages!C37</f>
-        <v>4.8999999999999998E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D41" s="34" t="s">
+        <v>949</v>
+      </c>
+      <c r="E41" s="88" t="s">
         <v>950</v>
       </c>
-      <c r="E41" s="101" t="s">
+      <c r="F41" s="88" t="s">
         <v>951</v>
       </c>
-      <c r="F41" s="101" t="s">
+      <c r="G41" s="88" t="s">
         <v>952</v>
       </c>
-      <c r="G41" s="101" t="s">
+      <c r="H41" s="88" t="s">
         <v>953</v>
-      </c>
-      <c r="H41" s="101" t="s">
-        <v>954</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>590</v>
       </c>
       <c r="J41" s="34" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K41" s="34" t="s">
         <v>598</v>
@@ -10457,77 +10557,77 @@
         <v>589</v>
       </c>
       <c r="M41" s="34" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="N41" s="34" t="s">
         <v>561</v>
       </c>
       <c r="O41" s="34" t="s">
-        <v>943</v>
-      </c>
-      <c r="P41" s="137" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="144" t="s">
-        <v>967</v>
+        <v>942</v>
+      </c>
+      <c r="P41" s="116" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="123" t="s">
+        <v>966</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C42" s="149">
-        <f>Languages!C41</f>
-        <v>3.8000000000000002E-4</v>
+      <c r="C42" s="128">
+        <f>Languages!C40</f>
+        <v>3.8999999999999999E-4</v>
       </c>
       <c r="D42" s="34" t="s">
+        <v>960</v>
+      </c>
+      <c r="E42" s="88" t="s">
         <v>961</v>
       </c>
-      <c r="E42" s="101" t="s">
+      <c r="F42" s="88" t="s">
         <v>962</v>
       </c>
-      <c r="F42" s="101" t="s">
-        <v>963</v>
-      </c>
-      <c r="G42" s="101" t="s">
-        <v>954</v>
-      </c>
-      <c r="H42" s="101" t="s">
+      <c r="G42" s="88" t="s">
+        <v>953</v>
+      </c>
+      <c r="H42" s="88" t="s">
+        <v>956</v>
+      </c>
+      <c r="I42" s="88" t="s">
         <v>957</v>
       </c>
-      <c r="I42" s="101" t="s">
+      <c r="J42" s="34" t="s">
         <v>958</v>
       </c>
-      <c r="J42" s="34" t="s">
+      <c r="K42" s="34" t="s">
         <v>959</v>
-      </c>
-      <c r="K42" s="34" t="s">
-        <v>960</v>
       </c>
       <c r="L42" s="18" t="s">
         <v>589</v>
       </c>
       <c r="M42" s="34" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="N42" s="34" t="s">
         <v>561</v>
       </c>
       <c r="O42" s="34" t="s">
-        <v>943</v>
-      </c>
-      <c r="P42" s="138"/>
-    </row>
-    <row r="43" spans="1:21" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="101" t="s">
-        <v>1012</v>
+        <v>942</v>
+      </c>
+      <c r="P42" s="117"/>
+    </row>
+    <row r="43" spans="1:21" s="109" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="88" t="s">
+        <v>1011</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C43" s="161">
-        <f>Languages!C94</f>
-        <v>8.4999999999999999E-6</v>
+      <c r="C43" s="140">
+        <f>Languages!C93</f>
+        <v>8.6999999999999997E-6</v>
       </c>
       <c r="D43" s="34" t="s">
         <v>594</v>
@@ -10544,11 +10644,11 @@
       <c r="H43" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="I43" s="101" t="s">
-        <v>949</v>
-      </c>
-      <c r="J43" s="101" t="s">
-        <v>938</v>
+      <c r="I43" s="88" t="s">
+        <v>948</v>
+      </c>
+      <c r="J43" s="88" t="s">
+        <v>937</v>
       </c>
       <c r="K43" s="18" t="s">
         <v>860</v>
@@ -10562,43 +10662,43 @@
       <c r="N43" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="O43" s="101" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P44" s="125"/>
-    </row>
-    <row r="45" spans="1:21" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="142" t="s">
+      <c r="O43" s="88" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P44" s="109"/>
+    </row>
+    <row r="45" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="121" t="s">
         <v>780</v>
       </c>
-      <c r="B45" s="128"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="128"/>
-      <c r="F45" s="128"/>
-      <c r="G45" s="128"/>
-      <c r="H45" s="128"/>
-      <c r="I45" s="128"/>
-      <c r="J45" s="128"/>
-      <c r="K45" s="128"/>
-      <c r="L45" s="128"/>
-      <c r="M45" s="128"/>
-      <c r="N45" s="128"/>
-      <c r="O45" s="128"/>
-      <c r="P45" s="137"/>
-    </row>
-    <row r="46" spans="1:21" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="112"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="112"/>
+      <c r="K45" s="112"/>
+      <c r="L45" s="112"/>
+      <c r="M45" s="112"/>
+      <c r="N45" s="112"/>
+      <c r="O45" s="112"/>
+      <c r="P45" s="116"/>
+    </row>
+    <row r="46" spans="1:21" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>994</v>
-      </c>
-      <c r="B46" s="141" t="s">
+        <v>993</v>
+      </c>
+      <c r="B46" s="120" t="s">
         <v>634</v>
       </c>
-      <c r="C46" s="149">
-        <f>Languages!C18+Languages!C59+Languages!C193+Languages!C181+Languages!C160+Languages!C202</f>
-        <v>6.0631500000000015E-3</v>
+      <c r="C46" s="128">
+        <f>Languages!C18+Languages!C59+Languages!C191+Languages!C160+Languages!C156+Languages!C203</f>
+        <v>6.1604600000000004E-3</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>724</v>
@@ -10636,18 +10736,18 @@
       <c r="O46" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="P46" s="137"/>
-    </row>
-    <row r="47" spans="1:21" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P46" s="116"/>
+    </row>
+    <row r="47" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>993</v>
-      </c>
-      <c r="B47" s="141" t="s">
+        <v>992</v>
+      </c>
+      <c r="B47" s="120" t="s">
         <v>634</v>
       </c>
-      <c r="C47" s="149">
-        <f>Languages!C27+Languages!C46+Languages!C44</f>
-        <v>2.64E-3</v>
+      <c r="C47" s="128">
+        <f>Languages!C27+Languages!C46+Languages!C43</f>
+        <v>2.6700000000000001E-3</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>708</v>
@@ -10685,18 +10785,18 @@
       <c r="O47" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="P47" s="137"/>
-    </row>
-    <row r="48" spans="1:21" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P47" s="116"/>
+    </row>
+    <row r="48" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>992</v>
-      </c>
-      <c r="B48" s="141" t="s">
+        <v>991</v>
+      </c>
+      <c r="B48" s="120" t="s">
         <v>634</v>
       </c>
-      <c r="C48" s="149">
-        <f>Languages!C52+Languages!C56+Languages!C53+Languages!C81+Languages!C83+Languages!C159</f>
-        <v>2.8210000000000003E-4</v>
+      <c r="C48" s="128">
+        <f>Languages!C52+Languages!C55+Languages!C53+Languages!C80+Languages!C82+Languages!C155</f>
+        <v>2.8390000000000002E-4</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>723</v>
@@ -10734,18 +10834,18 @@
       <c r="O48" s="14" t="s">
         <v>885</v>
       </c>
-      <c r="P48" s="137"/>
-    </row>
-    <row r="49" spans="1:16" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P48" s="116"/>
+    </row>
+    <row r="49" spans="1:16" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="B49" s="141" t="s">
+      <c r="B49" s="120" t="s">
         <v>634</v>
       </c>
-      <c r="C49" s="151">
-        <f>Languages!C90+Languages!C182+Languages!C123</f>
-        <v>1.2659999999999999E-5</v>
+      <c r="C49" s="130">
+        <f>Languages!C88+Languages!C181+Languages!C121</f>
+        <v>1.2590000000000001E-5</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>723</v>
@@ -10783,18 +10883,18 @@
       <c r="O49" s="14" t="s">
         <v>750</v>
       </c>
-      <c r="P49" s="137"/>
-    </row>
-    <row r="50" spans="1:16" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P49" s="116"/>
+    </row>
+    <row r="50" spans="1:16" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="141" t="s">
+      <c r="B50" s="120" t="s">
         <v>634</v>
       </c>
-      <c r="C50" s="151">
-        <f>Languages!C71</f>
-        <v>2.5999999999999998E-5</v>
+      <c r="C50" s="130">
+        <f>Languages!C68</f>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>797</v>
@@ -10832,40 +10932,40 @@
       <c r="O50" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="P50" s="137" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P50" s="116" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B51" s="120" t="s">
+        <v>634</v>
+      </c>
+      <c r="C51" s="128" t="s">
+        <v>830</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E51" s="88" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F51" s="88" t="s">
         <v>1028</v>
       </c>
-      <c r="B51" s="141" t="s">
-        <v>634</v>
-      </c>
-      <c r="C51" s="149" t="s">
-        <v>830</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E51" s="101" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F51" s="101" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G51" s="101" t="s">
+      <c r="G51" s="88" t="s">
         <v>740</v>
       </c>
       <c r="H51" s="34" t="s">
         <v>768</v>
       </c>
-      <c r="I51" s="101" t="s">
+      <c r="I51" s="88" t="s">
         <v>739</v>
       </c>
       <c r="J51" s="34" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="K51" s="34" t="s">
         <v>706</v>
@@ -10874,20 +10974,20 @@
         <v>712</v>
       </c>
       <c r="M51" s="34" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N51" s="34" t="s">
         <v>1025</v>
-      </c>
-      <c r="N51" s="34" t="s">
-        <v>1026</v>
       </c>
       <c r="O51" s="34" t="s">
         <v>884</v>
       </c>
-      <c r="P51" s="138"/>
-    </row>
-    <row r="52" spans="1:16" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P51" s="117"/>
+    </row>
+    <row r="52" spans="1:16" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
-      <c r="C52" s="149"/>
+      <c r="C52" s="128"/>
       <c r="D52" s="34"/>
       <c r="G52" s="34"/>
       <c r="H52" s="34"/>
@@ -10898,12 +10998,12 @@
       <c r="M52" s="34"/>
       <c r="N52" s="34"/>
       <c r="O52" s="34"/>
-      <c r="P52" s="138"/>
-    </row>
-    <row r="53" spans="1:16" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P52" s="117"/>
+    </row>
+    <row r="53" spans="1:16" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
-      <c r="C53" s="149"/>
+      <c r="C53" s="128"/>
       <c r="D53" s="34"/>
       <c r="G53" s="34"/>
       <c r="H53" s="34"/>
@@ -10912,12 +11012,12 @@
       <c r="K53" s="34"/>
       <c r="L53" s="34"/>
       <c r="O53" s="34"/>
-      <c r="P53" s="138"/>
-    </row>
-    <row r="54" spans="1:16" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P53" s="117"/>
+    </row>
+    <row r="54" spans="1:16" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="149"/>
+      <c r="C54" s="128"/>
       <c r="D54" s="34"/>
       <c r="G54" s="34"/>
       <c r="H54" s="34"/>
@@ -10927,7 +11027,7 @@
       <c r="M54" s="34"/>
       <c r="N54" s="34"/>
       <c r="O54" s="34"/>
-      <c r="P54" s="137"/>
+      <c r="P54" s="116"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10943,7 +11043,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="171" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="150" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
@@ -10954,7 +11054,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="165"/>
+      <c r="A1" s="144"/>
       <c r="B1" s="11" t="s">
         <v>470</v>
       </c>
@@ -10967,10 +11067,10 @@
       <c r="E1" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="F1" s="164" t="s">
+      <c r="F1" s="143" t="s">
         <v>474</v>
       </c>
-      <c r="G1" s="164" t="s">
+      <c r="G1" s="143" t="s">
         <v>785</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -10978,7 +11078,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="145" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -10998,7 +11098,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="145" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -11018,7 +11118,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="145" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
@@ -11038,7 +11138,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="146" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -11061,7 +11161,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="145" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -11081,7 +11181,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="166" t="s">
+      <c r="A7" s="145" t="s">
         <v>486</v>
       </c>
       <c r="B7" t="s">
@@ -11104,7 +11204,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="145" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
@@ -11124,7 +11224,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="168" t="s">
+      <c r="A9" s="147" t="s">
         <v>493</v>
       </c>
       <c r="B9" t="s">
@@ -11147,7 +11247,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="145" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
@@ -11167,7 +11267,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="145" t="s">
         <v>498</v>
       </c>
       <c r="B11" t="s">
@@ -11187,7 +11287,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="148" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
@@ -11210,7 +11310,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="167" t="s">
+      <c r="A13" s="146" t="s">
         <v>503</v>
       </c>
       <c r="B13" t="s">
@@ -11233,7 +11333,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="145" t="s">
         <v>97</v>
       </c>
       <c r="B14" t="s">
@@ -11253,7 +11353,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="167" t="s">
+      <c r="A15" s="146" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
@@ -11276,7 +11376,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="145" t="s">
         <v>124</v>
       </c>
       <c r="B16" t="s">
@@ -11296,7 +11396,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="166" t="s">
+      <c r="A17" s="145" t="s">
         <v>84</v>
       </c>
       <c r="B17" t="s">
@@ -11308,15 +11408,15 @@
       <c r="D17" t="s">
         <v>349</v>
       </c>
-      <c r="F17" s="173">
+      <c r="F17" s="174">
         <v>23.6</v>
       </c>
-      <c r="G17" s="172">
+      <c r="G17" s="173">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="166" t="s">
+      <c r="A18" s="145" t="s">
         <v>508</v>
       </c>
       <c r="B18" t="s">
@@ -11328,11 +11428,11 @@
       <c r="D18" t="s">
         <v>478</v>
       </c>
-      <c r="F18" s="173"/>
-      <c r="G18" s="172"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="173"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="166" t="s">
+      <c r="A19" s="145" t="s">
         <v>510</v>
       </c>
       <c r="B19" t="s">
@@ -11352,7 +11452,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="166" t="s">
+      <c r="A20" s="145" t="s">
         <v>512</v>
       </c>
       <c r="B20" t="s">
@@ -11372,7 +11472,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="166" t="s">
+      <c r="A21" s="145" t="s">
         <v>47</v>
       </c>
       <c r="B21" t="s">
@@ -11392,7 +11492,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="166" t="s">
+      <c r="A22" s="145" t="s">
         <v>513</v>
       </c>
       <c r="B22" t="s">
@@ -11412,7 +11512,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="145" t="s">
         <v>131</v>
       </c>
       <c r="B23" t="s">
@@ -11432,7 +11532,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="169" t="s">
+      <c r="A24" s="148" t="s">
         <v>514</v>
       </c>
       <c r="B24" t="s">
@@ -11455,20 +11555,20 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="170" t="s">
+      <c r="A25" s="149" t="s">
         <v>519</v>
       </c>
       <c r="B25" t="s">
         <v>520</v>
       </c>
       <c r="C25" t="s">
+        <v>927</v>
+      </c>
+      <c r="D25" t="s">
         <v>928</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>929</v>
-      </c>
-      <c r="E25" t="s">
-        <v>930</v>
       </c>
       <c r="F25" s="7">
         <v>12.9</v>
@@ -11478,7 +11578,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="169" t="s">
+      <c r="A26" s="148" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -11501,20 +11601,20 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="169" t="s">
+      <c r="A27" s="148" t="s">
         <v>22</v>
       </c>
       <c r="B27" t="s">
         <v>524</v>
       </c>
       <c r="C27" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D27" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E27" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F27" s="7">
         <v>10.7</v>
@@ -11524,7 +11624,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="166" t="s">
+      <c r="A28" s="145" t="s">
         <v>23</v>
       </c>
       <c r="B28" t="s">
@@ -11544,7 +11644,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="166" t="s">
+      <c r="A29" s="145" t="s">
         <v>528</v>
       </c>
       <c r="B29" t="s">
@@ -11564,7 +11664,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="167" t="s">
+      <c r="A30" s="146" t="s">
         <v>48</v>
       </c>
       <c r="B30" t="s">
@@ -11587,7 +11687,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="168" t="s">
+      <c r="A31" s="147" t="s">
         <v>534</v>
       </c>
       <c r="B31" t="s">
@@ -11610,7 +11710,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="168" t="s">
+      <c r="A32" s="147" t="s">
         <v>539</v>
       </c>
       <c r="B32" t="s">
@@ -11633,7 +11733,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="170" t="s">
+      <c r="A33" s="149" t="s">
         <v>542</v>
       </c>
       <c r="B33" t="s">
@@ -11659,7 +11759,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="145" t="s">
         <v>26</v>
       </c>
       <c r="B34" t="s">
@@ -11679,7 +11779,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="166" t="s">
+      <c r="A35" s="145" t="s">
         <v>28</v>
       </c>
       <c r="B35" t="s">
@@ -11699,7 +11799,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="166" t="s">
+      <c r="A36" s="145" t="s">
         <v>551</v>
       </c>
       <c r="B36" t="s">
@@ -11719,7 +11819,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="166" t="s">
+      <c r="A37" s="145" t="s">
         <v>33</v>
       </c>
       <c r="B37" t="s">
@@ -11739,20 +11839,20 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="169" t="s">
+      <c r="A38" s="148" t="s">
         <v>29</v>
       </c>
       <c r="B38" t="s">
         <v>552</v>
       </c>
       <c r="C38" t="s">
+        <v>933</v>
+      </c>
+      <c r="D38" t="s">
         <v>934</v>
       </c>
-      <c r="D38" t="s">
-        <v>935</v>
-      </c>
       <c r="E38" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F38">
         <v>5.2</v>
@@ -11762,7 +11862,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="166" t="s">
+      <c r="A39" s="145" t="s">
         <v>553</v>
       </c>
       <c r="B39" t="s">
@@ -11782,7 +11882,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="166" t="s">
+      <c r="A40" s="145" t="s">
         <v>555</v>
       </c>
       <c r="B40" t="s">
@@ -11802,7 +11902,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="169" t="s">
+      <c r="A41" s="148" t="s">
         <v>556</v>
       </c>
       <c r="B41" t="s">
@@ -11825,7 +11925,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="168" t="s">
+      <c r="A42" s="147" t="s">
         <v>560</v>
       </c>
       <c r="B42" t="s">
@@ -11848,14 +11948,14 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="169" t="s">
+      <c r="A43" s="148" t="s">
         <v>565</v>
       </c>
       <c r="B43" t="s">
         <v>566</v>
       </c>
       <c r="C43" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D43" t="s">
         <v>567</v>
@@ -11871,7 +11971,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="168" t="s">
+      <c r="A44" s="147" t="s">
         <v>568</v>
       </c>
       <c r="B44" t="s">
@@ -11894,7 +11994,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="169" t="s">
+      <c r="A45" s="148" t="s">
         <v>573</v>
       </c>
       <c r="B45" t="s">
@@ -11917,7 +12017,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="170" t="s">
+      <c r="A46" s="149" t="s">
         <v>578</v>
       </c>
       <c r="B46" t="s">
@@ -11940,7 +12040,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="168" t="s">
+      <c r="A47" s="147" t="s">
         <v>583</v>
       </c>
       <c r="B47" t="s">
@@ -12321,10 +12421,10 @@
       <c r="E18" t="s">
         <v>723</v>
       </c>
-      <c r="F18" s="174">
+      <c r="F18" s="175">
         <v>3.5</v>
       </c>
-      <c r="G18" s="174">
+      <c r="G18" s="175">
         <v>3.5</v>
       </c>
     </row>
@@ -12338,8 +12438,8 @@
       <c r="E19" t="s">
         <v>724</v>
       </c>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="175"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
@@ -15394,117 +15494,117 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="125" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="125"/>
+    <col min="1" max="1" width="23.7109375" style="109" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="109"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="127"/>
-      <c r="B1" s="128" t="s">
-        <v>998</v>
-      </c>
-      <c r="C1" s="128" t="s">
+      <c r="A1" s="111"/>
+      <c r="B1" s="112" t="s">
+        <v>997</v>
+      </c>
+      <c r="C1" s="112" t="s">
         <v>594</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="112" t="s">
         <v>595</v>
       </c>
-      <c r="E1" s="128" t="s">
+      <c r="E1" s="112" t="s">
         <v>596</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="112" t="s">
         <v>587</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="G1" s="112" t="s">
         <v>423</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="112" t="s">
         <v>588</v>
       </c>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="112" t="s">
         <v>477</v>
       </c>
-      <c r="J1" s="128" t="s">
-        <v>954</v>
-      </c>
-      <c r="K1" s="128" t="s">
+      <c r="J1" s="112" t="s">
+        <v>953</v>
+      </c>
+      <c r="K1" s="112" t="s">
         <v>678</v>
       </c>
-      <c r="L1" s="163" t="s">
-        <v>1001</v>
-      </c>
-      <c r="M1" s="163" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N1" s="163" t="s">
-        <v>1005</v>
-      </c>
-      <c r="O1" s="128" t="s">
+      <c r="L1" s="142" t="s">
+        <v>1000</v>
+      </c>
+      <c r="M1" s="142" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N1" s="142" t="s">
+        <v>1004</v>
+      </c>
+      <c r="O1" s="112" t="s">
+        <v>1007</v>
+      </c>
+      <c r="P1" s="111" t="s">
         <v>1008</v>
       </c>
-      <c r="P1" s="127" t="s">
-        <v>1009</v>
-      </c>
-      <c r="Q1" s="128"/>
+      <c r="Q1" s="112"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="C2" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="D2" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="E2" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="G2" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="H2" s="125" t="s">
-        <v>999</v>
+      <c r="B2" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="E2" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="G2" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="H2" s="109" t="s">
+        <v>998</v>
       </c>
       <c r="P2" s="12"/>
-      <c r="Q2" s="125">
+      <c r="Q2" s="109">
         <f>COUNTA(B2:P2)</f>
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="125" t="s">
         <v>999</v>
       </c>
-      <c r="C3" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="D3" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="E3" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="F3" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="G3" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="H3" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="I3" s="125" t="s">
-        <v>999</v>
+      <c r="B3" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="C3" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="D3" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="E3" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="F3" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="G3" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="H3" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="I3" s="109" t="s">
+        <v>998</v>
       </c>
       <c r="P3" s="12"/>
-      <c r="Q3" s="125">
+      <c r="Q3" s="109">
         <f t="shared" ref="Q3:Q10" si="0">COUNTA(B3:P3)</f>
         <v>8</v>
       </c>
@@ -15513,77 +15613,77 @@
       <c r="A4" s="12" t="s">
         <v>916</v>
       </c>
-      <c r="B4" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="C4" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="D4" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="E4" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="F4" s="160" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G4" s="160" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H4" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="I4" s="160" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K4" s="160" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L4" s="160" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M4" s="160" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="125">
+      <c r="B4" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="C4" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="D4" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="E4" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="F4" s="139" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G4" s="139" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H4" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="I4" s="139" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K4" s="139" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L4" s="139" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M4" s="139" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N4" s="139"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="141"/>
+      <c r="Q4" s="109">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B5" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="D5" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="E5" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="F5" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="G5" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="H5" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="I5" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="J5" s="125" t="s">
-        <v>999</v>
+        <v>1003</v>
+      </c>
+      <c r="B5" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="D5" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="E5" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="F5" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="G5" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="H5" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="I5" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="J5" s="109" t="s">
+        <v>998</v>
       </c>
       <c r="P5" s="12"/>
-      <c r="Q5" s="125">
+      <c r="Q5" s="109">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -15592,60 +15692,60 @@
       <c r="A6" s="12" t="s">
         <v>919</v>
       </c>
-      <c r="B6" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="C6" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="D6" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="E6" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="G6" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="H6" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="I6" s="125" t="s">
-        <v>999</v>
+      <c r="B6" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="C6" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="D6" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="E6" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="G6" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="H6" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="I6" s="109" t="s">
+        <v>998</v>
       </c>
       <c r="P6" s="12"/>
-      <c r="Q6" s="125">
+      <c r="Q6" s="109">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B7" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="C7" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="D7" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="G7" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="H7" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="I7" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="N7" s="125" t="s">
-        <v>999</v>
+        <v>1005</v>
+      </c>
+      <c r="B7" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="C7" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="D7" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="G7" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="H7" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="I7" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="N7" s="109" t="s">
+        <v>998</v>
       </c>
       <c r="P7" s="12"/>
-      <c r="Q7" s="125">
+      <c r="Q7" s="109">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -15654,159 +15754,159 @@
       <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="C8" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="D8" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="E8" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="G8" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="H8" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="K8" s="125" t="s">
-        <v>999</v>
+      <c r="B8" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="C8" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="D8" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="E8" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="G8" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="H8" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="K8" s="109" t="s">
+        <v>998</v>
       </c>
       <c r="P8" s="12"/>
-      <c r="Q8" s="125">
+      <c r="Q8" s="109">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B9" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="C9" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="D9" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="F9" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="G9" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="H9" s="125" t="s">
-        <v>999</v>
-      </c>
-      <c r="O9" s="125" t="s">
-        <v>999</v>
+        <v>1006</v>
+      </c>
+      <c r="B9" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="C9" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="D9" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="F9" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="G9" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="H9" s="109" t="s">
+        <v>998</v>
+      </c>
+      <c r="O9" s="109" t="s">
+        <v>998</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>999</v>
-      </c>
-      <c r="Q9" s="125">
+        <v>998</v>
+      </c>
+      <c r="Q9" s="109">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="127" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B10" s="128" t="s">
-        <v>999</v>
-      </c>
-      <c r="C10" s="128" t="s">
-        <v>999</v>
-      </c>
-      <c r="D10" s="128" t="s">
-        <v>999</v>
-      </c>
-      <c r="E10" s="128" t="s">
-        <v>999</v>
-      </c>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128" t="s">
-        <v>999</v>
-      </c>
-      <c r="H10" s="128" t="s">
-        <v>999</v>
-      </c>
-      <c r="I10" s="128" t="s">
-        <v>999</v>
-      </c>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="128">
+      <c r="A10" s="111" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B10" s="112" t="s">
+        <v>998</v>
+      </c>
+      <c r="C10" s="112" t="s">
+        <v>998</v>
+      </c>
+      <c r="D10" s="112" t="s">
+        <v>998</v>
+      </c>
+      <c r="E10" s="112" t="s">
+        <v>998</v>
+      </c>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112" t="s">
+        <v>998</v>
+      </c>
+      <c r="H10" s="112" t="s">
+        <v>998</v>
+      </c>
+      <c r="I10" s="112" t="s">
+        <v>998</v>
+      </c>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="112">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="125">
+      <c r="B11" s="109">
         <f>COUNTA(B2:B10)</f>
         <v>9</v>
       </c>
-      <c r="C11" s="125">
+      <c r="C11" s="109">
         <f t="shared" ref="C11:P11" si="1">COUNTA(C2:C10)</f>
         <v>8</v>
       </c>
-      <c r="D11" s="125">
+      <c r="D11" s="109">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E11" s="125">
+      <c r="E11" s="109">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F11" s="125">
+      <c r="F11" s="109">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G11" s="125">
+      <c r="G11" s="109">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H11" s="125">
+      <c r="H11" s="109">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I11" s="125">
+      <c r="I11" s="109">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J11" s="125">
+      <c r="J11" s="109">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K11" s="125">
+      <c r="K11" s="109">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L11" s="125">
+      <c r="L11" s="109">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M11" s="125">
+      <c r="M11" s="109">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N11" s="125">
+      <c r="N11" s="109">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O11" s="125">
+      <c r="O11" s="109">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
